--- a/Output/Steelhead_Habitat_Quality_RESTORATION_Okanogan.xlsx
+++ b/Output/Steelhead_Habitat_Quality_RESTORATION_Okanogan.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -430,7 +430,7 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Riparian_Mean_score</t>
+          <t>Riparian_score</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Lower Antoine Creek</t>
+          <t>Antoine Creek-Lower</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -534,7 +534,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Loup Loup 16-1</t>
+          <t>Antoine 16-4</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -544,7 +544,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Lower Loup Loup Creek</t>
+          <t>Antoine Creek-Lower</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -563,16 +563,16 @@
         </is>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I3">
         <v>5</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K3">
         <v>5</v>
@@ -581,7 +581,7 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N3">
         <v>5</v>
@@ -594,24 +594,19 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>%Fines/Embeddedness,ChannelStability,Cover-Wood,Flow-SummerBaseFlow</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>Food-FoodWebResources</t>
+          <t>Flow-SummerBaseFlow</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>%Fines/Embeddedness,ChannelStability,Cover-Wood,Flow-SummerBaseFlow</t>
+          <t>Flow-SummerBaseFlow</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Loup Loup 16-2</t>
+          <t>Antoine 16-5</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -621,7 +616,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Lower Loup Loup Creek</t>
+          <t>Antoine Creek-Lower</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -640,7 +635,7 @@
         </is>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H4">
         <v>5</v>
@@ -655,10 +650,10 @@
         <v>5</v>
       </c>
       <c r="L4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N4">
         <v>5</v>
@@ -671,19 +666,24 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>%Fines/Embeddedness,Cover-Wood</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Food-FoodWebResources</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>%Fines/Embeddedness,Cover-Wood</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Omak 16-1</t>
+          <t>Johnson 16-3</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Lower Omak Creek</t>
+          <t>Johnson Creek</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H5">
         <v>5</v>
@@ -730,7 +730,7 @@
         <v>5</v>
       </c>
       <c r="M5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N5">
         <v>5</v>
@@ -743,14 +743,14 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Food-FoodWebResources</t>
+          <t>%Fines/Embeddedness</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Omak 16-3</t>
+          <t>Johnson 16-4</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Lower Omak Creek</t>
+          <t>Johnson Creek</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -779,7 +779,7 @@
         </is>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <v>5</v>
@@ -806,28 +806,23 @@
         <v>5</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Food-FoodWebResources,Temperature-Rearing</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>%Fines/Embeddedness</t>
+          <t>%Fines/Embeddedness,Flow-SummerBaseFlow,Food-FoodWebResources</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Food-FoodWebResources,Temperature-Rearing</t>
+          <t>%Fines/Embeddedness,Flow-SummerBaseFlow,Food-FoodWebResources</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Salmon 16-1</t>
+          <t>Johnson 16-5</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -837,7 +832,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Salmon Creek-Green Lake</t>
+          <t>Johnson Creek</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -871,10 +866,10 @@
         <v>5</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N7">
         <v>5</v>
@@ -887,19 +882,19 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow</t>
+          <t>Food-FoodWebResources</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow</t>
+          <t>Food-FoodWebResources</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Salmon 16-3</t>
+          <t>Johnson 16-6</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -909,7 +904,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Salmon Creek-Green Lake</t>
+          <t>Johnson Creek</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -931,22 +926,22 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I8">
         <v>5</v>
       </c>
       <c r="J8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K8">
         <v>5</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N8">
         <v>5</v>
@@ -959,19 +954,24 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>%Fines/Embeddedness,Flow-SummerBaseFlow,Food-FoodWebResources</t>
+          <t>%Fines/Embeddedness</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>ChannelStability,Cover-Wood,Food-FoodWebResources</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>%Fines/Embeddedness,Flow-SummerBaseFlow,Food-FoodWebResources</t>
+          <t>%Fines/Embeddedness</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Salmon 16-4</t>
+          <t>Johnson 16-7</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -981,7 +981,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Salmon Creek-Green Lake</t>
+          <t>Johnson Creek</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1003,7 +1003,7 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I9">
         <v>5</v>
@@ -1018,7 +1018,7 @@
         <v>5</v>
       </c>
       <c r="M9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N9">
         <v>5</v>
@@ -1031,24 +1031,24 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>%Fines/Embeddedness,Food-FoodWebResources</t>
+          <t>%Fines/Embeddedness</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Cover-Wood</t>
+          <t>ChannelStability,Cover-Wood,Food-FoodWebResources</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>%Fines/Embeddedness,Food-FoodWebResources</t>
+          <t>%Fines/Embeddedness</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Similkameen 16-2</t>
+          <t>Johnson 16-9</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1058,7 +1058,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Similkameen River-Ellemeham Draw</t>
+          <t>Johnson Creek</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1077,10 +1077,10 @@
         </is>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I10">
         <v>5</v>
@@ -1095,7 +1095,7 @@
         <v>5</v>
       </c>
       <c r="M10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N10">
         <v>5</v>
@@ -1104,96 +1104,1057 @@
         <v>5</v>
       </c>
       <c r="P10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>Temperature-Rearing</t>
+          <t>%Fines/Embeddedness</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>%Fines/Embeddedness,Cover-Wood</t>
+          <t>ChannelStability,Cover-Wood,Food-FoodWebResources</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>Temperature-Rearing</t>
+          <t>%Fines/Embeddedness</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>Loup Loup 16-1</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Loup Loup Creek-Lower DS</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>5</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>3</v>
+      </c>
+      <c r="N11">
+        <v>5</v>
+      </c>
+      <c r="O11">
+        <v>5</v>
+      </c>
+      <c r="P11">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>%Fines/Embeddedness,ChannelStability,Cover-Wood,Flow-SummerBaseFlow</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>Food-FoodWebResources</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>%Fines/Embeddedness,ChannelStability,Cover-Wood,Flow-SummerBaseFlow</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Loup Loup 16-2</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Loup Loup Creek-Lower DS</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+      <c r="I12">
+        <v>5</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>5</v>
+      </c>
+      <c r="L12">
+        <v>5</v>
+      </c>
+      <c r="M12">
+        <v>5</v>
+      </c>
+      <c r="N12">
+        <v>5</v>
+      </c>
+      <c r="O12">
+        <v>5</v>
+      </c>
+      <c r="P12">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>%Fines/Embeddedness,Cover-Wood</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>%Fines/Embeddedness,Cover-Wood</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Loup Loup 16-3</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Loup Loup Creek-Lower DS</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13">
+        <v>5</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>5</v>
+      </c>
+      <c r="L13">
+        <v>3</v>
+      </c>
+      <c r="M13">
+        <v>3</v>
+      </c>
+      <c r="N13">
+        <v>5</v>
+      </c>
+      <c r="O13">
+        <v>5</v>
+      </c>
+      <c r="P13">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>Cover-Wood</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>Flow-SummerBaseFlow,Food-FoodWebResources</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>Cover-Wood</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Omak 16-1</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Omak Creek-Lower US</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
+      <c r="J14">
+        <v>5</v>
+      </c>
+      <c r="K14">
+        <v>5</v>
+      </c>
+      <c r="L14">
+        <v>5</v>
+      </c>
+      <c r="M14">
+        <v>3</v>
+      </c>
+      <c r="N14">
+        <v>5</v>
+      </c>
+      <c r="O14">
+        <v>5</v>
+      </c>
+      <c r="P14">
+        <v>5</v>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>Food-FoodWebResources</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Omak 16-3</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Omak Creek-Lower US</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15">
+        <v>5</v>
+      </c>
+      <c r="J15">
+        <v>5</v>
+      </c>
+      <c r="K15">
+        <v>5</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>5</v>
+      </c>
+      <c r="O15">
+        <v>5</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>Flow-SummerBaseFlow,Food-FoodWebResources,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>%Fines/Embeddedness</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>Flow-SummerBaseFlow,Food-FoodWebResources,Temperature-Rearing</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Omak 16-8</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Omak Creek-Lower US</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>5</v>
+      </c>
+      <c r="I16">
+        <v>5</v>
+      </c>
+      <c r="J16">
+        <v>5</v>
+      </c>
+      <c r="K16">
+        <v>5</v>
+      </c>
+      <c r="L16">
+        <v>5</v>
+      </c>
+      <c r="M16">
+        <v>3</v>
+      </c>
+      <c r="N16">
+        <v>5</v>
+      </c>
+      <c r="O16">
+        <v>5</v>
+      </c>
+      <c r="P16">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>%Fines/Embeddedness</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>Food-FoodWebResources</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>%Fines/Embeddedness</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Salmon 16-1</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Salmon Creek-Lower</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+      <c r="H17">
+        <v>5</v>
+      </c>
+      <c r="I17">
+        <v>5</v>
+      </c>
+      <c r="J17">
+        <v>5</v>
+      </c>
+      <c r="K17">
+        <v>5</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>5</v>
+      </c>
+      <c r="N17">
+        <v>5</v>
+      </c>
+      <c r="O17">
+        <v>5</v>
+      </c>
+      <c r="P17">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>Flow-SummerBaseFlow</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>Flow-SummerBaseFlow</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Salmon 16-3</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Salmon Creek-Lower</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>5</v>
+      </c>
+      <c r="I18">
+        <v>5</v>
+      </c>
+      <c r="J18">
+        <v>5</v>
+      </c>
+      <c r="K18">
+        <v>5</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>5</v>
+      </c>
+      <c r="O18">
+        <v>5</v>
+      </c>
+      <c r="P18">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>%Fines/Embeddedness,Flow-SummerBaseFlow,Food-FoodWebResources</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>%Fines/Embeddedness,Flow-SummerBaseFlow,Food-FoodWebResources</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Salmon 16-4</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Salmon Creek-Lower</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>5</v>
+      </c>
+      <c r="I19">
+        <v>5</v>
+      </c>
+      <c r="J19">
+        <v>3</v>
+      </c>
+      <c r="K19">
+        <v>5</v>
+      </c>
+      <c r="L19">
+        <v>5</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>5</v>
+      </c>
+      <c r="O19">
+        <v>5</v>
+      </c>
+      <c r="P19">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>%Fines/Embeddedness,Food-FoodWebResources</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>Cover-Wood</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>%Fines/Embeddedness,Food-FoodWebResources</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Salmon 16-5</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Salmon Creek-Lower</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>5</v>
+      </c>
+      <c r="I20">
+        <v>5</v>
+      </c>
+      <c r="J20">
+        <v>5</v>
+      </c>
+      <c r="K20">
+        <v>5</v>
+      </c>
+      <c r="L20">
+        <v>5</v>
+      </c>
+      <c r="M20">
+        <v>5</v>
+      </c>
+      <c r="N20">
+        <v>5</v>
+      </c>
+      <c r="O20">
+        <v>5</v>
+      </c>
+      <c r="P20">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>%Fines/Embeddedness</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>%Fines/Embeddedness</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Salmon 16-6</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Salmon Creek-Lower</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+      <c r="H21">
+        <v>5</v>
+      </c>
+      <c r="I21">
+        <v>5</v>
+      </c>
+      <c r="J21">
+        <v>5</v>
+      </c>
+      <c r="K21">
+        <v>5</v>
+      </c>
+      <c r="L21">
+        <v>5</v>
+      </c>
+      <c r="M21">
+        <v>3</v>
+      </c>
+      <c r="N21">
+        <v>5</v>
+      </c>
+      <c r="O21">
+        <v>5</v>
+      </c>
+      <c r="P21">
+        <v>5</v>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>%Fines/Embeddedness,Food-FoodWebResources</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Salmon 16-9</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Salmon Creek-Lower</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>5</v>
+      </c>
+      <c r="I22">
+        <v>5</v>
+      </c>
+      <c r="J22">
+        <v>3</v>
+      </c>
+      <c r="K22">
+        <v>5</v>
+      </c>
+      <c r="L22">
+        <v>5</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>5</v>
+      </c>
+      <c r="O22">
+        <v>5</v>
+      </c>
+      <c r="P22">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>%Fines/Embeddedness,Food-FoodWebResources</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>Cover-Wood</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>%Fines/Embeddedness,Food-FoodWebResources</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Similkameen 16-2</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Similkameen River</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="H23">
+        <v>5</v>
+      </c>
+      <c r="I23">
+        <v>5</v>
+      </c>
+      <c r="J23">
+        <v>3</v>
+      </c>
+      <c r="K23">
+        <v>5</v>
+      </c>
+      <c r="L23">
+        <v>5</v>
+      </c>
+      <c r="M23">
+        <v>5</v>
+      </c>
+      <c r="N23">
+        <v>5</v>
+      </c>
+      <c r="O23">
+        <v>5</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>%Fines/Embeddedness,Cover-Wood</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>Temperature-Rearing</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
           <t>Similkameen 16-3</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Okanogan</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Similkameen River-Ellemeham Draw</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="G11">
-        <v>5</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>5</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>5</v>
-      </c>
-      <c r="L11">
-        <v>3</v>
-      </c>
-      <c r="M11">
-        <v>3</v>
-      </c>
-      <c r="N11">
-        <v>5</v>
-      </c>
-      <c r="O11">
-        <v>5</v>
-      </c>
-      <c r="P11">
-        <v>3</v>
-      </c>
-      <c r="Q11" t="inlineStr">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Similkameen River</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="G24">
+        <v>5</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>5</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>5</v>
+      </c>
+      <c r="L24">
+        <v>3</v>
+      </c>
+      <c r="M24">
+        <v>3</v>
+      </c>
+      <c r="N24">
+        <v>5</v>
+      </c>
+      <c r="O24">
+        <v>5</v>
+      </c>
+      <c r="P24">
+        <v>3</v>
+      </c>
+      <c r="Q24" t="inlineStr">
         <is>
           <t>ChannelStability,Cover-Wood</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr">
+      <c r="R24" t="inlineStr">
         <is>
           <t>Flow-SummerBaseFlow,Food-FoodWebResources,Temperature-Rearing</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="S24" t="inlineStr">
         <is>
           <t>ChannelStability,Cover-Wood</t>
         </is>

--- a/Output/Steelhead_Habitat_Quality_RESTORATION_Okanogan.xlsx
+++ b/Output/Steelhead_Habitat_Quality_RESTORATION_Okanogan.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S24"/>
+  <dimension ref="A1:Z41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -390,7 +390,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>%Fines/Embeddedness_score</t>
+          <t>BankStability_score</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -400,19 +400,19 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Contaminants_score</t>
+          <t>Stability_Mean</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>CoarseSubstrate_score</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>Cover-Wood_score</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Flow-Scour_score</t>
-        </is>
-      </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Flow-SummerBaseFlow_score</t>
@@ -420,35 +420,70 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Food-FoodWebResources_score</t>
+          <t>Off-Channel-Floodplain_score</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Predation_score</t>
+          <t>Off-Channel-Side-Channels_score</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Riparian_score</t>
+          <t>PoolQuantity&amp;Quality_score</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
+          <t>Riparian-Disturbance_score</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Riparian-CanopyCover_score</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Riparian_Mean</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
           <t>Temperature-Rearing_score</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>HQ_Sum</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>HQ_Pct</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>HQ_Score_Restoration</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>HQ_Score_Protection</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>unacceptable_1_indiv_habitat_attributes</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>at_risk_2_or_3_indiv_habitat_attributes</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>unacceptable_AND_at_risk_1_to_3_indiv_habitat_attributes</t>
         </is>
@@ -467,7 +502,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Antoine Creek-Lower</t>
+          <t>Lower Antoine Creek</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -492,49 +527,43 @@
         <v>3</v>
       </c>
       <c r="I2">
-        <v>5</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>5</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <v>5</v>
-      </c>
-      <c r="O2">
-        <v>5</v>
-      </c>
-      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
         <v>3</v>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>Cover-Wood,Food-FoodWebResources</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>%Fines/Embeddedness,ChannelStability,Temperature-Rearing</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>Cover-Wood,Food-FoodWebResources</t>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Contaminants,Cover- Wood,Flow- Summer Base Flow,Riparian- Canopy Cover</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>% Fines/Embeddedness,Bank Stability,Channel Stability,Food- Food Web Resources,Temperature- Adult Holding,Temperature- Adult Spawning,Temperature- Rearing</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>% Fines/Embeddedness,Bank Stability,Channel Stability,Contaminants,Cover- Wood,Flow- Summer Base Flow,Food- Food Web Resources,Riparian- Canopy Cover,Temperature- Adult Holding,Temperature- Adult Spawning,Temperature- Rearing</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Antoine 16-4</t>
+          <t>Antoine 16-3</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -544,7 +573,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Antoine Creek-Lower</t>
+          <t>Lower Antoine Creek</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -571,42 +600,41 @@
       <c r="I3">
         <v>5</v>
       </c>
-      <c r="J3">
-        <v>5</v>
-      </c>
       <c r="K3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
-      <c r="M3">
-        <v>5</v>
-      </c>
-      <c r="N3">
-        <v>5</v>
-      </c>
-      <c r="O3">
-        <v>5</v>
-      </c>
-      <c r="P3">
-        <v>5</v>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>Flow-SummerBaseFlow</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>Flow-SummerBaseFlow</t>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>5</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>% Fines/Embeddedness,Contaminants,Flow- Summer Base Flow,Riparian- Canopy Cover</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>Cover- Wood</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>% Fines/Embeddedness,Contaminants,Cover- Wood,Flow- Summer Base Flow,Riparian- Canopy Cover</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Antoine 16-5</t>
+          <t>Johnson 16-1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -616,7 +644,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Antoine Creek-Lower</t>
+          <t>Johnson Creek</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -635,55 +663,49 @@
         </is>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>5</v>
-      </c>
-      <c r="J4">
         <v>1</v>
       </c>
       <c r="K4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
-      <c r="M4">
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
         <v>3</v>
       </c>
-      <c r="N4">
-        <v>5</v>
-      </c>
-      <c r="O4">
-        <v>5</v>
-      </c>
-      <c r="P4">
-        <v>5</v>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>Food-FoodWebResources</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow</t>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>% Fines/Embeddedness,Bank Stability,Channel Stability,Contaminants,Cover- Wood,Flow- Summer Base Flow,Riparian- Canopy Cover</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>Temperature- Adult Holding,Temperature- Adult Spawning,Temperature- Rearing</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>% Fines/Embeddedness,Bank Stability,Channel Stability,Contaminants,Cover- Wood,Flow- Summer Base Flow,Riparian- Canopy Cover,Temperature- Adult Holding,Temperature- Adult Spawning,Temperature- Rearing</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Johnson 16-3</t>
+          <t>Johnson 16-2</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -712,45 +734,49 @@
         </is>
       </c>
       <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
         <v>3</v>
       </c>
-      <c r="H5">
-        <v>5</v>
-      </c>
-      <c r="I5">
-        <v>5</v>
-      </c>
-      <c r="J5">
-        <v>5</v>
-      </c>
-      <c r="K5">
-        <v>5</v>
-      </c>
-      <c r="L5">
-        <v>5</v>
-      </c>
-      <c r="M5">
-        <v>5</v>
-      </c>
-      <c r="N5">
-        <v>5</v>
-      </c>
-      <c r="O5">
-        <v>5</v>
-      </c>
-      <c r="P5">
-        <v>5</v>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>%Fines/Embeddedness</t>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Bank Stability,Channel Stability,Contaminants,Cover- Wood,Flow- Summer Base Flow,Riparian- Canopy Cover</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>% Fines/Embeddedness,Food- Food Web Resources,Temperature- Adult Holding,Temperature- Adult Spawning,Temperature- Rearing</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>% Fines/Embeddedness,Bank Stability,Channel Stability,Contaminants,Cover- Wood,Flow- Summer Base Flow,Food- Food Web Resources,Riparian- Canopy Cover,Temperature- Adult Holding,Temperature- Adult Spawning,Temperature- Rearing</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Johnson 16-4</t>
+          <t>Johnson 16-3</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -779,7 +805,7 @@
         </is>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H6">
         <v>5</v>
@@ -787,42 +813,41 @@
       <c r="I6">
         <v>5</v>
       </c>
-      <c r="J6">
-        <v>5</v>
-      </c>
       <c r="K6">
         <v>5</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="N6">
-        <v>5</v>
-      </c>
-      <c r="O6">
-        <v>5</v>
-      </c>
-      <c r="P6">
-        <v>5</v>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>%Fines/Embeddedness,Flow-SummerBaseFlow,Food-FoodWebResources</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>%Fines/Embeddedness,Flow-SummerBaseFlow,Food-FoodWebResources</t>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>5</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Flow- Summer Base Flow,Riparian- Canopy Cover</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>% Fines/Embeddedness</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>% Fines/Embeddedness,Flow- Summer Base Flow,Riparian- Canopy Cover</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Johnson 16-5</t>
+          <t>Johnson 16-4</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -859,35 +884,29 @@
       <c r="I7">
         <v>5</v>
       </c>
-      <c r="J7">
-        <v>5</v>
-      </c>
       <c r="K7">
         <v>5</v>
       </c>
       <c r="L7">
-        <v>5</v>
-      </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-      <c r="N7">
-        <v>5</v>
-      </c>
-      <c r="O7">
-        <v>5</v>
-      </c>
-      <c r="P7">
-        <v>5</v>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>Food-FoodWebResources</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>Food-FoodWebResources</t>
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>5</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>% Fines/Embeddedness,Flow- Summer Base Flow,Food- Food Web Resources,Riparian- Canopy Cover</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>% Fines/Embeddedness,Flow- Summer Base Flow,Food- Food Web Resources,Riparian- Canopy Cover</t>
         </is>
       </c>
     </row>
@@ -923,48 +942,42 @@
         </is>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H8">
         <v>3</v>
       </c>
       <c r="I8">
-        <v>5</v>
-      </c>
-      <c r="J8">
         <v>3</v>
       </c>
       <c r="K8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>5</v>
-      </c>
-      <c r="M8">
-        <v>3</v>
-      </c>
-      <c r="N8">
-        <v>5</v>
-      </c>
-      <c r="O8">
-        <v>5</v>
-      </c>
-      <c r="P8">
-        <v>5</v>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>%Fines/Embeddedness</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>ChannelStability,Cover-Wood,Food-FoodWebResources</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>%Fines/Embeddedness</t>
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>5</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>% Fines/Embeddedness,Flow- Summer Base Flow,Riparian- Canopy Cover</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>Bank Stability,Channel Stability,Cover- Wood,Food- Food Web Resources</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>% Fines/Embeddedness,Bank Stability,Channel Stability,Cover- Wood,Flow- Summer Base Flow,Food- Food Web Resources,Riparian- Canopy Cover</t>
         </is>
       </c>
     </row>
@@ -1000,48 +1013,42 @@
         </is>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H9">
         <v>3</v>
       </c>
       <c r="I9">
-        <v>5</v>
-      </c>
-      <c r="J9">
         <v>3</v>
       </c>
       <c r="K9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>5</v>
-      </c>
-      <c r="M9">
-        <v>3</v>
-      </c>
-      <c r="N9">
-        <v>5</v>
-      </c>
-      <c r="O9">
-        <v>5</v>
-      </c>
-      <c r="P9">
-        <v>5</v>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>%Fines/Embeddedness</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>ChannelStability,Cover-Wood,Food-FoodWebResources</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>%Fines/Embeddedness</t>
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>5</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>% Fines/Embeddedness,Contaminants,Flow- Summer Base Flow,Riparian- Canopy Cover</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>Bank Stability,Channel Stability,Cover- Wood</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>% Fines/Embeddedness,Bank Stability,Channel Stability,Contaminants,Cover- Wood,Flow- Summer Base Flow,Riparian- Canopy Cover</t>
         </is>
       </c>
     </row>
@@ -1077,48 +1084,42 @@
         </is>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H10">
         <v>3</v>
       </c>
       <c r="I10">
-        <v>5</v>
-      </c>
-      <c r="J10">
         <v>3</v>
       </c>
       <c r="K10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>5</v>
-      </c>
-      <c r="M10">
-        <v>3</v>
-      </c>
-      <c r="N10">
-        <v>5</v>
-      </c>
-      <c r="O10">
-        <v>5</v>
-      </c>
-      <c r="P10">
-        <v>5</v>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>%Fines/Embeddedness</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>ChannelStability,Cover-Wood,Food-FoodWebResources</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>%Fines/Embeddedness</t>
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>5</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>% Fines/Embeddedness,Flow- Summer Base Flow,Riparian- Canopy Cover</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>Bank Stability,Channel Stability,Cover- Wood,Food- Food Web Resources</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>% Fines/Embeddedness,Bank Stability,Channel Stability,Cover- Wood,Flow- Summer Base Flow,Food- Food Web Resources,Riparian- Canopy Cover</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1136,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Loup Loup Creek-Lower DS</t>
+          <t>Lower Loup Loup Creek</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1160,42 +1161,31 @@
         <v>1</v>
       </c>
       <c r="I11">
-        <v>5</v>
-      </c>
-      <c r="J11">
         <v>1</v>
       </c>
       <c r="K11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
-      <c r="M11">
-        <v>3</v>
-      </c>
-      <c r="N11">
-        <v>5</v>
-      </c>
-      <c r="O11">
-        <v>5</v>
-      </c>
-      <c r="P11">
-        <v>5</v>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>%Fines/Embeddedness,ChannelStability,Cover-Wood,Flow-SummerBaseFlow</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>Food-FoodWebResources</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>%Fines/Embeddedness,ChannelStability,Cover-Wood,Flow-SummerBaseFlow</t>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>% Fines/Embeddedness,Bank Stability,Channel Stability,Contaminants,Cover- Wood,Flow- Summer Base Flow,Riparian- Canopy Cover,Temperature- Adult Holding,Temperature- Adult Spawning,Temperature- Rearing</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>% Fines/Embeddedness,Bank Stability,Channel Stability,Contaminants,Cover- Wood,Flow- Summer Base Flow,Riparian- Canopy Cover,Temperature- Adult Holding,Temperature- Adult Spawning,Temperature- Rearing</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1202,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Loup Loup Creek-Lower DS</t>
+          <t>Lower Loup Loup Creek</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1231,7 +1221,7 @@
         </is>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H12">
         <v>5</v>
@@ -1239,42 +1229,36 @@
       <c r="I12">
         <v>5</v>
       </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
       <c r="K12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>5</v>
-      </c>
-      <c r="M12">
-        <v>5</v>
-      </c>
-      <c r="N12">
-        <v>5</v>
-      </c>
-      <c r="O12">
-        <v>5</v>
-      </c>
-      <c r="P12">
-        <v>5</v>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>%Fines/Embeddedness,Cover-Wood</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>%Fines/Embeddedness,Cover-Wood</t>
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>5</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>% Fines/Embeddedness,Contaminants,Cover- Wood,Flow- Summer Base Flow,Riparian- Canopy Cover</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>% Fines/Embeddedness,Contaminants,Cover- Wood,Flow- Summer Base Flow,Riparian- Canopy Cover</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Loup Loup 16-3</t>
+          <t>Omak 16-2</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1284,7 +1268,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Loup Loup Creek-Lower DS</t>
+          <t>Lower Omak Creek</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1311,47 +1295,41 @@
       <c r="I13">
         <v>5</v>
       </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
       <c r="K13">
         <v>5</v>
       </c>
       <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
         <v>3</v>
       </c>
-      <c r="M13">
-        <v>3</v>
-      </c>
-      <c r="N13">
-        <v>5</v>
-      </c>
-      <c r="O13">
-        <v>5</v>
-      </c>
-      <c r="P13">
-        <v>5</v>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>Cover-Wood</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>Flow-SummerBaseFlow,Food-FoodWebResources</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>Cover-Wood</t>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>% Fines/Embeddedness,Flow- Summer Base Flow,Riparian- Canopy Cover</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>Temperature- Adult Holding,Temperature- Adult Spawning,Temperature- Rearing</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>% Fines/Embeddedness,Flow- Summer Base Flow,Riparian- Canopy Cover,Temperature- Adult Holding,Temperature- Adult Spawning,Temperature- Rearing</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Omak 16-1</t>
+          <t>Omak 16-3</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1361,7 +1339,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Omak Creek-Lower US</t>
+          <t>Lower Omak Creek</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1388,37 +1366,41 @@
       <c r="I14">
         <v>5</v>
       </c>
-      <c r="J14">
-        <v>5</v>
-      </c>
       <c r="K14">
         <v>5</v>
       </c>
       <c r="L14">
-        <v>5</v>
-      </c>
-      <c r="M14">
-        <v>3</v>
-      </c>
-      <c r="N14">
-        <v>5</v>
-      </c>
-      <c r="O14">
-        <v>5</v>
-      </c>
-      <c r="P14">
-        <v>5</v>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>Food-FoodWebResources</t>
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>Flow- Summer Base Flow,Riparian- Canopy Cover,Temperature- Adult Holding,Temperature- Adult Spawning,Temperature- Rearing</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>% Fines/Embeddedness,Food- Food Web Resources</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>% Fines/Embeddedness,Flow- Summer Base Flow,Food- Food Web Resources,Riparian- Canopy Cover,Temperature- Adult Holding,Temperature- Adult Spawning,Temperature- Rearing</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Omak 16-3</t>
+          <t>Omak 16-5</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1428,7 +1410,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Omak Creek-Lower US</t>
+          <t>Lower Omak Creek</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1447,55 +1429,49 @@
         </is>
       </c>
       <c r="G15">
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15">
+        <v>5</v>
+      </c>
+      <c r="K15">
+        <v>5</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
         <v>3</v>
       </c>
-      <c r="H15">
-        <v>5</v>
-      </c>
-      <c r="I15">
-        <v>5</v>
-      </c>
-      <c r="J15">
-        <v>5</v>
-      </c>
-      <c r="K15">
-        <v>5</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>1</v>
-      </c>
-      <c r="N15">
-        <v>5</v>
-      </c>
-      <c r="O15">
-        <v>5</v>
-      </c>
-      <c r="P15">
-        <v>1</v>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>Flow-SummerBaseFlow,Food-FoodWebResources,Temperature-Rearing</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>%Fines/Embeddedness</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>Flow-SummerBaseFlow,Food-FoodWebResources,Temperature-Rearing</t>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>% Fines/Embeddedness,Flow- Summer Base Flow,Riparian- Canopy Cover</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>Temperature- Adult Holding,Temperature- Adult Spawning,Temperature- Rearing</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>% Fines/Embeddedness,Flow- Summer Base Flow,Riparian- Canopy Cover,Temperature- Adult Holding,Temperature- Adult Spawning,Temperature- Rearing</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Omak 16-8</t>
+          <t>Omak 16-6</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1505,7 +1481,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Omak Creek-Lower US</t>
+          <t>Lower Omak Creek</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1524,7 +1500,7 @@
         </is>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H16">
         <v>5</v>
@@ -1532,47 +1508,41 @@
       <c r="I16">
         <v>5</v>
       </c>
-      <c r="J16">
-        <v>5</v>
-      </c>
       <c r="K16">
         <v>5</v>
       </c>
       <c r="L16">
-        <v>5</v>
-      </c>
-      <c r="M16">
-        <v>3</v>
-      </c>
-      <c r="N16">
-        <v>5</v>
-      </c>
-      <c r="O16">
-        <v>5</v>
-      </c>
-      <c r="P16">
-        <v>5</v>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>%Fines/Embeddedness</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>Food-FoodWebResources</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>%Fines/Embeddedness</t>
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <v>5</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>Flow- Summer Base Flow,Riparian- Canopy Cover</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>% Fines/Embeddedness</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>% Fines/Embeddedness,Flow- Summer Base Flow,Riparian- Canopy Cover</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Salmon 16-1</t>
+          <t>Omak 16-7</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1582,7 +1552,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Salmon Creek-Lower</t>
+          <t>Lower Omak Creek</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1609,42 +1579,36 @@
       <c r="I17">
         <v>5</v>
       </c>
-      <c r="J17">
-        <v>5</v>
-      </c>
       <c r="K17">
         <v>5</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
-      <c r="M17">
-        <v>5</v>
-      </c>
-      <c r="N17">
-        <v>5</v>
-      </c>
-      <c r="O17">
-        <v>5</v>
-      </c>
-      <c r="P17">
-        <v>5</v>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>Flow-SummerBaseFlow</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>Flow-SummerBaseFlow</t>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <v>5</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>% Fines/Embeddedness,Flow- Summer Base Flow,Riparian- Canopy Cover</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>% Fines/Embeddedness,Flow- Summer Base Flow,Riparian- Canopy Cover</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Salmon 16-3</t>
+          <t>Omak 16-8</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1654,7 +1618,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Salmon Creek-Lower</t>
+          <t>Lower Omak Creek</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1673,7 +1637,7 @@
         </is>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H18">
         <v>5</v>
@@ -1681,42 +1645,36 @@
       <c r="I18">
         <v>5</v>
       </c>
-      <c r="J18">
-        <v>5</v>
-      </c>
       <c r="K18">
         <v>5</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
-      <c r="M18">
-        <v>1</v>
-      </c>
-      <c r="N18">
-        <v>5</v>
-      </c>
-      <c r="O18">
-        <v>5</v>
-      </c>
-      <c r="P18">
-        <v>5</v>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>%Fines/Embeddedness,Flow-SummerBaseFlow,Food-FoodWebResources</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>%Fines/Embeddedness,Flow-SummerBaseFlow,Food-FoodWebResources</t>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>5</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>% Fines/Embeddedness,Flow- Summer Base Flow,Riparian- Canopy Cover</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>% Fines/Embeddedness,Flow- Summer Base Flow,Riparian- Canopy Cover</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Salmon 16-4</t>
+          <t>Omak 16-9</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1726,7 +1684,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Salmon Creek-Lower</t>
+          <t>Lower Omak Creek</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1745,7 +1703,7 @@
         </is>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H19">
         <v>5</v>
@@ -1753,47 +1711,36 @@
       <c r="I19">
         <v>5</v>
       </c>
-      <c r="J19">
-        <v>3</v>
-      </c>
       <c r="K19">
         <v>5</v>
       </c>
       <c r="L19">
-        <v>5</v>
-      </c>
-      <c r="M19">
-        <v>1</v>
-      </c>
-      <c r="N19">
-        <v>5</v>
-      </c>
-      <c r="O19">
-        <v>5</v>
-      </c>
-      <c r="P19">
-        <v>5</v>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>%Fines/Embeddedness,Food-FoodWebResources</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>Cover-Wood</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>%Fines/Embeddedness,Food-FoodWebResources</t>
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <v>5</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>% Fines/Embeddedness,Flow- Summer Base Flow,Riparian- Canopy Cover</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>% Fines/Embeddedness,Flow- Summer Base Flow,Riparian- Canopy Cover</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Salmon 16-5</t>
+          <t>Salmon 16-3</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1803,7 +1750,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Salmon Creek-Lower</t>
+          <t>Salmon Creek-Green Lake</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1822,7 +1769,7 @@
         </is>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H20">
         <v>5</v>
@@ -1830,42 +1777,36 @@
       <c r="I20">
         <v>5</v>
       </c>
-      <c r="J20">
-        <v>5</v>
-      </c>
       <c r="K20">
         <v>5</v>
       </c>
       <c r="L20">
-        <v>5</v>
-      </c>
-      <c r="M20">
-        <v>5</v>
-      </c>
-      <c r="N20">
-        <v>5</v>
-      </c>
-      <c r="O20">
-        <v>5</v>
-      </c>
-      <c r="P20">
-        <v>5</v>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>%Fines/Embeddedness</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>%Fines/Embeddedness</t>
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <v>5</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>% Fines/Embeddedness,Flow- Summer Base Flow,Riparian- Canopy Cover</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>% Fines/Embeddedness,Flow- Summer Base Flow,Riparian- Canopy Cover</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Salmon 16-6</t>
+          <t>Salmon 16-4</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1875,7 +1816,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Salmon Creek-Lower</t>
+          <t>Salmon Creek-Green Lake</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1894,45 +1835,49 @@
         </is>
       </c>
       <c r="G21">
+        <v>5</v>
+      </c>
+      <c r="H21">
+        <v>5</v>
+      </c>
+      <c r="I21">
+        <v>5</v>
+      </c>
+      <c r="K21">
         <v>3</v>
       </c>
-      <c r="H21">
-        <v>5</v>
-      </c>
-      <c r="I21">
-        <v>5</v>
-      </c>
-      <c r="J21">
-        <v>5</v>
-      </c>
-      <c r="K21">
-        <v>5</v>
-      </c>
       <c r="L21">
-        <v>5</v>
-      </c>
-      <c r="M21">
-        <v>3</v>
-      </c>
-      <c r="N21">
-        <v>5</v>
-      </c>
-      <c r="O21">
-        <v>5</v>
-      </c>
-      <c r="P21">
-        <v>5</v>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>%Fines/Embeddedness,Food-FoodWebResources</t>
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
+      </c>
+      <c r="S21">
+        <v>5</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>% Fines/Embeddedness,Flow- Summer Base Flow,Riparian- Canopy Cover</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>Cover- Wood</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>% Fines/Embeddedness,Cover- Wood,Flow- Summer Base Flow,Riparian- Canopy Cover</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Salmon 16-9</t>
+          <t>Salmon 16-5</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1942,7 +1887,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Salmon Creek-Lower</t>
+          <t>Salmon Creek-Green Lake</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1961,7 +1906,7 @@
         </is>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H22">
         <v>5</v>
@@ -1969,47 +1914,36 @@
       <c r="I22">
         <v>5</v>
       </c>
-      <c r="J22">
-        <v>3</v>
-      </c>
       <c r="K22">
         <v>5</v>
       </c>
       <c r="L22">
-        <v>5</v>
-      </c>
-      <c r="M22">
-        <v>1</v>
-      </c>
-      <c r="N22">
-        <v>5</v>
-      </c>
-      <c r="O22">
-        <v>5</v>
-      </c>
-      <c r="P22">
-        <v>5</v>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>%Fines/Embeddedness,Food-FoodWebResources</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>Cover-Wood</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>%Fines/Embeddedness,Food-FoodWebResources</t>
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
+      <c r="S22">
+        <v>5</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>% Fines/Embeddedness,Flow- Summer Base Flow,Riparian- Canopy Cover</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>% Fines/Embeddedness,Flow- Summer Base Flow,Riparian- Canopy Cover</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Similkameen 16-2</t>
+          <t>Salmon 16-6</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2019,7 +1953,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Similkameen River</t>
+          <t>Salmon Creek-Green Lake</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -2038,7 +1972,7 @@
         </is>
       </c>
       <c r="G23">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H23">
         <v>5</v>
@@ -2046,117 +1980,1252 @@
       <c r="I23">
         <v>5</v>
       </c>
-      <c r="J23">
-        <v>3</v>
-      </c>
       <c r="K23">
         <v>5</v>
       </c>
       <c r="L23">
-        <v>5</v>
-      </c>
-      <c r="M23">
-        <v>5</v>
-      </c>
-      <c r="N23">
-        <v>5</v>
-      </c>
-      <c r="O23">
-        <v>5</v>
-      </c>
-      <c r="P23">
-        <v>1</v>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>Temperature-Rearing</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>%Fines/Embeddedness,Cover-Wood</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>Temperature-Rearing</t>
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23">
+        <v>1</v>
+      </c>
+      <c r="S23">
+        <v>5</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>Flow- Summer Base Flow,Riparian- Canopy Cover</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>% Fines/Embeddedness</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>% Fines/Embeddedness,Flow- Summer Base Flow,Riparian- Canopy Cover</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>Salmon 16-7</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Salmon Creek-Green Lake</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="G24">
+        <v>5</v>
+      </c>
+      <c r="H24">
+        <v>5</v>
+      </c>
+      <c r="I24">
+        <v>5</v>
+      </c>
+      <c r="K24">
+        <v>5</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+      <c r="S24">
+        <v>5</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>% Fines/Embeddedness,Flow- Summer Base Flow,Riparian- Canopy Cover</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>% Fines/Embeddedness,Flow- Summer Base Flow,Riparian- Canopy Cover</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Salmon 16-8</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Salmon Creek-Green Lake</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="G25">
+        <v>5</v>
+      </c>
+      <c r="H25">
+        <v>5</v>
+      </c>
+      <c r="I25">
+        <v>5</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <v>1</v>
+      </c>
+      <c r="S25">
+        <v>5</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>% Fines/Embeddedness,Flow- Summer Base Flow,Riparian- Canopy Cover</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>Cover- Wood</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>% Fines/Embeddedness,Cover- Wood,Flow- Summer Base Flow,Riparian- Canopy Cover</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Salmon 16-9</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Salmon Creek-Green Lake</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="G26">
+        <v>5</v>
+      </c>
+      <c r="H26">
+        <v>5</v>
+      </c>
+      <c r="I26">
+        <v>5</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+      <c r="R26">
+        <v>1</v>
+      </c>
+      <c r="S26">
+        <v>5</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>% Fines/Embeddedness,Flow- Summer Base Flow,Riparian- Canopy Cover</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>Cover- Wood</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>% Fines/Embeddedness,Cover- Wood,Flow- Summer Base Flow,Riparian- Canopy Cover</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Similkameen 16-2</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Similkameen River-Ellemeham Draw</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="G27">
+        <v>5</v>
+      </c>
+      <c r="H27">
+        <v>5</v>
+      </c>
+      <c r="I27">
+        <v>5</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="Q27">
+        <v>1</v>
+      </c>
+      <c r="R27">
+        <v>1</v>
+      </c>
+      <c r="S27">
+        <v>1</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>Contaminants,Flow- Summer Base Flow,Riparian- Canopy Cover,Temperature- Adult Holding,Temperature- Adult Spawning,Temperature- Rearing</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>% Fines/Embeddedness,Cover- Wood,Food- Food Web Resources</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>% Fines/Embeddedness,Contaminants,Cover- Wood,Flow- Summer Base Flow,Food- Food Web Resources,Riparian- Canopy Cover,Temperature- Adult Holding,Temperature- Adult Spawning,Temperature- Rearing</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
           <t>Similkameen 16-3</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Okanogan</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Similkameen River</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="G24">
-        <v>5</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24">
-        <v>5</v>
-      </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-      <c r="K24">
-        <v>5</v>
-      </c>
-      <c r="L24">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Similkameen River-Ellemeham Draw</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="Q28">
+        <v>1</v>
+      </c>
+      <c r="R28">
+        <v>1</v>
+      </c>
+      <c r="S28">
         <v>3</v>
       </c>
-      <c r="M24">
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>Bank Stability,Channel Stability,Cover- Wood,Flow- Summer Base Flow,Riparian- Canopy Cover</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>Food- Food Web Resources,Temperature- Adult Holding,Temperature- Adult Spawning,Temperature- Rearing</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>Bank Stability,Channel Stability,Cover- Wood,Flow- Summer Base Flow,Food- Food Web Resources,Riparian- Canopy Cover,Temperature- Adult Holding,Temperature- Adult Spawning,Temperature- Rearing</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Loup Loup 16-3</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Lower Loup Loup Creek</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="G29">
+        <v>5</v>
+      </c>
+      <c r="H29">
+        <v>5</v>
+      </c>
+      <c r="I29">
+        <v>5</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="Q29">
+        <v>1</v>
+      </c>
+      <c r="R29">
+        <v>1</v>
+      </c>
+      <c r="S29">
+        <v>5</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>Contaminants,Cover- Wood,Flow- Summer Base Flow,Riparian- Canopy Cover</t>
+        </is>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>Contaminants,Cover- Wood,Flow- Summer Base Flow,Riparian- Canopy Cover</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Omak 16-1</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Lower Omak Creek</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="G30">
+        <v>5</v>
+      </c>
+      <c r="H30">
+        <v>5</v>
+      </c>
+      <c r="I30">
+        <v>5</v>
+      </c>
+      <c r="K30">
+        <v>5</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="Q30">
+        <v>1</v>
+      </c>
+      <c r="R30">
+        <v>1</v>
+      </c>
+      <c r="S30">
+        <v>5</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>Contaminants,Flow- Summer Base Flow,Riparian- Canopy Cover</t>
+        </is>
+      </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>Contaminants,Flow- Summer Base Flow,Riparian- Canopy Cover</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Antoine 16-5</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Lower Antoine Creek</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="G31">
+        <v>5</v>
+      </c>
+      <c r="H31">
+        <v>5</v>
+      </c>
+      <c r="I31">
+        <v>5</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <v>1</v>
+      </c>
+      <c r="R31">
+        <v>1</v>
+      </c>
+      <c r="S31">
+        <v>5</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>Cover- Wood,Flow- Summer Base Flow,Riparian- Canopy Cover</t>
+        </is>
+      </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>Cover- Wood,Flow- Summer Base Flow,Riparian- Canopy Cover</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Antoine 16-6</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Lower Antoine Creek</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="G32">
+        <v>5</v>
+      </c>
+      <c r="H32">
+        <v>5</v>
+      </c>
+      <c r="I32">
+        <v>5</v>
+      </c>
+      <c r="K32">
         <v>3</v>
       </c>
-      <c r="N24">
-        <v>5</v>
-      </c>
-      <c r="O24">
-        <v>5</v>
-      </c>
-      <c r="P24">
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <v>1</v>
+      </c>
+      <c r="R32">
+        <v>1</v>
+      </c>
+      <c r="S32">
+        <v>5</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>Flow- Summer Base Flow,Riparian- Canopy Cover</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>Cover- Wood</t>
+        </is>
+      </c>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>Cover- Wood,Flow- Summer Base Flow,Riparian- Canopy Cover</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Antoine 16-4</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Lower Antoine Creek</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="G33">
+        <v>5</v>
+      </c>
+      <c r="H33">
+        <v>5</v>
+      </c>
+      <c r="I33">
+        <v>5</v>
+      </c>
+      <c r="K33">
+        <v>5</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>1</v>
+      </c>
+      <c r="R33">
+        <v>1</v>
+      </c>
+      <c r="S33">
+        <v>5</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>Flow- Summer Base Flow,Riparian- Canopy Cover</t>
+        </is>
+      </c>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t>Flow- Summer Base Flow,Riparian- Canopy Cover</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Johnson 16-5</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Johnson Creek</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="G34">
+        <v>5</v>
+      </c>
+      <c r="H34">
+        <v>5</v>
+      </c>
+      <c r="I34">
+        <v>5</v>
+      </c>
+      <c r="K34">
+        <v>5</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <v>1</v>
+      </c>
+      <c r="R34">
+        <v>1</v>
+      </c>
+      <c r="S34">
+        <v>5</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>Flow- Summer Base Flow,Food- Food Web Resources,Riparian- Canopy Cover</t>
+        </is>
+      </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>Flow- Summer Base Flow,Food- Food Web Resources,Riparian- Canopy Cover</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Johnson 16-8</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Johnson Creek</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="G35">
+        <v>5</v>
+      </c>
+      <c r="H35">
+        <v>5</v>
+      </c>
+      <c r="I35">
+        <v>5</v>
+      </c>
+      <c r="K35">
+        <v>5</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="Q35">
+        <v>1</v>
+      </c>
+      <c r="R35">
+        <v>1</v>
+      </c>
+      <c r="S35">
+        <v>5</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>Flow- Summer Base Flow,Riparian- Canopy Cover</t>
+        </is>
+      </c>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>Flow- Summer Base Flow,Riparian- Canopy Cover</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Omak 16-4</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Lower Omak Creek</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="G36">
+        <v>5</v>
+      </c>
+      <c r="H36">
+        <v>5</v>
+      </c>
+      <c r="I36">
+        <v>5</v>
+      </c>
+      <c r="K36">
+        <v>5</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <v>1</v>
+      </c>
+      <c r="R36">
+        <v>1</v>
+      </c>
+      <c r="S36">
+        <v>5</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>Flow- Summer Base Flow,Riparian- Canopy Cover</t>
+        </is>
+      </c>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>Flow- Summer Base Flow,Riparian- Canopy Cover</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Salmon 16-1</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Salmon Creek-Green Lake</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="G37">
+        <v>5</v>
+      </c>
+      <c r="H37">
+        <v>5</v>
+      </c>
+      <c r="I37">
+        <v>5</v>
+      </c>
+      <c r="K37">
+        <v>5</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>1</v>
+      </c>
+      <c r="R37">
+        <v>1</v>
+      </c>
+      <c r="S37">
         <v>3</v>
       </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>ChannelStability,Cover-Wood</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>Flow-SummerBaseFlow,Food-FoodWebResources,Temperature-Rearing</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>ChannelStability,Cover-Wood</t>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>Flow- Summer Base Flow,Riparian- Canopy Cover</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>Temperature- Adult Holding,Temperature- Adult Spawning,Temperature- Rearing</t>
+        </is>
+      </c>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>Flow- Summer Base Flow,Riparian- Canopy Cover,Temperature- Adult Holding,Temperature- Adult Spawning,Temperature- Rearing</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Salmon 16-13</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Salmon Creek-Green Lake</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="G38">
+        <v>5</v>
+      </c>
+      <c r="H38">
+        <v>5</v>
+      </c>
+      <c r="I38">
+        <v>5</v>
+      </c>
+      <c r="K38">
+        <v>5</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>1</v>
+      </c>
+      <c r="R38">
+        <v>1</v>
+      </c>
+      <c r="S38">
+        <v>5</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>Flow- Summer Base Flow,Riparian- Canopy Cover</t>
+        </is>
+      </c>
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>Flow- Summer Base Flow,Riparian- Canopy Cover</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Similkameen 16-1</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Okanogan River-Mosquito Creek</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="G39">
+        <v>5</v>
+      </c>
+      <c r="H39">
+        <v>5</v>
+      </c>
+      <c r="I39">
+        <v>5</v>
+      </c>
+      <c r="K39">
+        <v>5</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>1</v>
+      </c>
+      <c r="R39">
+        <v>1</v>
+      </c>
+      <c r="S39">
+        <v>5</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>Flow- Summer Base Flow,Riparian- Canopy Cover</t>
+        </is>
+      </c>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>Flow- Summer Base Flow,Riparian- Canopy Cover</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Similkameen 16-4</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Similkameen River-Ellemeham Draw</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="G40">
+        <v>5</v>
+      </c>
+      <c r="H40">
+        <v>5</v>
+      </c>
+      <c r="I40">
+        <v>5</v>
+      </c>
+      <c r="K40">
+        <v>5</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>1</v>
+      </c>
+      <c r="R40">
+        <v>1</v>
+      </c>
+      <c r="S40">
+        <v>1</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>Flow- Summer Base Flow,Riparian- Canopy Cover,Temperature- Adult Holding,Temperature- Adult Spawning,Temperature- Rearing</t>
+        </is>
+      </c>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>Flow- Summer Base Flow,Riparian- Canopy Cover,Temperature- Adult Holding,Temperature- Adult Spawning,Temperature- Rearing</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Similkameen 16-5</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Similkameen River-Ellemeham Draw</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="G41">
+        <v>5</v>
+      </c>
+      <c r="H41">
+        <v>5</v>
+      </c>
+      <c r="I41">
+        <v>5</v>
+      </c>
+      <c r="K41">
+        <v>5</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>1</v>
+      </c>
+      <c r="R41">
+        <v>1</v>
+      </c>
+      <c r="S41">
+        <v>1</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>Flow- Summer Base Flow,Riparian- Canopy Cover,Temperature- Adult Holding,Temperature- Adult Spawning,Temperature- Rearing</t>
+        </is>
+      </c>
+      <c r="Z41" t="inlineStr">
+        <is>
+          <t>Flow- Summer Base Flow,Riparian- Canopy Cover,Temperature- Adult Holding,Temperature- Adult Spawning,Temperature- Rearing</t>
         </is>
       </c>
     </row>

--- a/Output/Steelhead_Habitat_Quality_RESTORATION_Okanogan.xlsx
+++ b/Output/Steelhead_Habitat_Quality_RESTORATION_Okanogan.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:Z34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -375,15 +375,115 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Spring.Chinook.Reach</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Steelhead.Reach</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Bull.Trout.Reach</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>BankStability_score</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ChannelStability_score</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Stability_Mean</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>CoarseSubstrate_score</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Cover-Wood_score</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Flow-SummerBaseFlow_score</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Off-Channel-Floodplain_score</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Off-Channel-Side-Channels_score</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>PoolQuantity&amp;Quality_score</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Riparian-CanopyCover_score</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Riparian-Disturbance_score</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Riparian_Mean</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Temperature-Rearing_score</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>HQ_Sum</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>HQ_Pct</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>HQ_Score_Restoration</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>HQ_Score_Protection</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
           <t>unacceptable_1_indiv_habitat_attributes</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>at_risk_2_or_3_indiv_habitat_attributes</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>unacceptable_AND_at_risk_1_to_3_indiv_habitat_attributes</t>
         </is>
@@ -405,19 +505,57 @@
           <t>Lower Antoine Creek</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Contaminants,Cover- Wood,Flow- Summer Base Flow,Riparian- Canopy Cover</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Bank Stability,Channel Stability,Food- Food Web Resources,Temperature- Adult Holding,Temperature- Adult Spawning,Temperature- Rearing</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>% Fines/Embeddedness,Bank Stability,Channel Stability,Contaminants,Cover- Wood,Flow- Summer Base Flow,Food- Food Web Resources,Riparian- Canopy Cover,Temperature- Adult Holding,Temperature- Adult Spawning,Temperature- Rearing</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>3</v>
+      </c>
+      <c r="U2">
+        <v>0.2895034187185691</v>
+      </c>
+      <c r="V2">
+        <v>5</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>BankStability_score,ChannelStability_score,Stability_Mean,Temperature-Rearing_score</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>BankStability_score,ChannelStability_score,Stability_Mean,Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
@@ -437,26 +575,64 @@
           <t>Lower Antoine Creek</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>% Fines/Embeddedness,Contaminants,Flow- Summer Base Flow,Riparian- Canopy Cover</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Cover- Wood</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>% Fines/Embeddedness,Contaminants,Cover- Wood,Flow- Summer Base Flow,Riparian- Canopy Cover</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>5</v>
+      </c>
+      <c r="U3">
+        <v>0.0814431770666794</v>
+      </c>
+      <c r="V3">
+        <v>5</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>Cover-Wood_score</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Johnson 16-1</t>
+          <t>Antoine 16-4</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -466,29 +642,62 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Johnson Creek</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>% Fines/Embeddedness,Bank Stability,Channel Stability,Contaminants,Cover- Wood,Flow- Summer Base Flow,Riparian- Canopy Cover</t>
+          <t>Lower Antoine Creek</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Temperature- Adult Holding,Temperature- Adult Spawning,Temperature- Rearing</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>% Fines/Embeddedness,Bank Stability,Channel Stability,Contaminants,Cover- Wood,Flow- Summer Base Flow,Riparian- Canopy Cover,Temperature- Adult Holding,Temperature- Adult Spawning,Temperature- Rearing</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>5</v>
+      </c>
+      <c r="U4">
+        <v>0.06349152129765878</v>
+      </c>
+      <c r="V4">
+        <v>5</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Johnson 16-2</t>
+          <t>Antoine 16-5</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -498,29 +707,62 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Johnson Creek</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Bank Stability,Channel Stability,Contaminants,Cover- Wood,Flow- Summer Base Flow,Riparian- Canopy Cover</t>
+          <t>Lower Antoine Creek</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Food- Food Web Resources,Temperature- Adult Holding,Temperature- Adult Spawning,Temperature- Rearing</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>% Fines/Embeddedness,Bank Stability,Channel Stability,Contaminants,Cover- Wood,Flow- Summer Base Flow,Food- Food Web Resources,Riparian- Canopy Cover,Temperature- Adult Holding,Temperature- Adult Spawning,Temperature- Rearing</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>5</v>
+      </c>
+      <c r="U5">
+        <v>0.09475057900380908</v>
+      </c>
+      <c r="V5">
+        <v>5</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Johnson 16-3</t>
+          <t>Antoine 16-6</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -530,29 +772,67 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Johnson Creek</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Flow- Summer Base Flow,Riparian- Canopy Cover</t>
+          <t>Lower Antoine Creek</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>% Fines/Embeddedness,Flow- Summer Base Flow,Riparian- Canopy Cover</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>5</v>
+      </c>
+      <c r="U6">
+        <v>0.05474758409735947</v>
+      </c>
+      <c r="V6">
+        <v>5</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>Cover-Wood_score</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Johnson 16-4</t>
+          <t>Johnson 16-1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -565,21 +845,64 @@
           <t>Johnson Creek</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>% Fines/Embeddedness,Flow- Summer Base Flow,Food- Food Web Resources,Riparian- Canopy Cover</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>% Fines/Embeddedness,Flow- Summer Base Flow,Food- Food Web Resources,Riparian- Canopy Cover</t>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>3</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>5</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>BankStability_score,ChannelStability_score,Stability_Mean,Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>Temperature-Rearing_score</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>BankStability_score,ChannelStability_score,Stability_Mean,Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Johnson 16-6</t>
+          <t>Loup Loup 16-1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -589,29 +912,62 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Johnson Creek</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>% Fines/Embeddedness,Flow- Summer Base Flow,Riparian- Canopy Cover</t>
+          <t>Lower Loup Loup Creek</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Bank Stability,Channel Stability,Cover- Wood,Food- Food Web Resources</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>% Fines/Embeddedness,Bank Stability,Channel Stability,Cover- Wood,Flow- Summer Base Flow,Food- Food Web Resources,Riparian- Canopy Cover</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>0.4138216126098745</v>
+      </c>
+      <c r="V8">
+        <v>5</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>BankStability_score,ChannelStability_score,Stability_Mean,Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>BankStability_score,ChannelStability_score,Stability_Mean,Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Johnson 16-7</t>
+          <t>Loup Loup 16-2</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -621,29 +977,62 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Johnson Creek</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>% Fines/Embeddedness,Contaminants,Flow- Summer Base Flow,Riparian- Canopy Cover</t>
+          <t>Lower Loup Loup Creek</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Bank Stability,Channel Stability,Cover- Wood</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>% Fines/Embeddedness,Bank Stability,Channel Stability,Contaminants,Cover- Wood,Flow- Summer Base Flow,Riparian- Canopy Cover</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>5</v>
+      </c>
+      <c r="U9">
+        <v>0.4864045032829818</v>
+      </c>
+      <c r="V9">
+        <v>5</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Johnson 16-9</t>
+          <t>Loup Loup 16-3</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -653,29 +1042,62 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Johnson Creek</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>% Fines/Embeddedness,Flow- Summer Base Flow,Riparian- Canopy Cover</t>
+          <t>Lower Loup Loup Creek</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Bank Stability,Channel Stability,Cover- Wood,Food- Food Web Resources</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>% Fines/Embeddedness,Bank Stability,Channel Stability,Cover- Wood,Flow- Summer Base Flow,Food- Food Web Resources,Riparian- Canopy Cover</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>5</v>
+      </c>
+      <c r="U10">
+        <v>0.4018347013968203</v>
+      </c>
+      <c r="V10">
+        <v>5</v>
+      </c>
+      <c r="W10">
+        <v>1</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Loup Loup 16-1</t>
+          <t>Omak 16-1</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -685,24 +1107,62 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Lower Loup Loup Creek</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>% Fines/Embeddedness,Bank Stability,Channel Stability,Contaminants,Cover- Wood,Flow- Summer Base Flow,Riparian- Canopy Cover,Temperature- Adult Holding,Temperature- Adult Spawning,Temperature- Rearing</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>% Fines/Embeddedness,Bank Stability,Channel Stability,Contaminants,Cover- Wood,Flow- Summer Base Flow,Riparian- Canopy Cover,Temperature- Adult Holding,Temperature- Adult Spawning,Temperature- Rearing</t>
+          <t>Lower Omak Creek</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="K11">
+        <v>5</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>5</v>
+      </c>
+      <c r="U11">
+        <v>0.1314527406532584</v>
+      </c>
+      <c r="V11">
+        <v>5</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Loup Loup 16-2</t>
+          <t>Omak 16-2</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -712,24 +1172,67 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Lower Loup Loup Creek</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>% Fines/Embeddedness,Contaminants,Cover- Wood,Flow- Summer Base Flow,Riparian- Canopy Cover</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>% Fines/Embeddedness,Contaminants,Cover- Wood,Flow- Summer Base Flow,Riparian- Canopy Cover</t>
+          <t>Lower Omak Creek</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+      <c r="I12">
+        <v>5</v>
+      </c>
+      <c r="K12">
+        <v>5</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>3</v>
+      </c>
+      <c r="U12">
+        <v>0.1929557484494947</v>
+      </c>
+      <c r="V12">
+        <v>5</v>
+      </c>
+      <c r="W12">
+        <v>1</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>Temperature-Rearing_score</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Omak 16-2</t>
+          <t>Omak 16-3</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -742,26 +1245,59 @@
           <t>Lower Omak Creek</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>% Fines/Embeddedness,Flow- Summer Base Flow,Riparian- Canopy Cover</t>
-        </is>
-      </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Temperature- Adult Holding,Temperature- Adult Spawning,Temperature- Rearing</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>% Fines/Embeddedness,Flow- Summer Base Flow,Riparian- Canopy Cover,Temperature- Adult Holding,Temperature- Adult Spawning,Temperature- Rearing</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13">
+        <v>5</v>
+      </c>
+      <c r="K13">
+        <v>5</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <v>0.2059092546677536</v>
+      </c>
+      <c r="V13">
+        <v>5</v>
+      </c>
+      <c r="W13">
+        <v>1</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Omak 16-3</t>
+          <t>Omak 16-4</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -774,19 +1310,52 @@
           <t>Lower Omak Creek</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Flow- Summer Base Flow,Riparian- Canopy Cover,Temperature- Adult Holding,Temperature- Adult Spawning,Temperature- Rearing</t>
-        </is>
-      </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Food- Food Web Resources</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>% Fines/Embeddedness,Flow- Summer Base Flow,Food- Food Web Resources,Riparian- Canopy Cover,Temperature- Adult Holding,Temperature- Adult Spawning,Temperature- Rearing</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
+      <c r="K14">
+        <v>5</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <v>5</v>
+      </c>
+      <c r="U14">
+        <v>0.2334430075895929</v>
+      </c>
+      <c r="V14">
+        <v>5</v>
+      </c>
+      <c r="W14">
+        <v>1</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
         </is>
       </c>
     </row>
@@ -806,19 +1375,57 @@
           <t>Lower Omak Creek</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>% Fines/Embeddedness,Flow- Summer Base Flow,Riparian- Canopy Cover</t>
-        </is>
-      </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Temperature- Adult Holding,Temperature- Adult Spawning,Temperature- Rearing</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>% Fines/Embeddedness,Flow- Summer Base Flow,Riparian- Canopy Cover,Temperature- Adult Holding,Temperature- Adult Spawning,Temperature- Rearing</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15">
+        <v>5</v>
+      </c>
+      <c r="K15">
+        <v>5</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>3</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>5</v>
+      </c>
+      <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>Temperature-Rearing_score</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
@@ -838,19 +1445,52 @@
           <t>Lower Omak Creek</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Flow- Summer Base Flow,Riparian- Canopy Cover</t>
-        </is>
-      </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>% Fines/Embeddedness,Flow- Summer Base Flow,Riparian- Canopy Cover</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G16">
+        <v>5</v>
+      </c>
+      <c r="H16">
+        <v>5</v>
+      </c>
+      <c r="I16">
+        <v>5</v>
+      </c>
+      <c r="K16">
+        <v>5</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <v>5</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>5</v>
+      </c>
+      <c r="W16">
+        <v>1</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
         </is>
       </c>
     </row>
@@ -870,14 +1510,52 @@
           <t>Lower Omak Creek</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>% Fines/Embeddedness,Flow- Summer Base Flow,Riparian- Canopy Cover</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>% Fines/Embeddedness,Flow- Summer Base Flow,Riparian- Canopy Cover</t>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+      <c r="H17">
+        <v>5</v>
+      </c>
+      <c r="I17">
+        <v>5</v>
+      </c>
+      <c r="K17">
+        <v>5</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <v>5</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>5</v>
+      </c>
+      <c r="W17">
+        <v>1</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
         </is>
       </c>
     </row>
@@ -897,14 +1575,52 @@
           <t>Lower Omak Creek</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>% Fines/Embeddedness,Flow- Summer Base Flow,Riparian- Canopy Cover</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>% Fines/Embeddedness,Flow- Summer Base Flow,Riparian- Canopy Cover</t>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G18">
+        <v>5</v>
+      </c>
+      <c r="H18">
+        <v>5</v>
+      </c>
+      <c r="I18">
+        <v>5</v>
+      </c>
+      <c r="K18">
+        <v>5</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>5</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>5</v>
+      </c>
+      <c r="W18">
+        <v>1</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
         </is>
       </c>
     </row>
@@ -924,21 +1640,59 @@
           <t>Lower Omak Creek</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>% Fines/Embeddedness,Flow- Summer Base Flow,Riparian- Canopy Cover</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>% Fines/Embeddedness,Flow- Summer Base Flow,Riparian- Canopy Cover</t>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G19">
+        <v>5</v>
+      </c>
+      <c r="H19">
+        <v>5</v>
+      </c>
+      <c r="I19">
+        <v>5</v>
+      </c>
+      <c r="K19">
+        <v>5</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <v>5</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>5</v>
+      </c>
+      <c r="W19">
+        <v>1</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Salmon 16-3</t>
+          <t>Salmon 16-1</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -951,21 +1705,64 @@
           <t>Salmon Creek-Green Lake</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>% Fines/Embeddedness,Flow- Summer Base Flow,Riparian- Canopy Cover</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>% Fines/Embeddedness,Flow- Summer Base Flow,Riparian- Canopy Cover</t>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G20">
+        <v>5</v>
+      </c>
+      <c r="H20">
+        <v>5</v>
+      </c>
+      <c r="I20">
+        <v>5</v>
+      </c>
+      <c r="K20">
+        <v>5</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <v>3</v>
+      </c>
+      <c r="U20">
+        <v>0.05815697795035625</v>
+      </c>
+      <c r="V20">
+        <v>5</v>
+      </c>
+      <c r="W20">
+        <v>1</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>Temperature-Rearing_score</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Salmon 16-4</t>
+          <t>Salmon 16-10</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -978,26 +1775,64 @@
           <t>Salmon Creek-Green Lake</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>% Fines/Embeddedness,Flow- Summer Base Flow,Riparian- Canopy Cover</t>
-        </is>
-      </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Cover- Wood</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>% Fines/Embeddedness,Cover- Wood,Flow- Summer Base Flow,Riparian- Canopy Cover</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G21">
+        <v>5</v>
+      </c>
+      <c r="H21">
+        <v>5</v>
+      </c>
+      <c r="I21">
+        <v>5</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>3</v>
+      </c>
+      <c r="R21">
+        <v>3</v>
+      </c>
+      <c r="S21">
+        <v>3</v>
+      </c>
+      <c r="U21">
+        <v>0.6266179214205709</v>
+      </c>
+      <c r="V21">
+        <v>5</v>
+      </c>
+      <c r="W21">
+        <v>1</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>Flow-SummerBaseFlow_score</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>Cover-Wood_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Salmon 16-5</t>
+          <t>Salmon 16-13</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1010,21 +1845,59 @@
           <t>Salmon Creek-Green Lake</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>% Fines/Embeddedness,Flow- Summer Base Flow,Riparian- Canopy Cover</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>% Fines/Embeddedness,Flow- Summer Base Flow,Riparian- Canopy Cover</t>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G22">
+        <v>5</v>
+      </c>
+      <c r="H22">
+        <v>5</v>
+      </c>
+      <c r="I22">
+        <v>5</v>
+      </c>
+      <c r="K22">
+        <v>5</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
+      <c r="S22">
+        <v>5</v>
+      </c>
+      <c r="U22">
+        <v>0.6542803770568443</v>
+      </c>
+      <c r="V22">
+        <v>5</v>
+      </c>
+      <c r="W22">
+        <v>1</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Salmon 16-6</t>
+          <t>Salmon 16-3</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1037,26 +1910,59 @@
           <t>Salmon Creek-Green Lake</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Flow- Summer Base Flow,Riparian- Canopy Cover</t>
-        </is>
-      </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>% Fines/Embeddedness,Flow- Summer Base Flow,Riparian- Canopy Cover</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G23">
+        <v>5</v>
+      </c>
+      <c r="H23">
+        <v>5</v>
+      </c>
+      <c r="I23">
+        <v>5</v>
+      </c>
+      <c r="K23">
+        <v>5</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23">
+        <v>1</v>
+      </c>
+      <c r="S23">
+        <v>5</v>
+      </c>
+      <c r="U23">
+        <v>0.04599828796958744</v>
+      </c>
+      <c r="V23">
+        <v>5</v>
+      </c>
+      <c r="W23">
+        <v>1</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Salmon 16-7</t>
+          <t>Salmon 16-4</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1069,21 +1975,64 @@
           <t>Salmon Creek-Green Lake</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>% Fines/Embeddedness,Flow- Summer Base Flow,Riparian- Canopy Cover</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>% Fines/Embeddedness,Flow- Summer Base Flow,Riparian- Canopy Cover</t>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G24">
+        <v>5</v>
+      </c>
+      <c r="H24">
+        <v>5</v>
+      </c>
+      <c r="I24">
+        <v>5</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+      <c r="S24">
+        <v>5</v>
+      </c>
+      <c r="U24">
+        <v>0.678840842271688</v>
+      </c>
+      <c r="V24">
+        <v>5</v>
+      </c>
+      <c r="W24">
+        <v>1</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>Cover-Wood_score</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Salmon 16-8</t>
+          <t>Salmon 16-5</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1096,26 +2045,59 @@
           <t>Salmon Creek-Green Lake</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>% Fines/Embeddedness,Flow- Summer Base Flow,Riparian- Canopy Cover</t>
-        </is>
-      </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Cover- Wood</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>% Fines/Embeddedness,Cover- Wood,Flow- Summer Base Flow,Riparian- Canopy Cover</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G25">
+        <v>5</v>
+      </c>
+      <c r="H25">
+        <v>5</v>
+      </c>
+      <c r="I25">
+        <v>5</v>
+      </c>
+      <c r="K25">
+        <v>5</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <v>1</v>
+      </c>
+      <c r="S25">
+        <v>5</v>
+      </c>
+      <c r="U25">
+        <v>0.6810085762061811</v>
+      </c>
+      <c r="V25">
+        <v>5</v>
+      </c>
+      <c r="W25">
+        <v>1</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Salmon 16-9</t>
+          <t>Salmon 16-6</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1128,26 +2110,59 @@
           <t>Salmon Creek-Green Lake</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>% Fines/Embeddedness,Flow- Summer Base Flow,Riparian- Canopy Cover</t>
-        </is>
-      </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Cover- Wood</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>% Fines/Embeddedness,Cover- Wood,Flow- Summer Base Flow,Riparian- Canopy Cover</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G26">
+        <v>5</v>
+      </c>
+      <c r="H26">
+        <v>5</v>
+      </c>
+      <c r="I26">
+        <v>5</v>
+      </c>
+      <c r="K26">
+        <v>5</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+      <c r="R26">
+        <v>1</v>
+      </c>
+      <c r="S26">
+        <v>5</v>
+      </c>
+      <c r="U26">
+        <v>0.7830164640163568</v>
+      </c>
+      <c r="V26">
+        <v>5</v>
+      </c>
+      <c r="W26">
+        <v>3</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Similkameen 16-2</t>
+          <t>Salmon 16-7</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1157,29 +2172,62 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Similkameen River-Ellemeham Draw</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Contaminants,Flow- Summer Base Flow,Riparian- Canopy Cover,Temperature- Adult Holding,Temperature- Adult Spawning,Temperature- Rearing</t>
+          <t>Salmon Creek-Green Lake</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Cover- Wood,Food- Food Web Resources</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>% Fines/Embeddedness,Contaminants,Cover- Wood,Flow- Summer Base Flow,Food- Food Web Resources,Riparian- Canopy Cover,Temperature- Adult Holding,Temperature- Adult Spawning,Temperature- Rearing</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G27">
+        <v>5</v>
+      </c>
+      <c r="H27">
+        <v>5</v>
+      </c>
+      <c r="I27">
+        <v>5</v>
+      </c>
+      <c r="K27">
+        <v>5</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="Q27">
+        <v>1</v>
+      </c>
+      <c r="R27">
+        <v>1</v>
+      </c>
+      <c r="S27">
+        <v>5</v>
+      </c>
+      <c r="U27">
+        <v>0.5280329377860712</v>
+      </c>
+      <c r="V27">
+        <v>5</v>
+      </c>
+      <c r="W27">
+        <v>1</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Similkameen 16-3</t>
+          <t>Salmon 16-8</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1189,29 +2237,67 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Similkameen River-Ellemeham Draw</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Bank Stability,Channel Stability,Cover- Wood,Flow- Summer Base Flow,Riparian- Canopy Cover</t>
+          <t>Salmon Creek-Green Lake</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Food- Food Web Resources,Temperature- Adult Holding,Temperature- Adult Spawning,Temperature- Rearing</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Bank Stability,Channel Stability,Cover- Wood,Flow- Summer Base Flow,Food- Food Web Resources,Riparian- Canopy Cover,Temperature- Adult Holding,Temperature- Adult Spawning,Temperature- Rearing</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G28">
+        <v>5</v>
+      </c>
+      <c r="H28">
+        <v>5</v>
+      </c>
+      <c r="I28">
+        <v>5</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="Q28">
+        <v>1</v>
+      </c>
+      <c r="R28">
+        <v>1</v>
+      </c>
+      <c r="S28">
+        <v>5</v>
+      </c>
+      <c r="U28">
+        <v>0.6988250208433527</v>
+      </c>
+      <c r="V28">
+        <v>5</v>
+      </c>
+      <c r="W28">
+        <v>1</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>Cover-Wood_score</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Loup Loup 16-3</t>
+          <t>Salmon 16-9</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1221,24 +2307,67 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Lower Loup Loup Creek</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Contaminants,Cover- Wood,Flow- Summer Base Flow,Riparian- Canopy Cover</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Contaminants,Cover- Wood,Flow- Summer Base Flow,Riparian- Canopy Cover</t>
+          <t>Salmon Creek-Green Lake</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G29">
+        <v>5</v>
+      </c>
+      <c r="H29">
+        <v>5</v>
+      </c>
+      <c r="I29">
+        <v>5</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="Q29">
+        <v>1</v>
+      </c>
+      <c r="R29">
+        <v>1</v>
+      </c>
+      <c r="S29">
+        <v>5</v>
+      </c>
+      <c r="U29">
+        <v>0.7892917935080431</v>
+      </c>
+      <c r="V29">
+        <v>5</v>
+      </c>
+      <c r="W29">
+        <v>3</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>Cover-Wood_score</t>
+        </is>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Omak 16-1</t>
+          <t>Similkameen 16-1</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1248,24 +2377,62 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Lower Omak Creek</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Contaminants,Flow- Summer Base Flow,Riparian- Canopy Cover</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Contaminants,Flow- Summer Base Flow,Riparian- Canopy Cover</t>
+          <t>Okanogan River-Mosquito Creek</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G30">
+        <v>5</v>
+      </c>
+      <c r="H30">
+        <v>5</v>
+      </c>
+      <c r="I30">
+        <v>5</v>
+      </c>
+      <c r="K30">
+        <v>5</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="Q30">
+        <v>1</v>
+      </c>
+      <c r="R30">
+        <v>1</v>
+      </c>
+      <c r="S30">
+        <v>5</v>
+      </c>
+      <c r="U30">
+        <v>0.2899378298444723</v>
+      </c>
+      <c r="V30">
+        <v>5</v>
+      </c>
+      <c r="W30">
+        <v>1</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
+        </is>
+      </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Antoine 16-5</t>
+          <t>Similkameen 16-2</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1275,24 +2442,67 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Lower Antoine Creek</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Riparian- Canopy Cover</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Riparian- Canopy Cover</t>
+          <t>Similkameen River-Ellemeham Draw</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G31">
+        <v>5</v>
+      </c>
+      <c r="H31">
+        <v>5</v>
+      </c>
+      <c r="I31">
+        <v>5</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <v>1</v>
+      </c>
+      <c r="R31">
+        <v>1</v>
+      </c>
+      <c r="S31">
+        <v>1</v>
+      </c>
+      <c r="U31">
+        <v>0.3922267177160267</v>
+      </c>
+      <c r="V31">
+        <v>5</v>
+      </c>
+      <c r="W31">
+        <v>1</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>Cover-Wood_score</t>
+        </is>
+      </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Antoine 16-6</t>
+          <t>Similkameen 16-3</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1302,29 +2512,67 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Lower Antoine Creek</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Flow- Summer Base Flow,Riparian- Canopy Cover</t>
+          <t>Similkameen River-Ellemeham Draw</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Cover- Wood</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Riparian- Canopy Cover</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <v>1</v>
+      </c>
+      <c r="R32">
+        <v>1</v>
+      </c>
+      <c r="S32">
+        <v>3</v>
+      </c>
+      <c r="U32">
+        <v>0.512291200709168</v>
+      </c>
+      <c r="V32">
+        <v>5</v>
+      </c>
+      <c r="W32">
+        <v>1</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>BankStability_score,ChannelStability_score,Stability_Mean,Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>Temperature-Rearing_score</t>
+        </is>
+      </c>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>BankStability_score,ChannelStability_score,Stability_Mean,Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Antoine 16-4</t>
+          <t>Similkameen 16-4</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1334,24 +2582,62 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Lower Antoine Creek</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Flow- Summer Base Flow,Riparian- Canopy Cover</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Flow- Summer Base Flow,Riparian- Canopy Cover</t>
+          <t>Similkameen River-Ellemeham Draw</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G33">
+        <v>5</v>
+      </c>
+      <c r="H33">
+        <v>5</v>
+      </c>
+      <c r="I33">
+        <v>5</v>
+      </c>
+      <c r="K33">
+        <v>5</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>1</v>
+      </c>
+      <c r="R33">
+        <v>1</v>
+      </c>
+      <c r="S33">
+        <v>1</v>
+      </c>
+      <c r="U33">
+        <v>0.5033511462569658</v>
+      </c>
+      <c r="V33">
+        <v>5</v>
+      </c>
+      <c r="W33">
+        <v>1</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+        </is>
+      </c>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Johnson 16-5</t>
+          <t>Similkameen 16-5</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1361,211 +2647,55 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Johnson Creek</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Flow- Summer Base Flow,Food- Food Web Resources,Riparian- Canopy Cover</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Flow- Summer Base Flow,Food- Food Web Resources,Riparian- Canopy Cover</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Johnson 16-8</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Okanogan</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Johnson Creek</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Flow- Summer Base Flow,Riparian- Canopy Cover</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Flow- Summer Base Flow,Riparian- Canopy Cover</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Omak 16-4</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Okanogan</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Lower Omak Creek</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Flow- Summer Base Flow,Riparian- Canopy Cover</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Flow- Summer Base Flow,Riparian- Canopy Cover</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Salmon 16-1</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Okanogan</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Salmon Creek-Green Lake</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Flow- Summer Base Flow,Riparian- Canopy Cover</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Temperature- Adult Holding,Temperature- Adult Spawning,Temperature- Rearing</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Flow- Summer Base Flow,Riparian- Canopy Cover,Temperature- Adult Holding,Temperature- Adult Spawning,Temperature- Rearing</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Salmon 16-13</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Okanogan</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Salmon Creek-Green Lake</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Flow- Summer Base Flow,Riparian- Canopy Cover</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Flow- Summer Base Flow,Riparian- Canopy Cover</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Similkameen 16-1</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Okanogan</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Okanogan River-Mosquito Creek</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Flow- Summer Base Flow,Riparian- Canopy Cover</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Flow- Summer Base Flow,Riparian- Canopy Cover</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Similkameen 16-4</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Okanogan</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
           <t>Similkameen River-Ellemeham Draw</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Flow- Summer Base Flow,Riparian- Canopy Cover,Temperature- Adult Holding,Temperature- Adult Spawning,Temperature- Rearing</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Flow- Summer Base Flow,Riparian- Canopy Cover,Temperature- Adult Holding,Temperature- Adult Spawning,Temperature- Rearing</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Similkameen 16-5</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Okanogan</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Similkameen River-Ellemeham Draw</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Flow- Summer Base Flow,Riparian- Canopy Cover,Temperature- Adult Holding,Temperature- Adult Spawning,Temperature- Rearing</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Flow- Summer Base Flow,Riparian- Canopy Cover,Temperature- Adult Holding,Temperature- Adult Spawning,Temperature- Rearing</t>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G34">
+        <v>5</v>
+      </c>
+      <c r="H34">
+        <v>5</v>
+      </c>
+      <c r="I34">
+        <v>5</v>
+      </c>
+      <c r="K34">
+        <v>5</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <v>1</v>
+      </c>
+      <c r="R34">
+        <v>1</v>
+      </c>
+      <c r="S34">
+        <v>1</v>
+      </c>
+      <c r="U34">
+        <v>0.6292740558041172</v>
+      </c>
+      <c r="V34">
+        <v>5</v>
+      </c>
+      <c r="W34">
+        <v>1</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+        </is>
+      </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>

--- a/Output/Steelhead_Habitat_Quality_RESTORATION_Okanogan.xlsx
+++ b/Output/Steelhead_Habitat_Quality_RESTORATION_Okanogan.xlsx
@@ -519,12 +519,18 @@
       <c r="I2">
         <v>3</v>
       </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
+      <c r="M2">
+        <v>5</v>
+      </c>
       <c r="Q2">
         <v>1</v>
       </c>
@@ -532,7 +538,7 @@
         <v>1</v>
       </c>
       <c r="S2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U2">
         <v>0.2895034187185691</v>
@@ -545,12 +551,12 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
+          <t>Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>BankStability_score,ChannelStability_score,Stability_Mean,Temperature-Rearing_score</t>
+          <t>BankStability_score,ChannelStability_score,Stability_Mean</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -589,12 +595,18 @@
       <c r="I3">
         <v>5</v>
       </c>
+      <c r="J3">
+        <v>5</v>
+      </c>
       <c r="K3">
         <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
+      <c r="M3">
+        <v>5</v>
+      </c>
       <c r="Q3">
         <v>1</v>
       </c>
@@ -602,7 +614,7 @@
         <v>1</v>
       </c>
       <c r="S3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U3">
         <v>0.0814431770666794</v>
@@ -615,7 +627,7 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
+          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
@@ -625,7 +637,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
+          <t>Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
@@ -659,12 +671,18 @@
       <c r="I4">
         <v>5</v>
       </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
       <c r="K4">
         <v>5</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
+      <c r="M4">
+        <v>5</v>
+      </c>
       <c r="Q4">
         <v>1</v>
       </c>
@@ -672,7 +690,7 @@
         <v>1</v>
       </c>
       <c r="S4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U4">
         <v>0.06349152129765878</v>
@@ -685,12 +703,17 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
+          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>CoarseSubstrate_score</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
+          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
@@ -724,12 +747,18 @@
       <c r="I5">
         <v>5</v>
       </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
+      <c r="M5">
+        <v>5</v>
+      </c>
       <c r="Q5">
         <v>1</v>
       </c>
@@ -737,7 +766,7 @@
         <v>1</v>
       </c>
       <c r="S5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U5">
         <v>0.09475057900380908</v>
@@ -750,12 +779,12 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
+          <t>Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
+          <t>Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
@@ -789,12 +818,18 @@
       <c r="I6">
         <v>5</v>
       </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
       <c r="K6">
         <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
+      <c r="M6">
+        <v>5</v>
+      </c>
       <c r="Q6">
         <v>1</v>
       </c>
@@ -802,7 +837,7 @@
         <v>1</v>
       </c>
       <c r="S6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U6">
         <v>0.05474758409735947</v>
@@ -815,7 +850,7 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
+          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
@@ -825,7 +860,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
+          <t>Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
@@ -859,12 +894,18 @@
       <c r="I7">
         <v>1</v>
       </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
       <c r="Q7">
         <v>1</v>
       </c>
@@ -872,7 +913,7 @@
         <v>1</v>
       </c>
       <c r="S7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U7">
         <v>0</v>
@@ -885,17 +926,12 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>BankStability_score,ChannelStability_score,Stability_Mean,Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>Temperature-Rearing_score</t>
+          <t>BankStability_score,ChannelStability_score,Stability_Mean,Cover-Wood_score,Flow-SummerBaseFlow_score,Off-Channel-Floodplain_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>BankStability_score,ChannelStability_score,Stability_Mean,Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>BankStability_score,ChannelStability_score,Stability_Mean,Cover-Wood_score,Flow-SummerBaseFlow_score,Off-Channel-Floodplain_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
@@ -929,6 +965,9 @@
       <c r="I8">
         <v>1</v>
       </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
       <c r="K8">
         <v>1</v>
       </c>
@@ -994,12 +1033,18 @@
       <c r="I9">
         <v>5</v>
       </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
+      <c r="M9">
+        <v>5</v>
+      </c>
       <c r="Q9">
         <v>1</v>
       </c>
@@ -1007,7 +1052,7 @@
         <v>1</v>
       </c>
       <c r="S9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U9">
         <v>0.4864045032829818</v>
@@ -1020,12 +1065,12 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
+          <t>Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
+          <t>Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
@@ -1059,12 +1104,18 @@
       <c r="I10">
         <v>5</v>
       </c>
+      <c r="J10">
+        <v>5</v>
+      </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
+      <c r="M10">
+        <v>5</v>
+      </c>
       <c r="Q10">
         <v>1</v>
       </c>
@@ -1072,7 +1123,7 @@
         <v>1</v>
       </c>
       <c r="S10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U10">
         <v>0.4018347013968203</v>
@@ -1085,12 +1136,12 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
+          <t>Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
+          <t>Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
@@ -1124,12 +1175,18 @@
       <c r="I11">
         <v>5</v>
       </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
       <c r="K11">
         <v>5</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
       <c r="Q11">
         <v>1</v>
       </c>
@@ -1137,7 +1194,7 @@
         <v>1</v>
       </c>
       <c r="S11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U11">
         <v>0.1314527406532584</v>
@@ -1150,12 +1207,17 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
+          <t>Flow-SummerBaseFlow_score,Off-Channel-Floodplain_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>CoarseSubstrate_score</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
+          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,Off-Channel-Floodplain_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
@@ -1189,6 +1251,9 @@
       <c r="I12">
         <v>5</v>
       </c>
+      <c r="J12">
+        <v>5</v>
+      </c>
       <c r="K12">
         <v>5</v>
       </c>
@@ -1202,7 +1267,7 @@
         <v>1</v>
       </c>
       <c r="S12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U12">
         <v>0.1929557484494947</v>
@@ -1215,12 +1280,7 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>Temperature-Rearing_score</t>
+          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -1259,6 +1319,9 @@
       <c r="I13">
         <v>5</v>
       </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
       <c r="K13">
         <v>5</v>
       </c>
@@ -1288,9 +1351,14 @@
           <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>CoarseSubstrate_score</t>
+        </is>
+      </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
@@ -1324,6 +1392,9 @@
       <c r="I14">
         <v>5</v>
       </c>
+      <c r="J14">
+        <v>3</v>
+      </c>
       <c r="K14">
         <v>5</v>
       </c>
@@ -1337,7 +1408,7 @@
         <v>1</v>
       </c>
       <c r="S14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U14">
         <v>0.2334430075895929</v>
@@ -1350,12 +1421,17 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
+          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>CoarseSubstrate_score</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
+          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
@@ -1389,12 +1465,18 @@
       <c r="I15">
         <v>5</v>
       </c>
+      <c r="J15">
+        <v>5</v>
+      </c>
       <c r="K15">
         <v>5</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
+      <c r="M15">
+        <v>5</v>
+      </c>
       <c r="Q15">
         <v>1</v>
       </c>
@@ -1402,7 +1484,7 @@
         <v>1</v>
       </c>
       <c r="S15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U15">
         <v>0</v>
@@ -1415,12 +1497,7 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
-        </is>
-      </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>Temperature-Rearing_score</t>
+          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -1459,12 +1536,18 @@
       <c r="I16">
         <v>5</v>
       </c>
+      <c r="J16">
+        <v>5</v>
+      </c>
       <c r="K16">
         <v>5</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
+      <c r="M16">
+        <v>5</v>
+      </c>
       <c r="Q16">
         <v>1</v>
       </c>
@@ -1472,7 +1555,7 @@
         <v>1</v>
       </c>
       <c r="S16">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U16">
         <v>0</v>
@@ -1485,12 +1568,12 @@
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
+          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
+          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
@@ -1524,6 +1607,9 @@
       <c r="I17">
         <v>5</v>
       </c>
+      <c r="J17">
+        <v>5</v>
+      </c>
       <c r="K17">
         <v>5</v>
       </c>
@@ -1537,7 +1623,7 @@
         <v>1</v>
       </c>
       <c r="S17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U17">
         <v>0</v>
@@ -1550,12 +1636,12 @@
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
+          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
+          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
@@ -1589,12 +1675,18 @@
       <c r="I18">
         <v>5</v>
       </c>
+      <c r="J18">
+        <v>5</v>
+      </c>
       <c r="K18">
         <v>5</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
+      <c r="M18">
+        <v>5</v>
+      </c>
       <c r="Q18">
         <v>1</v>
       </c>
@@ -1602,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="S18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U18">
         <v>0</v>
@@ -1615,12 +1707,12 @@
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
+          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
+          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
@@ -1654,6 +1746,9 @@
       <c r="I19">
         <v>5</v>
       </c>
+      <c r="J19">
+        <v>3</v>
+      </c>
       <c r="K19">
         <v>5</v>
       </c>
@@ -1667,7 +1762,7 @@
         <v>1</v>
       </c>
       <c r="S19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U19">
         <v>0</v>
@@ -1680,12 +1775,17 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
+          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>CoarseSubstrate_score</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
+          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
@@ -1719,12 +1819,18 @@
       <c r="I20">
         <v>5</v>
       </c>
+      <c r="J20">
+        <v>5</v>
+      </c>
       <c r="K20">
         <v>5</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
+      <c r="M20">
+        <v>5</v>
+      </c>
       <c r="Q20">
         <v>1</v>
       </c>
@@ -1732,7 +1838,7 @@
         <v>1</v>
       </c>
       <c r="S20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U20">
         <v>0.05815697795035625</v>
@@ -1745,12 +1851,7 @@
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
-        </is>
-      </c>
-      <c r="Y20" t="inlineStr">
-        <is>
-          <t>Temperature-Rearing_score</t>
+          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -1789,12 +1890,18 @@
       <c r="I21">
         <v>5</v>
       </c>
+      <c r="J21">
+        <v>3</v>
+      </c>
       <c r="K21">
         <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
+      <c r="M21">
+        <v>5</v>
+      </c>
       <c r="Q21">
         <v>3</v>
       </c>
@@ -1802,7 +1909,7 @@
         <v>3</v>
       </c>
       <c r="S21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U21">
         <v>0.6266179214205709</v>
@@ -1815,17 +1922,17 @@
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score</t>
+          <t>Flow-SummerBaseFlow_score,Temperature-Rearing_score</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>Cover-Wood_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>CoarseSubstrate_score,Cover-Wood_score,Riparian-Disturbance_score,Riparian_Mean</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>CoarseSubstrate_score,Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
@@ -1859,12 +1966,18 @@
       <c r="I22">
         <v>5</v>
       </c>
+      <c r="J22">
+        <v>3</v>
+      </c>
       <c r="K22">
         <v>5</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
+      <c r="M22">
+        <v>5</v>
+      </c>
       <c r="Q22">
         <v>1</v>
       </c>
@@ -1872,7 +1985,7 @@
         <v>1</v>
       </c>
       <c r="S22">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U22">
         <v>0.6542803770568443</v>
@@ -1885,12 +1998,17 @@
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
+          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>CoarseSubstrate_score</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
+          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
@@ -1924,12 +2042,18 @@
       <c r="I23">
         <v>5</v>
       </c>
+      <c r="J23">
+        <v>3</v>
+      </c>
       <c r="K23">
         <v>5</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
+      <c r="M23">
+        <v>5</v>
+      </c>
       <c r="Q23">
         <v>1</v>
       </c>
@@ -1937,7 +2061,7 @@
         <v>1</v>
       </c>
       <c r="S23">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U23">
         <v>0.04599828796958744</v>
@@ -1950,12 +2074,17 @@
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
+          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>CoarseSubstrate_score</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
+          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
@@ -1989,12 +2118,18 @@
       <c r="I24">
         <v>5</v>
       </c>
+      <c r="J24">
+        <v>3</v>
+      </c>
       <c r="K24">
         <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
+      <c r="M24">
+        <v>5</v>
+      </c>
       <c r="Q24">
         <v>1</v>
       </c>
@@ -2002,7 +2137,7 @@
         <v>1</v>
       </c>
       <c r="S24">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U24">
         <v>0.678840842271688</v>
@@ -2015,17 +2150,17 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
+          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>Cover-Wood_score</t>
+          <t>CoarseSubstrate_score,Cover-Wood_score</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
+          <t>CoarseSubstrate_score,Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
@@ -2059,12 +2194,18 @@
       <c r="I25">
         <v>5</v>
       </c>
+      <c r="J25">
+        <v>3</v>
+      </c>
       <c r="K25">
         <v>5</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
+      <c r="M25">
+        <v>5</v>
+      </c>
       <c r="Q25">
         <v>1</v>
       </c>
@@ -2072,7 +2213,7 @@
         <v>1</v>
       </c>
       <c r="S25">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U25">
         <v>0.6810085762061811</v>
@@ -2085,12 +2226,17 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
+          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>CoarseSubstrate_score</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
+          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
@@ -2124,12 +2270,18 @@
       <c r="I26">
         <v>5</v>
       </c>
+      <c r="J26">
+        <v>3</v>
+      </c>
       <c r="K26">
         <v>5</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
+      <c r="M26">
+        <v>5</v>
+      </c>
       <c r="Q26">
         <v>1</v>
       </c>
@@ -2137,7 +2289,7 @@
         <v>1</v>
       </c>
       <c r="S26">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U26">
         <v>0.7830164640163568</v>
@@ -2150,12 +2302,17 @@
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
+          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>CoarseSubstrate_score</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
+          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
@@ -2189,12 +2346,18 @@
       <c r="I27">
         <v>5</v>
       </c>
+      <c r="J27">
+        <v>3</v>
+      </c>
       <c r="K27">
         <v>5</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
+      <c r="M27">
+        <v>5</v>
+      </c>
       <c r="Q27">
         <v>1</v>
       </c>
@@ -2202,7 +2365,7 @@
         <v>1</v>
       </c>
       <c r="S27">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U27">
         <v>0.5280329377860712</v>
@@ -2215,12 +2378,17 @@
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
+          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>CoarseSubstrate_score</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
+          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
@@ -2254,12 +2422,18 @@
       <c r="I28">
         <v>5</v>
       </c>
+      <c r="J28">
+        <v>3</v>
+      </c>
       <c r="K28">
         <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
+      <c r="M28">
+        <v>5</v>
+      </c>
       <c r="Q28">
         <v>1</v>
       </c>
@@ -2267,7 +2441,7 @@
         <v>1</v>
       </c>
       <c r="S28">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U28">
         <v>0.6988250208433527</v>
@@ -2280,17 +2454,17 @@
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
+          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>Cover-Wood_score</t>
+          <t>CoarseSubstrate_score,Cover-Wood_score</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
+          <t>CoarseSubstrate_score,Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
@@ -2324,12 +2498,18 @@
       <c r="I29">
         <v>5</v>
       </c>
+      <c r="J29">
+        <v>3</v>
+      </c>
       <c r="K29">
         <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
+      <c r="M29">
+        <v>5</v>
+      </c>
       <c r="Q29">
         <v>1</v>
       </c>
@@ -2337,7 +2517,7 @@
         <v>1</v>
       </c>
       <c r="S29">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U29">
         <v>0.7892917935080431</v>
@@ -2350,17 +2530,17 @@
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
+          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>Cover-Wood_score</t>
+          <t>CoarseSubstrate_score,Cover-Wood_score</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
+          <t>CoarseSubstrate_score,Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
@@ -2394,6 +2574,9 @@
       <c r="I30">
         <v>5</v>
       </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
       <c r="K30">
         <v>5</v>
       </c>
@@ -2407,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="S30">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U30">
         <v>0.2899378298444723</v>
@@ -2420,12 +2603,12 @@
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
+          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
+          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
@@ -2459,6 +2642,9 @@
       <c r="I31">
         <v>5</v>
       </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
       <c r="K31">
         <v>3</v>
       </c>
@@ -2485,7 +2671,7 @@
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
@@ -2495,7 +2681,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>CoarseSubstrate_score,Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
@@ -2529,12 +2715,18 @@
       <c r="I32">
         <v>1</v>
       </c>
+      <c r="J32">
+        <v>3</v>
+      </c>
       <c r="K32">
         <v>1</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
       <c r="Q32">
         <v>1</v>
       </c>
@@ -2542,7 +2734,7 @@
         <v>1</v>
       </c>
       <c r="S32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U32">
         <v>0.512291200709168</v>
@@ -2555,17 +2747,17 @@
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>BankStability_score,ChannelStability_score,Stability_Mean,Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
+          <t>BankStability_score,ChannelStability_score,Stability_Mean,Cover-Wood_score,Flow-SummerBaseFlow_score,Off-Channel-Floodplain_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>Temperature-Rearing_score</t>
+          <t>CoarseSubstrate_score</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>BankStability_score,ChannelStability_score,Stability_Mean,Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>BankStability_score,ChannelStability_score,Stability_Mean,CoarseSubstrate_score,Cover-Wood_score,Flow-SummerBaseFlow_score,Off-Channel-Floodplain_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
@@ -2599,10 +2791,16 @@
       <c r="I33">
         <v>5</v>
       </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
       <c r="K33">
         <v>5</v>
       </c>
       <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
         <v>1</v>
       </c>
       <c r="Q33">
@@ -2625,12 +2823,12 @@
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,Off-Channel-Floodplain_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,Off-Channel-Floodplain_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
@@ -2664,11 +2862,17 @@
       <c r="I34">
         <v>5</v>
       </c>
+      <c r="J34">
+        <v>3</v>
+      </c>
       <c r="K34">
         <v>5</v>
       </c>
       <c r="L34">
         <v>1</v>
+      </c>
+      <c r="M34">
+        <v>5</v>
       </c>
       <c r="Q34">
         <v>1</v>
@@ -2693,9 +2897,14 @@
           <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>CoarseSubstrate_score</t>
+        </is>
+      </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>

--- a/Output/Steelhead_Habitat_Quality_RESTORATION_Okanogan.xlsx
+++ b/Output/Steelhead_Habitat_Quality_RESTORATION_Okanogan.xlsx
@@ -520,7 +520,7 @@
         <v>3</v>
       </c>
       <c r="J2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -530,6 +530,9 @@
       </c>
       <c r="M2">
         <v>5</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
       </c>
       <c r="Q2">
         <v>1</v>
@@ -551,17 +554,17 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>Cover-Wood_score,Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>BankStability_score,ChannelStability_score,Stability_Mean</t>
+          <t>BankStability_score,ChannelStability_score,Stability_Mean,CoarseSubstrate_score</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>BankStability_score,ChannelStability_score,Stability_Mean,Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>BankStability_score,ChannelStability_score,Stability_Mean,CoarseSubstrate_score,Cover-Wood_score,Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
@@ -596,7 +599,7 @@
         <v>5</v>
       </c>
       <c r="J3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -605,6 +608,9 @@
         <v>1</v>
       </c>
       <c r="M3">
+        <v>5</v>
+      </c>
+      <c r="O3">
         <v>5</v>
       </c>
       <c r="Q3">
@@ -632,12 +638,12 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>Cover-Wood_score</t>
+          <t>CoarseSubstrate_score,Cover-Wood_score</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>CoarseSubstrate_score,Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
@@ -683,6 +689,9 @@
       <c r="M4">
         <v>5</v>
       </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
       <c r="Q4">
         <v>1</v>
       </c>
@@ -703,7 +712,7 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
@@ -713,7 +722,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
@@ -748,7 +757,7 @@
         <v>5</v>
       </c>
       <c r="J5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -757,6 +766,9 @@
         <v>1</v>
       </c>
       <c r="M5">
+        <v>5</v>
+      </c>
+      <c r="O5">
         <v>5</v>
       </c>
       <c r="Q5">
@@ -782,9 +794,14 @@
           <t>Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>CoarseSubstrate_score</t>
+        </is>
+      </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>CoarseSubstrate_score,Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
@@ -819,7 +836,7 @@
         <v>5</v>
       </c>
       <c r="J6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -828,6 +845,9 @@
         <v>1</v>
       </c>
       <c r="M6">
+        <v>5</v>
+      </c>
+      <c r="O6">
         <v>5</v>
       </c>
       <c r="Q6">
@@ -855,12 +875,12 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>Cover-Wood_score</t>
+          <t>CoarseSubstrate_score,Cover-Wood_score</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>CoarseSubstrate_score,Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
@@ -895,7 +915,7 @@
         <v>1</v>
       </c>
       <c r="J7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -905,6 +925,9 @@
       </c>
       <c r="M7">
         <v>1</v>
+      </c>
+      <c r="O7">
+        <v>3</v>
       </c>
       <c r="Q7">
         <v>1</v>
@@ -929,9 +952,14 @@
           <t>BankStability_score,ChannelStability_score,Stability_Mean,Cover-Wood_score,Flow-SummerBaseFlow_score,Off-Channel-Floodplain_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>CoarseSubstrate_score,PoolQuantity&amp;Quality_score</t>
+        </is>
+      </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>BankStability_score,ChannelStability_score,Stability_Mean,Cover-Wood_score,Flow-SummerBaseFlow_score,Off-Channel-Floodplain_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>BankStability_score,ChannelStability_score,Stability_Mean,CoarseSubstrate_score,Cover-Wood_score,Flow-SummerBaseFlow_score,Off-Channel-Floodplain_score,PoolQuantity&amp;Quality_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
@@ -966,13 +994,16 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
         <v>1</v>
+      </c>
+      <c r="O8">
+        <v>3</v>
       </c>
       <c r="Q8">
         <v>1</v>
@@ -997,9 +1028,14 @@
           <t>BankStability_score,ChannelStability_score,Stability_Mean,Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>CoarseSubstrate_score,PoolQuantity&amp;Quality_score</t>
+        </is>
+      </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>BankStability_score,ChannelStability_score,Stability_Mean,Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>BankStability_score,ChannelStability_score,Stability_Mean,CoarseSubstrate_score,Cover-Wood_score,Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
@@ -1034,7 +1070,7 @@
         <v>5</v>
       </c>
       <c r="J9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1044,6 +1080,9 @@
       </c>
       <c r="M9">
         <v>5</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -1065,12 +1104,17 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>Cover-Wood_score,Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>CoarseSubstrate_score</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>CoarseSubstrate_score,Cover-Wood_score,Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
@@ -1105,7 +1149,7 @@
         <v>5</v>
       </c>
       <c r="J10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1114,6 +1158,9 @@
         <v>1</v>
       </c>
       <c r="M10">
+        <v>5</v>
+      </c>
+      <c r="O10">
         <v>5</v>
       </c>
       <c r="Q10">
@@ -1139,9 +1186,14 @@
           <t>Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>CoarseSubstrate_score</t>
+        </is>
+      </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>CoarseSubstrate_score,Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
@@ -1187,6 +1239,9 @@
       <c r="M11">
         <v>1</v>
       </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
       <c r="Q11">
         <v>1</v>
       </c>
@@ -1207,7 +1262,7 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Off-Channel-Floodplain_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>Flow-SummerBaseFlow_score,Off-Channel-Floodplain_score,PoolQuantity&amp;Quality_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
@@ -1217,7 +1272,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,Off-Channel-Floodplain_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,Off-Channel-Floodplain_score,PoolQuantity&amp;Quality_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
@@ -1252,12 +1307,15 @@
         <v>5</v>
       </c>
       <c r="J12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K12">
         <v>5</v>
       </c>
       <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="O12">
         <v>1</v>
       </c>
       <c r="Q12">
@@ -1280,12 +1338,17 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>CoarseSubstrate_score</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
@@ -1328,6 +1391,9 @@
       <c r="L13">
         <v>1</v>
       </c>
+      <c r="O13">
+        <v>5</v>
+      </c>
       <c r="Q13">
         <v>1</v>
       </c>
@@ -1401,6 +1467,9 @@
       <c r="L14">
         <v>1</v>
       </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
       <c r="Q14">
         <v>1</v>
       </c>
@@ -1421,7 +1490,7 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
@@ -1431,7 +1500,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1535,7 @@
         <v>5</v>
       </c>
       <c r="J15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K15">
         <v>5</v>
@@ -1476,6 +1545,9 @@
       </c>
       <c r="M15">
         <v>5</v>
+      </c>
+      <c r="O15">
+        <v>3</v>
       </c>
       <c r="Q15">
         <v>1</v>
@@ -1500,9 +1572,14 @@
           <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>CoarseSubstrate_score,PoolQuantity&amp;Quality_score</t>
+        </is>
+      </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
@@ -1537,7 +1614,7 @@
         <v>5</v>
       </c>
       <c r="J16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K16">
         <v>5</v>
@@ -1547,6 +1624,9 @@
       </c>
       <c r="M16">
         <v>5</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
       </c>
       <c r="Q16">
         <v>1</v>
@@ -1568,12 +1648,17 @@
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>CoarseSubstrate_score</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
@@ -1608,12 +1693,15 @@
         <v>5</v>
       </c>
       <c r="J17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K17">
         <v>5</v>
       </c>
       <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="O17">
         <v>1</v>
       </c>
       <c r="Q17">
@@ -1636,12 +1724,17 @@
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>CoarseSubstrate_score</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
@@ -1676,7 +1769,7 @@
         <v>5</v>
       </c>
       <c r="J18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K18">
         <v>5</v>
@@ -1686,6 +1779,9 @@
       </c>
       <c r="M18">
         <v>5</v>
+      </c>
+      <c r="O18">
+        <v>3</v>
       </c>
       <c r="Q18">
         <v>1</v>
@@ -1710,9 +1806,14 @@
           <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>CoarseSubstrate_score,PoolQuantity&amp;Quality_score</t>
+        </is>
+      </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
@@ -1755,6 +1856,9 @@
       <c r="L19">
         <v>1</v>
       </c>
+      <c r="O19">
+        <v>5</v>
+      </c>
       <c r="Q19">
         <v>1</v>
       </c>
@@ -1820,7 +1924,7 @@
         <v>5</v>
       </c>
       <c r="J20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K20">
         <v>5</v>
@@ -1830,6 +1934,9 @@
       </c>
       <c r="M20">
         <v>5</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
       </c>
       <c r="Q20">
         <v>1</v>
@@ -1851,12 +1958,17 @@
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>CoarseSubstrate_score</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
@@ -1902,6 +2014,9 @@
       <c r="M21">
         <v>5</v>
       </c>
+      <c r="O21">
+        <v>5</v>
+      </c>
       <c r="Q21">
         <v>3</v>
       </c>
@@ -1967,7 +2082,7 @@
         <v>5</v>
       </c>
       <c r="J22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K22">
         <v>5</v>
@@ -1977,6 +2092,9 @@
       </c>
       <c r="M22">
         <v>5</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
       </c>
       <c r="Q22">
         <v>1</v>
@@ -1998,17 +2116,12 @@
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
-        </is>
-      </c>
-      <c r="Y22" t="inlineStr">
-        <is>
-          <t>CoarseSubstrate_score</t>
+          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
@@ -2054,6 +2167,9 @@
       <c r="M23">
         <v>5</v>
       </c>
+      <c r="O23">
+        <v>3</v>
+      </c>
       <c r="Q23">
         <v>1</v>
       </c>
@@ -2079,12 +2195,12 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>CoarseSubstrate_score</t>
+          <t>CoarseSubstrate_score,PoolQuantity&amp;Quality_score</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
@@ -2130,6 +2246,9 @@
       <c r="M24">
         <v>5</v>
       </c>
+      <c r="O24">
+        <v>5</v>
+      </c>
       <c r="Q24">
         <v>1</v>
       </c>
@@ -2206,6 +2325,9 @@
       <c r="M25">
         <v>5</v>
       </c>
+      <c r="O25">
+        <v>3</v>
+      </c>
       <c r="Q25">
         <v>1</v>
       </c>
@@ -2231,12 +2353,12 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>CoarseSubstrate_score</t>
+          <t>CoarseSubstrate_score,PoolQuantity&amp;Quality_score</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
@@ -2282,6 +2404,9 @@
       <c r="M26">
         <v>5</v>
       </c>
+      <c r="O26">
+        <v>5</v>
+      </c>
       <c r="Q26">
         <v>1</v>
       </c>
@@ -2358,6 +2483,9 @@
       <c r="M27">
         <v>5</v>
       </c>
+      <c r="O27">
+        <v>5</v>
+      </c>
       <c r="Q27">
         <v>1</v>
       </c>
@@ -2434,6 +2562,9 @@
       <c r="M28">
         <v>5</v>
       </c>
+      <c r="O28">
+        <v>5</v>
+      </c>
       <c r="Q28">
         <v>1</v>
       </c>
@@ -2510,6 +2641,9 @@
       <c r="M29">
         <v>5</v>
       </c>
+      <c r="O29">
+        <v>5</v>
+      </c>
       <c r="Q29">
         <v>1</v>
       </c>
@@ -2583,6 +2717,9 @@
       <c r="L30">
         <v>1</v>
       </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
       <c r="Q30">
         <v>1</v>
       </c>
@@ -2603,12 +2740,12 @@
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
@@ -2651,6 +2788,9 @@
       <c r="L31">
         <v>1</v>
       </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
       <c r="Q31">
         <v>1</v>
       </c>
@@ -2671,7 +2811,7 @@
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
@@ -2681,7 +2821,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>CoarseSubstrate_score,Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>CoarseSubstrate_score,Cover-Wood_score,Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
@@ -2727,6 +2867,9 @@
       <c r="M32">
         <v>1</v>
       </c>
+      <c r="O32">
+        <v>5</v>
+      </c>
       <c r="Q32">
         <v>1</v>
       </c>
@@ -2803,6 +2946,9 @@
       <c r="M33">
         <v>1</v>
       </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
       <c r="Q33">
         <v>1</v>
       </c>
@@ -2823,12 +2969,12 @@
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,Off-Channel-Floodplain_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,Off-Channel-Floodplain_score,PoolQuantity&amp;Quality_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,Off-Channel-Floodplain_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,Off-Channel-Floodplain_score,PoolQuantity&amp;Quality_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
@@ -2872,6 +3018,9 @@
         <v>1</v>
       </c>
       <c r="M34">
+        <v>5</v>
+      </c>
+      <c r="O34">
         <v>5</v>
       </c>
       <c r="Q34">

--- a/Output/Steelhead_Habitat_Quality_RESTORATION_Okanogan.xlsx
+++ b/Output/Steelhead_Habitat_Quality_RESTORATION_Okanogan.xlsx
@@ -420,12 +420,12 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Off-Channel-Floodplain_score</t>
+          <t>FloodplainConnectivity_score</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels_score</t>
+          <t>Off-Channel/Side-Channels_score</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -502,7 +502,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Lower Antoine Creek</t>
+          <t>Antoine Creek-Lower</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -527,9 +527,6 @@
       </c>
       <c r="L2">
         <v>1</v>
-      </c>
-      <c r="M2">
-        <v>5</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -581,7 +578,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Lower Antoine Creek</t>
+          <t>Antoine Creek-Lower</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -606,12 +603,6 @@
       </c>
       <c r="L3">
         <v>1</v>
-      </c>
-      <c r="M3">
-        <v>5</v>
-      </c>
-      <c r="O3">
-        <v>5</v>
       </c>
       <c r="Q3">
         <v>1</v>
@@ -660,7 +651,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Lower Antoine Creek</t>
+          <t>Antoine Creek-Lower</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -684,12 +675,6 @@
         <v>5</v>
       </c>
       <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>5</v>
-      </c>
-      <c r="O4">
         <v>1</v>
       </c>
       <c r="Q4">
@@ -712,7 +697,7 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
@@ -722,7 +707,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
@@ -739,7 +724,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Lower Antoine Creek</t>
+          <t>Antoine Creek-Lower</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -764,12 +749,6 @@
       </c>
       <c r="L5">
         <v>1</v>
-      </c>
-      <c r="M5">
-        <v>5</v>
-      </c>
-      <c r="O5">
-        <v>5</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -818,7 +797,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Lower Antoine Creek</t>
+          <t>Antoine Creek-Lower</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -843,12 +822,6 @@
       </c>
       <c r="L6">
         <v>1</v>
-      </c>
-      <c r="M6">
-        <v>5</v>
-      </c>
-      <c r="O6">
-        <v>5</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -921,10 +894,7 @@
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>3</v>
@@ -949,7 +919,7 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>BankStability_score,ChannelStability_score,Stability_Mean,Cover-Wood_score,Flow-SummerBaseFlow_score,Off-Channel-Floodplain_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>BankStability_score,ChannelStability_score,Stability_Mean,Cover-Wood_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
@@ -959,7 +929,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>BankStability_score,ChannelStability_score,Stability_Mean,CoarseSubstrate_score,Cover-Wood_score,Flow-SummerBaseFlow_score,Off-Channel-Floodplain_score,PoolQuantity&amp;Quality_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>BankStability_score,ChannelStability_score,Stability_Mean,CoarseSubstrate_score,Cover-Wood_score,Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
@@ -976,7 +946,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Lower Loup Loup Creek</t>
+          <t>Loup Loup Creek-Lower DS</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1052,7 +1022,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Lower Loup Loup Creek</t>
+          <t>Loup Loup Creek-Lower DS</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1077,9 +1047,6 @@
       </c>
       <c r="L9">
         <v>1</v>
-      </c>
-      <c r="M9">
-        <v>5</v>
       </c>
       <c r="O9">
         <v>1</v>
@@ -1131,7 +1098,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Lower Loup Loup Creek</t>
+          <t>Loup Loup Creek-Lower DS</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1155,13 +1122,7 @@
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>5</v>
-      </c>
-      <c r="O10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -1183,7 +1144,7 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>Cover-Wood_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
@@ -1210,7 +1171,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Lower Omak Creek</t>
+          <t>Omak Creek-Lower US</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1234,9 +1195,6 @@
         <v>5</v>
       </c>
       <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
         <v>1</v>
       </c>
       <c r="O11">
@@ -1262,7 +1220,7 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Off-Channel-Floodplain_score,PoolQuantity&amp;Quality_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
@@ -1272,7 +1230,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,Off-Channel-Floodplain_score,PoolQuantity&amp;Quality_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
@@ -1289,7 +1247,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Lower Omak Creek</t>
+          <t>Omak Creek-Lower US</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1313,9 +1271,6 @@
         <v>5</v>
       </c>
       <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="O12">
         <v>1</v>
       </c>
       <c r="Q12">
@@ -1338,7 +1293,7 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
@@ -1348,7 +1303,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
@@ -1365,7 +1320,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Lower Omak Creek</t>
+          <t>Omak Creek-Lower US</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1389,10 +1344,7 @@
         <v>5</v>
       </c>
       <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>1</v>
@@ -1414,7 +1366,7 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
@@ -1441,7 +1393,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Lower Omak Creek</t>
+          <t>Omak Creek-Lower US</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1465,7 +1417,7 @@
         <v>5</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>1</v>
@@ -1490,7 +1442,7 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>PoolQuantity&amp;Quality_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
@@ -1517,7 +1469,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Lower Omak Creek</t>
+          <t>Omak Creek-Lower US</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1541,10 +1493,7 @@
         <v>5</v>
       </c>
       <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>3</v>
@@ -1569,7 +1518,7 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
@@ -1596,7 +1545,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Lower Omak Creek</t>
+          <t>Omak Creek-Lower US</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1620,13 +1569,7 @@
         <v>5</v>
       </c>
       <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>5</v>
-      </c>
-      <c r="O16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>1</v>
@@ -1648,7 +1591,7 @@
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
@@ -1658,7 +1601,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
@@ -1675,7 +1618,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Lower Omak Creek</t>
+          <t>Omak Creek-Lower US</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1699,7 +1642,7 @@
         <v>5</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>1</v>
@@ -1724,7 +1667,7 @@
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>PoolQuantity&amp;Quality_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
@@ -1751,7 +1694,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Lower Omak Creek</t>
+          <t>Omak Creek-Lower US</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1775,10 +1718,7 @@
         <v>5</v>
       </c>
       <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>3</v>
@@ -1803,7 +1743,7 @@
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
@@ -1830,7 +1770,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Lower Omak Creek</t>
+          <t>Omak Creek-Lower US</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1854,10 +1794,7 @@
         <v>5</v>
       </c>
       <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>1</v>
@@ -1879,7 +1816,7 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
@@ -1906,7 +1843,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Salmon Creek-Green Lake</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1931,9 +1868,6 @@
       </c>
       <c r="L20">
         <v>1</v>
-      </c>
-      <c r="M20">
-        <v>5</v>
       </c>
       <c r="O20">
         <v>1</v>
@@ -1985,7 +1919,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Salmon Creek-Green Lake</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -2010,12 +1944,6 @@
       </c>
       <c r="L21">
         <v>1</v>
-      </c>
-      <c r="M21">
-        <v>5</v>
-      </c>
-      <c r="O21">
-        <v>5</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -2064,7 +1992,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Salmon Creek-Green Lake</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -2082,18 +2010,12 @@
         <v>5</v>
       </c>
       <c r="J22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K22">
         <v>5</v>
       </c>
       <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>5</v>
-      </c>
-      <c r="O22">
         <v>1</v>
       </c>
       <c r="Q22">
@@ -2116,12 +2038,17 @@
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>CoarseSubstrate_score</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
@@ -2138,7 +2065,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Salmon Creek-Green Lake</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2163,9 +2090,6 @@
       </c>
       <c r="L23">
         <v>1</v>
-      </c>
-      <c r="M23">
-        <v>5</v>
       </c>
       <c r="O23">
         <v>3</v>
@@ -2217,7 +2141,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Salmon Creek-Green Lake</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2242,12 +2166,6 @@
       </c>
       <c r="L24">
         <v>1</v>
-      </c>
-      <c r="M24">
-        <v>5</v>
-      </c>
-      <c r="O24">
-        <v>5</v>
       </c>
       <c r="Q24">
         <v>1</v>
@@ -2296,7 +2214,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Salmon Creek-Green Lake</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2321,9 +2239,6 @@
       </c>
       <c r="L25">
         <v>1</v>
-      </c>
-      <c r="M25">
-        <v>5</v>
       </c>
       <c r="O25">
         <v>3</v>
@@ -2375,7 +2290,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Salmon Creek-Green Lake</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2400,12 +2315,6 @@
       </c>
       <c r="L26">
         <v>1</v>
-      </c>
-      <c r="M26">
-        <v>5</v>
-      </c>
-      <c r="O26">
-        <v>5</v>
       </c>
       <c r="Q26">
         <v>1</v>
@@ -2454,7 +2363,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Salmon Creek-Green Lake</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2479,12 +2388,6 @@
       </c>
       <c r="L27">
         <v>1</v>
-      </c>
-      <c r="M27">
-        <v>5</v>
-      </c>
-      <c r="O27">
-        <v>5</v>
       </c>
       <c r="Q27">
         <v>1</v>
@@ -2533,7 +2436,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Salmon Creek-Green Lake</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2558,12 +2461,6 @@
       </c>
       <c r="L28">
         <v>1</v>
-      </c>
-      <c r="M28">
-        <v>5</v>
-      </c>
-      <c r="O28">
-        <v>5</v>
       </c>
       <c r="Q28">
         <v>1</v>
@@ -2612,7 +2509,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Salmon Creek-Green Lake</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2637,12 +2534,6 @@
       </c>
       <c r="L29">
         <v>1</v>
-      </c>
-      <c r="M29">
-        <v>5</v>
-      </c>
-      <c r="O29">
-        <v>5</v>
       </c>
       <c r="Q29">
         <v>1</v>
@@ -2691,7 +2582,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Okanogan River-Mosquito Creek</t>
+          <t>Similkameen River</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2762,7 +2653,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Similkameen River-Ellemeham Draw</t>
+          <t>Similkameen River</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2838,7 +2729,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Similkameen River-Ellemeham Draw</t>
+          <t>Similkameen River</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2863,12 +2754,6 @@
       </c>
       <c r="L32">
         <v>1</v>
-      </c>
-      <c r="M32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>5</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -2890,7 +2775,7 @@
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>BankStability_score,ChannelStability_score,Stability_Mean,Cover-Wood_score,Flow-SummerBaseFlow_score,Off-Channel-Floodplain_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>BankStability_score,ChannelStability_score,Stability_Mean,Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
@@ -2900,7 +2785,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>BankStability_score,ChannelStability_score,Stability_Mean,CoarseSubstrate_score,Cover-Wood_score,Flow-SummerBaseFlow_score,Off-Channel-Floodplain_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>BankStability_score,ChannelStability_score,Stability_Mean,CoarseSubstrate_score,Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
@@ -2917,7 +2802,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Similkameen River-Ellemeham Draw</t>
+          <t>Similkameen River</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2941,9 +2826,6 @@
         <v>5</v>
       </c>
       <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
         <v>1</v>
       </c>
       <c r="O33">
@@ -2969,12 +2851,12 @@
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,Off-Channel-Floodplain_score,PoolQuantity&amp;Quality_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,Off-Channel-Floodplain_score,PoolQuantity&amp;Quality_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
@@ -2991,7 +2873,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Similkameen River-Ellemeham Draw</t>
+          <t>Similkameen River</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -3016,12 +2898,6 @@
       </c>
       <c r="L34">
         <v>1</v>
-      </c>
-      <c r="M34">
-        <v>5</v>
-      </c>
-      <c r="O34">
-        <v>5</v>
       </c>
       <c r="Q34">
         <v>1</v>

--- a/Output/Steelhead_Habitat_Quality_RESTORATION_Okanogan.xlsx
+++ b/Output/Steelhead_Habitat_Quality_RESTORATION_Okanogan.xlsx
@@ -528,10 +528,13 @@
       <c r="L2">
         <v>1</v>
       </c>
+      <c r="M2">
+        <v>5</v>
+      </c>
       <c r="O2">
         <v>1</v>
       </c>
-      <c r="Q2">
+      <c r="P2">
         <v>1</v>
       </c>
       <c r="R2">
@@ -551,7 +554,7 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>Cover-Wood_score,Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>Cover-Wood_score,Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -561,7 +564,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>BankStability_score,ChannelStability_score,Stability_Mean,CoarseSubstrate_score,Cover-Wood_score,Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>BankStability_score,ChannelStability_score,Stability_Mean,CoarseSubstrate_score,Cover-Wood_score,Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
@@ -604,7 +607,10 @@
       <c r="L3">
         <v>1</v>
       </c>
-      <c r="Q3">
+      <c r="M3">
+        <v>5</v>
+      </c>
+      <c r="P3">
         <v>1</v>
       </c>
       <c r="R3">
@@ -624,7 +630,7 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>Flow-SummerBaseFlow_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
@@ -634,7 +640,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>CoarseSubstrate_score,Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>CoarseSubstrate_score,Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
@@ -677,7 +683,10 @@
       <c r="L4">
         <v>1</v>
       </c>
-      <c r="Q4">
+      <c r="M4">
+        <v>5</v>
+      </c>
+      <c r="P4">
         <v>1</v>
       </c>
       <c r="R4">
@@ -697,7 +706,7 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>Flow-SummerBaseFlow_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
@@ -707,7 +716,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
@@ -750,7 +759,10 @@
       <c r="L5">
         <v>1</v>
       </c>
-      <c r="Q5">
+      <c r="M5">
+        <v>5</v>
+      </c>
+      <c r="P5">
         <v>1</v>
       </c>
       <c r="R5">
@@ -770,7 +782,7 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
@@ -780,7 +792,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>CoarseSubstrate_score,Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>CoarseSubstrate_score,Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
@@ -823,7 +835,10 @@
       <c r="L6">
         <v>1</v>
       </c>
-      <c r="Q6">
+      <c r="M6">
+        <v>5</v>
+      </c>
+      <c r="P6">
         <v>1</v>
       </c>
       <c r="R6">
@@ -843,7 +858,7 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>Flow-SummerBaseFlow_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
@@ -853,7 +868,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>CoarseSubstrate_score,Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>CoarseSubstrate_score,Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
@@ -894,12 +909,15 @@
         <v>1</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>5</v>
       </c>
       <c r="O7">
         <v>3</v>
       </c>
-      <c r="Q7">
+      <c r="P7">
         <v>1</v>
       </c>
       <c r="R7">
@@ -919,7 +937,7 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>BankStability_score,ChannelStability_score,Stability_Mean,Cover-Wood_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>BankStability_score,ChannelStability_score,Stability_Mean,Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
@@ -929,7 +947,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>BankStability_score,ChannelStability_score,Stability_Mean,CoarseSubstrate_score,Cover-Wood_score,Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>BankStability_score,ChannelStability_score,Stability_Mean,CoarseSubstrate_score,Cover-Wood_score,Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
@@ -972,10 +990,13 @@
       <c r="L8">
         <v>1</v>
       </c>
+      <c r="M8">
+        <v>5</v>
+      </c>
       <c r="O8">
         <v>3</v>
       </c>
-      <c r="Q8">
+      <c r="P8">
         <v>1</v>
       </c>
       <c r="R8">
@@ -995,7 +1016,7 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>BankStability_score,ChannelStability_score,Stability_Mean,Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>BankStability_score,ChannelStability_score,Stability_Mean,Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
@@ -1005,7 +1026,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>BankStability_score,ChannelStability_score,Stability_Mean,CoarseSubstrate_score,Cover-Wood_score,Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>BankStability_score,ChannelStability_score,Stability_Mean,CoarseSubstrate_score,Cover-Wood_score,Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
@@ -1048,10 +1069,13 @@
       <c r="L9">
         <v>1</v>
       </c>
+      <c r="M9">
+        <v>5</v>
+      </c>
       <c r="O9">
         <v>1</v>
       </c>
-      <c r="Q9">
+      <c r="P9">
         <v>1</v>
       </c>
       <c r="R9">
@@ -1071,7 +1095,7 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>Cover-Wood_score,Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>Cover-Wood_score,Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
@@ -1081,7 +1105,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>CoarseSubstrate_score,Cover-Wood_score,Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>CoarseSubstrate_score,Cover-Wood_score,Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
@@ -1122,9 +1146,12 @@
         <v>1</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>5</v>
+      </c>
+      <c r="P10">
         <v>1</v>
       </c>
       <c r="R10">
@@ -1144,7 +1171,7 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>Cover-Wood_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
@@ -1154,7 +1181,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>CoarseSubstrate_score,Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>CoarseSubstrate_score,Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
@@ -1197,10 +1224,13 @@
       <c r="L11">
         <v>1</v>
       </c>
+      <c r="M11">
+        <v>5</v>
+      </c>
       <c r="O11">
         <v>1</v>
       </c>
-      <c r="Q11">
+      <c r="P11">
         <v>1</v>
       </c>
       <c r="R11">
@@ -1220,7 +1250,7 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
@@ -1230,7 +1260,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1303,7 @@
       <c r="L12">
         <v>1</v>
       </c>
-      <c r="Q12">
+      <c r="P12">
         <v>1</v>
       </c>
       <c r="R12">
@@ -1293,7 +1323,7 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>Flow-SummerBaseFlow_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
@@ -1303,7 +1333,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
@@ -1344,9 +1374,12 @@
         <v>5</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>5</v>
+      </c>
+      <c r="P13">
         <v>1</v>
       </c>
       <c r="R13">
@@ -1366,7 +1399,7 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>Flow-SummerBaseFlow_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
@@ -1376,7 +1409,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
@@ -1417,12 +1450,15 @@
         <v>5</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>5</v>
       </c>
       <c r="O14">
         <v>1</v>
       </c>
-      <c r="Q14">
+      <c r="P14">
         <v>1</v>
       </c>
       <c r="R14">
@@ -1442,7 +1478,7 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>PoolQuantity&amp;Quality_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
@@ -1452,7 +1488,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
@@ -1493,12 +1529,15 @@
         <v>5</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>5</v>
       </c>
       <c r="O15">
         <v>3</v>
       </c>
-      <c r="Q15">
+      <c r="P15">
         <v>1</v>
       </c>
       <c r="R15">
@@ -1518,7 +1557,7 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>Flow-SummerBaseFlow_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
@@ -1528,7 +1567,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
@@ -1569,9 +1608,12 @@
         <v>5</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>5</v>
+      </c>
+      <c r="P16">
         <v>1</v>
       </c>
       <c r="R16">
@@ -1591,7 +1633,7 @@
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>Flow-SummerBaseFlow_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
@@ -1601,7 +1643,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
@@ -1642,12 +1684,15 @@
         <v>5</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>5</v>
       </c>
       <c r="O17">
         <v>1</v>
       </c>
-      <c r="Q17">
+      <c r="P17">
         <v>1</v>
       </c>
       <c r="R17">
@@ -1667,7 +1712,7 @@
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>PoolQuantity&amp;Quality_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
@@ -1677,7 +1722,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
@@ -1718,12 +1763,15 @@
         <v>5</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>5</v>
       </c>
       <c r="O18">
         <v>3</v>
       </c>
-      <c r="Q18">
+      <c r="P18">
         <v>1</v>
       </c>
       <c r="R18">
@@ -1743,7 +1791,7 @@
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>Flow-SummerBaseFlow_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
@@ -1753,7 +1801,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
@@ -1794,9 +1842,12 @@
         <v>5</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>5</v>
+      </c>
+      <c r="P19">
         <v>1</v>
       </c>
       <c r="R19">
@@ -1816,7 +1867,7 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>Flow-SummerBaseFlow_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
@@ -1826,7 +1877,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
@@ -1869,10 +1920,13 @@
       <c r="L20">
         <v>1</v>
       </c>
+      <c r="M20">
+        <v>5</v>
+      </c>
       <c r="O20">
         <v>1</v>
       </c>
-      <c r="Q20">
+      <c r="P20">
         <v>1</v>
       </c>
       <c r="R20">
@@ -1892,7 +1946,7 @@
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
@@ -1902,7 +1956,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
@@ -1945,7 +1999,10 @@
       <c r="L21">
         <v>1</v>
       </c>
-      <c r="Q21">
+      <c r="M21">
+        <v>5</v>
+      </c>
+      <c r="P21">
         <v>3</v>
       </c>
       <c r="R21">
@@ -1970,12 +2027,12 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>CoarseSubstrate_score,Cover-Wood_score,Riparian-Disturbance_score,Riparian_Mean</t>
+          <t>CoarseSubstrate_score,Cover-Wood_score,Riparian-CanopyCover_score,Riparian_Mean</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>CoarseSubstrate_score,Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>CoarseSubstrate_score,Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2075,10 @@
       <c r="L22">
         <v>1</v>
       </c>
-      <c r="Q22">
+      <c r="M22">
+        <v>5</v>
+      </c>
+      <c r="P22">
         <v>1</v>
       </c>
       <c r="R22">
@@ -2038,7 +2098,7 @@
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>Flow-SummerBaseFlow_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
@@ -2048,7 +2108,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
@@ -2091,10 +2151,13 @@
       <c r="L23">
         <v>1</v>
       </c>
+      <c r="M23">
+        <v>5</v>
+      </c>
       <c r="O23">
         <v>3</v>
       </c>
-      <c r="Q23">
+      <c r="P23">
         <v>1</v>
       </c>
       <c r="R23">
@@ -2114,7 +2177,7 @@
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>Flow-SummerBaseFlow_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
@@ -2124,7 +2187,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
@@ -2167,7 +2230,10 @@
       <c r="L24">
         <v>1</v>
       </c>
-      <c r="Q24">
+      <c r="M24">
+        <v>5</v>
+      </c>
+      <c r="P24">
         <v>1</v>
       </c>
       <c r="R24">
@@ -2187,7 +2253,7 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>Flow-SummerBaseFlow_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
@@ -2197,7 +2263,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>CoarseSubstrate_score,Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>CoarseSubstrate_score,Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
@@ -2240,10 +2306,13 @@
       <c r="L25">
         <v>1</v>
       </c>
+      <c r="M25">
+        <v>5</v>
+      </c>
       <c r="O25">
         <v>3</v>
       </c>
-      <c r="Q25">
+      <c r="P25">
         <v>1</v>
       </c>
       <c r="R25">
@@ -2263,7 +2332,7 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>Flow-SummerBaseFlow_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
@@ -2273,7 +2342,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2385,10 @@
       <c r="L26">
         <v>1</v>
       </c>
-      <c r="Q26">
+      <c r="M26">
+        <v>5</v>
+      </c>
+      <c r="P26">
         <v>1</v>
       </c>
       <c r="R26">
@@ -2336,7 +2408,7 @@
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>Flow-SummerBaseFlow_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
@@ -2346,7 +2418,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
@@ -2389,7 +2461,10 @@
       <c r="L27">
         <v>1</v>
       </c>
-      <c r="Q27">
+      <c r="M27">
+        <v>5</v>
+      </c>
+      <c r="P27">
         <v>1</v>
       </c>
       <c r="R27">
@@ -2409,7 +2484,7 @@
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>Flow-SummerBaseFlow_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
@@ -2419,7 +2494,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
@@ -2462,7 +2537,10 @@
       <c r="L28">
         <v>1</v>
       </c>
-      <c r="Q28">
+      <c r="M28">
+        <v>5</v>
+      </c>
+      <c r="P28">
         <v>1</v>
       </c>
       <c r="R28">
@@ -2482,7 +2560,7 @@
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>Flow-SummerBaseFlow_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
@@ -2492,7 +2570,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>CoarseSubstrate_score,Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>CoarseSubstrate_score,Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
@@ -2535,7 +2613,10 @@
       <c r="L29">
         <v>1</v>
       </c>
-      <c r="Q29">
+      <c r="M29">
+        <v>5</v>
+      </c>
+      <c r="P29">
         <v>1</v>
       </c>
       <c r="R29">
@@ -2555,7 +2636,7 @@
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>Flow-SummerBaseFlow_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
@@ -2565,7 +2646,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>CoarseSubstrate_score,Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>CoarseSubstrate_score,Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
@@ -2608,10 +2689,13 @@
       <c r="L30">
         <v>1</v>
       </c>
+      <c r="M30">
+        <v>5</v>
+      </c>
       <c r="O30">
         <v>1</v>
       </c>
-      <c r="Q30">
+      <c r="P30">
         <v>1</v>
       </c>
       <c r="R30">
@@ -2631,12 +2715,12 @@
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
@@ -2679,10 +2763,13 @@
       <c r="L31">
         <v>1</v>
       </c>
+      <c r="M31">
+        <v>5</v>
+      </c>
       <c r="O31">
         <v>1</v>
       </c>
-      <c r="Q31">
+      <c r="P31">
         <v>1</v>
       </c>
       <c r="R31">
@@ -2702,7 +2789,7 @@
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
@@ -2712,7 +2799,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>CoarseSubstrate_score,Cover-Wood_score,Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>CoarseSubstrate_score,Cover-Wood_score,Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
@@ -2755,7 +2842,10 @@
       <c r="L32">
         <v>1</v>
       </c>
-      <c r="Q32">
+      <c r="M32">
+        <v>5</v>
+      </c>
+      <c r="P32">
         <v>1</v>
       </c>
       <c r="R32">
@@ -2775,7 +2865,7 @@
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>BankStability_score,ChannelStability_score,Stability_Mean,Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>BankStability_score,ChannelStability_score,Stability_Mean,Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
@@ -2785,7 +2875,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>BankStability_score,ChannelStability_score,Stability_Mean,CoarseSubstrate_score,Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>BankStability_score,ChannelStability_score,Stability_Mean,CoarseSubstrate_score,Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
@@ -2828,10 +2918,13 @@
       <c r="L33">
         <v>1</v>
       </c>
+      <c r="M33">
+        <v>5</v>
+      </c>
       <c r="O33">
         <v>1</v>
       </c>
-      <c r="Q33">
+      <c r="P33">
         <v>1</v>
       </c>
       <c r="R33">
@@ -2851,12 +2944,12 @@
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
@@ -2899,7 +2992,10 @@
       <c r="L34">
         <v>1</v>
       </c>
-      <c r="Q34">
+      <c r="M34">
+        <v>5</v>
+      </c>
+      <c r="P34">
         <v>1</v>
       </c>
       <c r="R34">
@@ -2919,7 +3015,7 @@
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>Flow-SummerBaseFlow_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
@@ -2929,7 +3025,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>

--- a/Output/Steelhead_Habitat_Quality_RESTORATION_Okanogan.xlsx
+++ b/Output/Steelhead_Habitat_Quality_RESTORATION_Okanogan.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="165">
   <si>
     <t xml:space="preserve">ReachName</t>
   </si>
@@ -104,357 +104,402 @@
     <t xml:space="preserve">yes</t>
   </si>
   <si>
+    <t xml:space="preserve">BankStability_score,ChannelStability_score,Stability_Mean,Flow-SummerBaseFlow_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability_score,ChannelStability_score,Stability_Mean,CoarseSubstrate_score,Flow-SummerBaseFlow_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aeneas 16-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Antoine 16-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antoine Creek-Lower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flow-SummerBaseFlow_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability_score,ChannelStability_score,Stability_Mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antoine 16-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antoine 16-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antoine 16-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flow-SummerBaseFlow_score,Off-Channel/Side-Channels_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antoine 16-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CoarseSubstrate_score,Flow-SummerBaseFlow_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bonaparte 16-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bonaparte Creek-Lower DS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover-Wood_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability_score,ChannelStability_score,Stability_Mean,Flow-SummerBaseFlow_score</t>
+  </si>
+  <si>
     <t xml:space="preserve">BankStability_score,ChannelStability_score,Stability_Mean,Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
   </si>
   <si>
-    <t xml:space="preserve">BankStability_score,ChannelStability_score,Stability_Mean,CoarseSubstrate_score,Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aeneas 16-2</t>
+    <t xml:space="preserve">Johnson 16-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johnson Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability_score,ChannelStability_score,Stability_Mean,Cover-Wood_score,Flow-SummerBaseFlow_score,FloodplainConnectivity_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability_score,ChannelStability_score,Stability_Mean,Cover-Wood_score,Flow-SummerBaseFlow_score,FloodplainConnectivity_score,Off-Channel/Side-Channels_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loup Loup 16-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loup Loup Creek-Lower DS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability_score,ChannelStability_score,Stability_Mean,Flow-SummerBaseFlow_score,FloodplainConnectivity_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loup Loup 16-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loup Loup 16-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CoarseSubstrate_score,Off-Channel/Side-Channels_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CoarseSubstrate_score,Flow-SummerBaseFlow_score,Off-Channel/Side-Channels_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ninemile 16-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ninemile Creek DS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flow-SummerBaseFlow_score,FloodplainConnectivity_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover-Wood_score,Off-Channel/Side-Channels_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover-Wood_score,Flow-SummerBaseFlow_score,FloodplainConnectivity_score,Off-Channel/Side-Channels_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ninemile 16-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover-Wood_score,Flow-SummerBaseFlow_score,Off-Channel/Side-Channels_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ninemile 16-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CoarseSubstrate_score,Cover-Wood_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CoarseSubstrate_score,Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okanogan 16-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okanogan-Talant Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flow-SummerBaseFlow_score,Off-Channel/Side-Channels_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okanogan 16-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okanogan-Swipkin Canyon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover-Wood_score,FloodplainConnectivity_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover-Wood_score,Flow-SummerBaseFlow_score,FloodplainConnectivity_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okanogan 16-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okanogan 16-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okanogan 16-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okanogan-Alkali Lake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability_score,ChannelStability_score,Stability_Mean,PoolQuantity&amp;Quality_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover-Wood_score,Flow-SummerBaseFlow_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability_score,ChannelStability_score,Stability_Mean,Cover-Wood_score,Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okanogan 16-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okanogan-Whitestone Coulee</t>
   </si>
   <si>
     <t xml:space="preserve">Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
   </si>
   <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Antoine 16-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antoine Creek-Lower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover-Wood_score,Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability_score,ChannelStability_score,Stability_Mean,CoarseSubstrate_score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability_score,ChannelStability_score,Stability_Mean,CoarseSubstrate_score,Cover-Wood_score,Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antoine 16-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flow-SummerBaseFlow_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CoarseSubstrate_score,Cover-Wood_score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CoarseSubstrate_score,Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antoine 16-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CoarseSubstrate_score,Flow-SummerBaseFlow_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antoine 16-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antoine 16-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bonaparte 16-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bonaparte Creek-Lower DS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability_score,ChannelStability_score,Stability_Mean,CoarseSubstrate_score,Cover-Wood_score,Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Johnson 16-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Johnson Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CoarseSubstrate_score,PoolQuantity&amp;Quality_score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loup Loup 16-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loup Loup Creek-Lower DS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loup Loup 16-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CoarseSubstrate_score,Cover-Wood_score,Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loup Loup 16-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ninemile 16-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ninemile Creek DS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CoarseSubstrate_score,Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ninemile 16-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ninemile 16-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Okanogan 16-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Okanogan-Talant Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CoarseSubstrate_score,PoolQuantity&amp;Quality_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover-Wood_score,Flow-SummerBaseFlow_score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Okanogan 16-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Okanogan-Swipkin Canyon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Okanogan 16-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Okanogan 16-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Okanogan 16-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Okanogan-Alkali Lake</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability_score,ChannelStability_score,Stability_Mean,Cover-Wood_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
+    <t xml:space="preserve">BankStability_score,ChannelStability_score,Stability_Mean,Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okanogan 16-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability_score,ChannelStability_score,Stability_Mean,Cover-Wood_score,FloodplainConnectivity_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okanogan 16-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okanogan 16-32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability_score,ChannelStability_score,Stability_Mean,Cover-Wood_score,FloodplainConnectivity_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okanogan 16-39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okanogan-Mosquito Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FloodplainConnectivity_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okanogan 16-40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okanogan 16-41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okanogan 16-43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okanogan-Haynes Creek South</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability_score,ChannelStability_score,Stability_Mean,Flow-SummerBaseFlow_score,Riparian-CanopyCover_score,Riparian_Mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okanogan 16-44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PoolQuantity&amp;Quality_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover-Wood_score,PoolQuantity&amp;Quality_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okanogan 16-45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover-Wood_score,FloodplainConnectivity_score,Off-Channel/Side-Channels_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover-Wood_score,FloodplainConnectivity_score,Off-Channel/Side-Channels_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omak 16-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omak Creek-Lower US</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omak 16-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omak Creek-Middle DS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omak 16-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omak 16-13</t>
   </si>
   <si>
     <t xml:space="preserve">CoarseSubstrate_score,Flow-SummerBaseFlow_score</t>
   </si>
   <si>
-    <t xml:space="preserve">Okanogan 16-29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Okanogan-Whitestone Coulee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability_score,ChannelStability_score,Stability_Mean,CoarseSubstrate_score,Cover-Wood_score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Okanogan 16-30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability_score,ChannelStability_score,Stability_Mean,CoarseSubstrate_score,PoolQuantity&amp;Quality_score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Okanogan 16-31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Okanogan 16-32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PoolQuantity&amp;Quality_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability_score,ChannelStability_score,Stability_Mean,CoarseSubstrate_score,Cover-Wood_score,PoolQuantity&amp;Quality_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Okanogan 16-39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Okanogan-Mosquito Creek</t>
+    <t xml:space="preserve">Omak 16-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omak Creek-Upper DS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omak 16-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omak 16-16</t>
   </si>
   <si>
     <t xml:space="preserve">CoarseSubstrate_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
   </si>
   <si>
-    <t xml:space="preserve">Okanogan 16-40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CoarseSubstrate_score,Cover-Wood_score,PoolQuantity&amp;Quality_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Okanogan 16-41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Okanogan 16-43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Okanogan-Haynes Creek South</t>
+    <t xml:space="preserve">Omak 16-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Off-Channel/Side-Channels_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omak 16-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FloodplainConnectivity_score,Off-Channel/Side-Channels_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flow-SummerBaseFlow_score,FloodplainConnectivity_score,Off-Channel/Side-Channels_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omak 16-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omak 16-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CoarseSubstrate_score,FloodplainConnectivity_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CoarseSubstrate_score,Flow-SummerBaseFlow_score,FloodplainConnectivity_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omak 16-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omak 16-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omak 16-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omak 16-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omak 16-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salmon 16-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salmon Creek-Lower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salmon 16-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flow-SummerBaseFlow_score,Temperature-Rearing_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riparian-CanopyCover_score,Riparian_Mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salmon 16-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salmon 16-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salmon 16-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salmon 16-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salmon 16-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salmon 16-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salmon 16-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salmon 16-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Similkameen 16-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Similkameen River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Similkameen 16-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Similkameen 16-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Similkameen 16-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CoarseSubstrate_score,Cover-Wood_score,Flow-SummerBaseFlow_score,FloodplainConnectivity_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Similkameen 16-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stapaloop 16-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stapaloop 16-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover-Wood_score,Flow-SummerBaseFlow_score,Temperature-Rearing_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swimptkin 16-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flow-SummerBaseFlow_score,Off-Channel/Side-Channels_score,Riparian-CanopyCover_score,Riparian_Mean</t>
   </si>
   <si>
     <t xml:space="preserve">Cover-Wood_score,Temperature-Rearing_score</t>
   </si>
   <si>
-    <t xml:space="preserve">BankStability_score,ChannelStability_score,Stability_Mean,CoarseSubstrate_score,Flow-SummerBaseFlow_score,Riparian-CanopyCover_score,Riparian_Mean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Okanogan 16-44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Okanogan 16-45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Omak 16-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Omak Creek-Lower US</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Omak 16-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Omak Creek-Middle DS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Omak 16-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Omak 16-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Omak 16-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Omak Creek-Upper DS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CoarseSubstrate_score,Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Omak 16-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Omak 16-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Omak 16-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Omak 16-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Omak 16-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Omak 16-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Omak 16-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Omak 16-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Omak 16-7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Omak 16-8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Omak 16-9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salmon 16-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salmon Creek-Lower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salmon 16-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flow-SummerBaseFlow_score,Temperature-Rearing_score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CoarseSubstrate_score,Cover-Wood_score,Riparian-CanopyCover_score,Riparian_Mean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salmon 16-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salmon 16-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salmon 16-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salmon 16-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salmon 16-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salmon 16-7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salmon 16-8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salmon 16-9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Similkameen 16-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Similkameen River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Similkameen 16-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Similkameen 16-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Similkameen 16-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Similkameen 16-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stapaloop 16-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stapaloop 16-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Riparian-CanopyCover_score,Riparian_Mean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CoarseSubstrate_score,Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Temperature-Rearing_score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swimptkin 16-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-CanopyCover_score,Riparian_Mean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CoarseSubstrate_score,PoolQuantity&amp;Quality_score,Temperature-Rearing_score</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tonasket 16-1</t>
   </si>
   <si>
@@ -462,9 +507,6 @@
   </si>
   <si>
     <t xml:space="preserve">Trail 16-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover-Wood_score,PoolQuantity&amp;Quality_score</t>
   </si>
 </sst>
 </file>
@@ -903,16 +945,16 @@
       <c r="J2" t="n">
         <v>3</v>
       </c>
-      <c r="K2" t="n">
-        <v>1</v>
-      </c>
+      <c r="K2"/>
       <c r="L2" t="n">
         <v>1</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
-      <c r="N2"/>
+      <c r="N2" t="n">
+        <v>5</v>
+      </c>
       <c r="O2"/>
       <c r="P2" t="n">
         <v>1</v>
@@ -970,7 +1012,7 @@
       </c>
       <c r="J3"/>
       <c r="K3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
         <v>1</v>
@@ -979,9 +1021,7 @@
         <v>5</v>
       </c>
       <c r="N3"/>
-      <c r="O3" t="n">
-        <v>1</v>
-      </c>
+      <c r="O3"/>
       <c r="P3" t="n">
         <v>1</v>
       </c>
@@ -1037,21 +1077,19 @@
         <v>3</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="K4"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
-      <c r="N4"/>
-      <c r="O4" t="n">
-        <v>1</v>
-      </c>
+      <c r="N4" t="n">
+        <v>5</v>
+      </c>
+      <c r="O4"/>
       <c r="P4" t="n">
         <v>1</v>
       </c>
@@ -1079,12 +1117,12 @@
         <v>38</v>
       </c>
       <c r="Z4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
         <v>27</v>
@@ -1107,10 +1145,10 @@
         <v>5</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5" t="n">
         <v>1</v>
@@ -1141,18 +1179,18 @@
         <v>1</v>
       </c>
       <c r="X5" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="Y5" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="Z5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
@@ -1175,11 +1213,9 @@
         <v>5</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
-      </c>
-      <c r="K6" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="K6"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -1209,18 +1245,18 @@
         <v>1</v>
       </c>
       <c r="X6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Y6" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="Z6" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
         <v>27</v>
@@ -1242,19 +1278,17 @@
       <c r="I7" t="n">
         <v>5</v>
       </c>
-      <c r="J7" t="n">
-        <v>3</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1</v>
-      </c>
+      <c r="J7"/>
+      <c r="K7"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
-      <c r="N7"/>
+      <c r="N7" t="n">
+        <v>1</v>
+      </c>
       <c r="O7"/>
       <c r="P7" t="n">
         <v>1</v>
@@ -1277,18 +1311,18 @@
         <v>1</v>
       </c>
       <c r="X7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="Y7" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="Z7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
         <v>27</v>
@@ -1313,16 +1347,16 @@
       <c r="J8" t="n">
         <v>3</v>
       </c>
-      <c r="K8" t="n">
-        <v>3</v>
-      </c>
+      <c r="K8"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
-      <c r="N8"/>
+      <c r="N8" t="n">
+        <v>5</v>
+      </c>
       <c r="O8"/>
       <c r="P8" t="n">
         <v>1</v>
@@ -1345,24 +1379,24 @@
         <v>1</v>
       </c>
       <c r="X8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Y8" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="Z8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D9"/>
       <c r="E9" t="s">
@@ -1378,11 +1412,9 @@
       <c r="I9" t="n">
         <v>3</v>
       </c>
-      <c r="J9" t="n">
-        <v>3</v>
-      </c>
+      <c r="J9"/>
       <c r="K9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9" t="n">
         <v>3</v>
@@ -1390,10 +1422,10 @@
       <c r="M9" t="n">
         <v>5</v>
       </c>
-      <c r="N9"/>
-      <c r="O9" t="n">
-        <v>3</v>
-      </c>
+      <c r="N9" t="n">
+        <v>5</v>
+      </c>
+      <c r="O9"/>
       <c r="P9" t="n">
         <v>1</v>
       </c>
@@ -1415,24 +1447,24 @@
         <v>1</v>
       </c>
       <c r="X9" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="Y9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="Z9" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
         <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D10"/>
       <c r="E10" t="s">
@@ -1448,9 +1480,7 @@
       <c r="I10" t="n">
         <v>1</v>
       </c>
-      <c r="J10" t="n">
-        <v>3</v>
-      </c>
+      <c r="J10"/>
       <c r="K10" t="n">
         <v>1</v>
       </c>
@@ -1458,12 +1488,12 @@
         <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10"/>
-      <c r="O10" t="n">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3</v>
+      </c>
+      <c r="O10"/>
       <c r="P10" t="n">
         <v>1</v>
       </c>
@@ -1485,24 +1515,24 @@
         <v>1</v>
       </c>
       <c r="X10" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="Y10" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="Z10" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
         <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D11"/>
       <c r="E11" t="s">
@@ -1519,21 +1549,19 @@
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>3</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="K11"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
-      </c>
-      <c r="N11"/>
-      <c r="O11" t="n">
-        <v>3</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N11" t="n">
+        <v>5</v>
+      </c>
+      <c r="O11"/>
       <c r="P11" t="n">
         <v>1</v>
       </c>
@@ -1558,21 +1586,21 @@
         <v>30</v>
       </c>
       <c r="Y11" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="Z11" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B12" t="s">
         <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D12"/>
       <c r="E12" t="s">
@@ -1591,19 +1619,17 @@
       <c r="J12" t="n">
         <v>3</v>
       </c>
-      <c r="K12" t="n">
-        <v>1</v>
-      </c>
+      <c r="K12"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
-      <c r="N12"/>
-      <c r="O12" t="n">
-        <v>1</v>
-      </c>
+      <c r="N12" t="n">
+        <v>5</v>
+      </c>
+      <c r="O12"/>
       <c r="P12" t="n">
         <v>1</v>
       </c>
@@ -1631,18 +1657,18 @@
         <v>9</v>
       </c>
       <c r="Z12" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B13" t="s">
         <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D13"/>
       <c r="E13" t="s">
@@ -1661,16 +1687,16 @@
       <c r="J13" t="n">
         <v>3</v>
       </c>
-      <c r="K13" t="n">
-        <v>1</v>
-      </c>
+      <c r="K13"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
-      <c r="N13"/>
+      <c r="N13" t="n">
+        <v>3</v>
+      </c>
       <c r="O13"/>
       <c r="P13" t="n">
         <v>1</v>
@@ -1693,13 +1719,13 @@
         <v>1</v>
       </c>
       <c r="X13" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="Y13" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="Z13" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14">
@@ -1727,21 +1753,21 @@
         <v>5</v>
       </c>
       <c r="J14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
-      </c>
-      <c r="N14"/>
-      <c r="O14" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N14" t="n">
+        <v>3</v>
+      </c>
+      <c r="O14"/>
       <c r="P14" t="n">
         <v>1</v>
       </c>
@@ -1763,18 +1789,18 @@
         <v>1</v>
       </c>
       <c r="X14" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="Y14" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="Z14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B15" t="s">
         <v>27</v>
@@ -1796,11 +1822,9 @@
       <c r="I15" t="n">
         <v>5</v>
       </c>
-      <c r="J15" t="n">
-        <v>3</v>
-      </c>
+      <c r="J15"/>
       <c r="K15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L15" t="n">
         <v>1</v>
@@ -1808,7 +1832,9 @@
       <c r="M15" t="n">
         <v>5</v>
       </c>
-      <c r="N15"/>
+      <c r="N15" t="n">
+        <v>3</v>
+      </c>
       <c r="O15"/>
       <c r="P15" t="n">
         <v>1</v>
@@ -1831,18 +1857,18 @@
         <v>1</v>
       </c>
       <c r="X15" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="Y15" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="Z15" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B16" t="s">
         <v>27</v>
@@ -1868,7 +1894,7 @@
         <v>3</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16" t="n">
         <v>1</v>
@@ -1876,7 +1902,9 @@
       <c r="M16" t="n">
         <v>5</v>
       </c>
-      <c r="N16"/>
+      <c r="N16" t="n">
+        <v>5</v>
+      </c>
       <c r="O16"/>
       <c r="P16" t="n">
         <v>1</v>
@@ -1899,24 +1927,24 @@
         <v>1</v>
       </c>
       <c r="X16" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="Y16" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="Z16" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B17" t="s">
         <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D17"/>
       <c r="E17" t="s">
@@ -1932,22 +1960,18 @@
       <c r="I17" t="n">
         <v>5</v>
       </c>
-      <c r="J17" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" t="n">
-        <v>3</v>
-      </c>
+      <c r="J17"/>
+      <c r="K17"/>
       <c r="L17" t="n">
         <v>3</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
-      <c r="N17"/>
-      <c r="O17" t="n">
-        <v>1</v>
-      </c>
+      <c r="N17" t="n">
+        <v>3</v>
+      </c>
+      <c r="O17"/>
       <c r="P17" t="n">
         <v>1</v>
       </c>
@@ -1969,24 +1993,24 @@
         <v>1</v>
       </c>
       <c r="X17" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="Y17" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="Z17" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B18" t="s">
         <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D18"/>
       <c r="E18" t="s">
@@ -2003,21 +2027,21 @@
         <v>5</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>5</v>
-      </c>
-      <c r="N18"/>
-      <c r="O18" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N18" t="n">
+        <v>5</v>
+      </c>
+      <c r="O18"/>
       <c r="P18" t="n">
         <v>1</v>
       </c>
@@ -2039,24 +2063,24 @@
         <v>1</v>
       </c>
       <c r="X18" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="Y18" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="Z18" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B19" t="s">
         <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D19"/>
       <c r="E19" t="s">
@@ -2073,18 +2097,18 @@
         <v>5</v>
       </c>
       <c r="J19" t="n">
-        <v>3</v>
-      </c>
-      <c r="K19" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="K19"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
-      </c>
-      <c r="N19"/>
+        <v>1</v>
+      </c>
+      <c r="N19" t="n">
+        <v>5</v>
+      </c>
       <c r="O19"/>
       <c r="P19" t="n">
         <v>1</v>
@@ -2107,24 +2131,24 @@
         <v>1</v>
       </c>
       <c r="X19" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="Y19" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="Z19" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B20" t="s">
         <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D20"/>
       <c r="E20" t="s">
@@ -2141,21 +2165,19 @@
         <v>5</v>
       </c>
       <c r="J20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N20"/>
-      <c r="O20" t="n">
-        <v>3</v>
-      </c>
+      <c r="O20"/>
       <c r="P20" t="n">
         <v>1</v>
       </c>
@@ -2177,24 +2199,24 @@
         <v>1</v>
       </c>
       <c r="X20" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="Y20" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="Z20" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B21" t="s">
         <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D21"/>
       <c r="E21" t="s">
@@ -2211,10 +2233,10 @@
         <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21" t="n">
         <v>3</v>
@@ -2222,8 +2244,12 @@
       <c r="M21" t="n">
         <v>5</v>
       </c>
-      <c r="N21"/>
-      <c r="O21"/>
+      <c r="N21" t="n">
+        <v>5</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1</v>
+      </c>
       <c r="P21" t="n">
         <v>1</v>
       </c>
@@ -2245,24 +2271,24 @@
         <v>1</v>
       </c>
       <c r="X21" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="Y21" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="Z21" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B22" t="s">
         <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D22"/>
       <c r="E22" t="s">
@@ -2279,19 +2305,21 @@
         <v>3</v>
       </c>
       <c r="J22" t="n">
-        <v>3</v>
-      </c>
-      <c r="K22" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="K22"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
-      <c r="N22"/>
-      <c r="O22"/>
+      <c r="N22" t="n">
+        <v>5</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1</v>
+      </c>
       <c r="P22" t="n">
         <v>1</v>
       </c>
@@ -2313,24 +2341,24 @@
         <v>1</v>
       </c>
       <c r="X22" t="s">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="Y22" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z22" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B23" t="s">
         <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D23"/>
       <c r="E23" t="s">
@@ -2346,22 +2374,20 @@
       <c r="I23" t="n">
         <v>3</v>
       </c>
-      <c r="J23" t="n">
-        <v>3</v>
-      </c>
+      <c r="J23"/>
       <c r="K23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>5</v>
-      </c>
-      <c r="N23"/>
-      <c r="O23" t="n">
-        <v>3</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N23" t="n">
+        <v>5</v>
+      </c>
+      <c r="O23"/>
       <c r="P23" t="n">
         <v>1</v>
       </c>
@@ -2383,24 +2409,24 @@
         <v>1</v>
       </c>
       <c r="X23" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="Y23" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="Z23" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="B24" t="s">
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D24"/>
       <c r="E24" t="s">
@@ -2416,22 +2442,18 @@
       <c r="I24" t="n">
         <v>5</v>
       </c>
-      <c r="J24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K24" t="n">
-        <v>5</v>
-      </c>
+      <c r="J24"/>
+      <c r="K24"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
-      <c r="N24"/>
-      <c r="O24" t="n">
-        <v>1</v>
-      </c>
+      <c r="N24" t="n">
+        <v>5</v>
+      </c>
+      <c r="O24"/>
       <c r="P24" t="n">
         <v>1</v>
       </c>
@@ -2453,24 +2475,24 @@
         <v>1</v>
       </c>
       <c r="X24" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="Y24" t="s">
         <v>34</v>
       </c>
       <c r="Z24" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="B25" t="s">
         <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D25"/>
       <c r="E25" t="s">
@@ -2487,7 +2509,7 @@
         <v>3</v>
       </c>
       <c r="J25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K25" t="n">
         <v>3</v>
@@ -2496,12 +2518,12 @@
         <v>5</v>
       </c>
       <c r="M25" t="n">
-        <v>5</v>
-      </c>
-      <c r="N25"/>
-      <c r="O25" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N25" t="n">
+        <v>5</v>
+      </c>
+      <c r="O25"/>
       <c r="P25" t="n">
         <v>1</v>
       </c>
@@ -2523,24 +2545,24 @@
         <v>1</v>
       </c>
       <c r="X25" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="Y25" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="Z25" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B26" t="s">
         <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D26"/>
       <c r="E26" t="s">
@@ -2556,19 +2578,17 @@
       <c r="I26" t="n">
         <v>5</v>
       </c>
-      <c r="J26" t="n">
-        <v>3</v>
-      </c>
-      <c r="K26" t="n">
-        <v>5</v>
-      </c>
+      <c r="J26"/>
+      <c r="K26"/>
       <c r="L26" t="n">
         <v>5</v>
       </c>
       <c r="M26" t="n">
-        <v>5</v>
-      </c>
-      <c r="N26"/>
+        <v>3</v>
+      </c>
+      <c r="N26" t="n">
+        <v>5</v>
+      </c>
       <c r="O26"/>
       <c r="P26" t="n">
         <v>1</v>
@@ -2591,24 +2611,24 @@
         <v>1</v>
       </c>
       <c r="X26" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="Y26" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Z26" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D27"/>
       <c r="E27" t="s">
@@ -2624,22 +2644,18 @@
       <c r="I27" t="n">
         <v>5</v>
       </c>
-      <c r="J27" t="n">
-        <v>1</v>
-      </c>
-      <c r="K27" t="n">
-        <v>3</v>
-      </c>
+      <c r="J27"/>
+      <c r="K27"/>
       <c r="L27" t="n">
         <v>5</v>
       </c>
       <c r="M27" t="n">
-        <v>5</v>
-      </c>
-      <c r="N27"/>
-      <c r="O27" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N27" t="n">
+        <v>5</v>
+      </c>
+      <c r="O27"/>
       <c r="P27" t="n">
         <v>1</v>
       </c>
@@ -2661,24 +2677,24 @@
         <v>1</v>
       </c>
       <c r="X27" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="Y27" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="Z27" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B28" t="s">
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D28"/>
       <c r="E28" t="s">
@@ -2695,21 +2711,19 @@
         <v>5</v>
       </c>
       <c r="J28" t="n">
-        <v>1</v>
-      </c>
-      <c r="K28" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="K28"/>
       <c r="L28" t="n">
         <v>5</v>
       </c>
       <c r="M28" t="n">
-        <v>5</v>
-      </c>
-      <c r="N28"/>
-      <c r="O28" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N28" t="n">
+        <v>5</v>
+      </c>
+      <c r="O28"/>
       <c r="P28" t="n">
         <v>1</v>
       </c>
@@ -2731,24 +2745,24 @@
         <v>1</v>
       </c>
       <c r="X28" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="Y28" t="s">
         <v>34</v>
       </c>
       <c r="Z28" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B29" t="s">
         <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D29"/>
       <c r="E29" t="s">
@@ -2765,18 +2779,18 @@
         <v>3</v>
       </c>
       <c r="J29" t="n">
-        <v>3</v>
-      </c>
-      <c r="K29" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="K29"/>
       <c r="L29" t="n">
         <v>3</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
-      <c r="N29"/>
+      <c r="N29" t="n">
+        <v>5</v>
+      </c>
       <c r="O29"/>
       <c r="P29" t="n">
         <v>3</v>
@@ -2799,24 +2813,24 @@
         <v>1</v>
       </c>
       <c r="X29" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="Y29" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="Z29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B30" t="s">
         <v>27</v>
       </c>
       <c r="C30" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D30"/>
       <c r="E30" t="s">
@@ -2832,9 +2846,11 @@
       <c r="I30" t="n">
         <v>5</v>
       </c>
-      <c r="J30"/>
+      <c r="J30" t="n">
+        <v>5</v>
+      </c>
       <c r="K30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L30" t="n">
         <v>5</v>
@@ -2842,9 +2858,11 @@
       <c r="M30" t="n">
         <v>5</v>
       </c>
-      <c r="N30"/>
+      <c r="N30" t="n">
+        <v>5</v>
+      </c>
       <c r="O30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P30" t="n">
         <v>1</v>
@@ -2867,24 +2885,24 @@
         <v>1</v>
       </c>
       <c r="X30" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="Y30" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="Z30" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B31" t="s">
         <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D31"/>
       <c r="E31" t="s">
@@ -2901,21 +2919,21 @@
         <v>5</v>
       </c>
       <c r="J31" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L31" t="n">
         <v>5</v>
       </c>
       <c r="M31" t="n">
-        <v>5</v>
-      </c>
-      <c r="N31"/>
-      <c r="O31" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N31" t="n">
+        <v>3</v>
+      </c>
+      <c r="O31"/>
       <c r="P31" t="n">
         <v>1</v>
       </c>
@@ -2937,24 +2955,24 @@
         <v>1</v>
       </c>
       <c r="X31" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="Y31" t="s">
-        <v>34</v>
+        <v>107</v>
       </c>
       <c r="Z31" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B32" t="s">
         <v>27</v>
       </c>
       <c r="C32" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D32"/>
       <c r="E32" t="s">
@@ -2971,21 +2989,21 @@
         <v>5</v>
       </c>
       <c r="J32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
       <c r="M32" t="n">
-        <v>5</v>
-      </c>
-      <c r="N32"/>
-      <c r="O32" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N32" t="n">
+        <v>5</v>
+      </c>
+      <c r="O32"/>
       <c r="P32" t="n">
         <v>1</v>
       </c>
@@ -3007,24 +3025,24 @@
         <v>1</v>
       </c>
       <c r="X32" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="Y32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z32" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B33" t="s">
         <v>27</v>
       </c>
       <c r="C33" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="D33"/>
       <c r="E33" t="s">
@@ -3041,18 +3059,18 @@
         <v>5</v>
       </c>
       <c r="J33" t="n">
-        <v>3</v>
-      </c>
-      <c r="K33" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="K33"/>
       <c r="L33" t="n">
         <v>3</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
-      <c r="N33"/>
+      <c r="N33" t="n">
+        <v>5</v>
+      </c>
       <c r="O33"/>
       <c r="P33" t="n">
         <v>1</v>
@@ -3075,24 +3093,24 @@
         <v>1</v>
       </c>
       <c r="X33" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="Y33" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="Z33" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B34" t="s">
         <v>27</v>
       </c>
       <c r="C34" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="D34"/>
       <c r="E34" t="s">
@@ -3109,18 +3127,18 @@
         <v>5</v>
       </c>
       <c r="J34" t="n">
-        <v>3</v>
-      </c>
-      <c r="K34" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="K34"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
-      <c r="N34"/>
+      <c r="N34" t="n">
+        <v>5</v>
+      </c>
       <c r="O34"/>
       <c r="P34" t="n">
         <v>1</v>
@@ -3143,24 +3161,24 @@
         <v>1</v>
       </c>
       <c r="X34" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Y34" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="Z34" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B35" t="s">
         <v>27</v>
       </c>
       <c r="C35" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="D35"/>
       <c r="E35" t="s">
@@ -3177,18 +3195,18 @@
         <v>5</v>
       </c>
       <c r="J35" t="n">
-        <v>1</v>
-      </c>
-      <c r="K35" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="K35"/>
       <c r="L35" t="n">
         <v>3</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
-      <c r="N35"/>
+      <c r="N35" t="n">
+        <v>5</v>
+      </c>
       <c r="O35"/>
       <c r="P35" t="n">
         <v>1</v>
@@ -3211,24 +3229,24 @@
         <v>1</v>
       </c>
       <c r="X35" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="Y35" t="s">
-        <v>11</v>
+        <v>115</v>
       </c>
       <c r="Z35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="B36" t="s">
         <v>27</v>
       </c>
       <c r="C36" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="D36"/>
       <c r="E36" t="s">
@@ -3247,19 +3265,17 @@
       <c r="J36" t="n">
         <v>3</v>
       </c>
-      <c r="K36" t="n">
-        <v>5</v>
-      </c>
+      <c r="K36"/>
       <c r="L36" t="n">
         <v>3</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
-      <c r="N36"/>
-      <c r="O36" t="n">
-        <v>3</v>
-      </c>
+      <c r="N36" t="n">
+        <v>5</v>
+      </c>
+      <c r="O36"/>
       <c r="P36" t="n">
         <v>1</v>
       </c>
@@ -3281,24 +3297,24 @@
         <v>1</v>
       </c>
       <c r="X36" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="Y36" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="Z36" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B37" t="s">
         <v>27</v>
       </c>
       <c r="C37" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="D37"/>
       <c r="E37" t="s">
@@ -3317,9 +3333,7 @@
       <c r="J37" t="n">
         <v>3</v>
       </c>
-      <c r="K37" t="n">
-        <v>5</v>
-      </c>
+      <c r="K37"/>
       <c r="L37" t="n">
         <v>3</v>
       </c>
@@ -3352,21 +3366,21 @@
         <v>34</v>
       </c>
       <c r="Y37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Z37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B38" t="s">
         <v>27</v>
       </c>
       <c r="C38" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="D38"/>
       <c r="E38" t="s">
@@ -3385,19 +3399,17 @@
       <c r="J38" t="n">
         <v>3</v>
       </c>
-      <c r="K38" t="n">
-        <v>5</v>
-      </c>
+      <c r="K38"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
-      <c r="N38"/>
-      <c r="O38" t="n">
-        <v>1</v>
-      </c>
+      <c r="N38" t="n">
+        <v>1</v>
+      </c>
+      <c r="O38"/>
       <c r="P38" t="n">
         <v>3</v>
       </c>
@@ -3419,24 +3431,24 @@
         <v>1</v>
       </c>
       <c r="X38" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="Y38" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="Z38" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="B39" t="s">
         <v>27</v>
       </c>
       <c r="C39" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="D39"/>
       <c r="E39" t="s">
@@ -3453,18 +3465,18 @@
         <v>5</v>
       </c>
       <c r="J39" t="n">
-        <v>3</v>
-      </c>
-      <c r="K39" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="K39"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
-      <c r="N39"/>
+      <c r="N39" t="n">
+        <v>3</v>
+      </c>
       <c r="O39"/>
       <c r="P39" t="n">
         <v>3</v>
@@ -3490,21 +3502,21 @@
         <v>11</v>
       </c>
       <c r="Y39" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="Z39" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="B40" t="s">
         <v>27</v>
       </c>
       <c r="C40" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D40"/>
       <c r="E40" t="s">
@@ -3521,16 +3533,18 @@
         <v>5</v>
       </c>
       <c r="J40" t="n">
-        <v>3</v>
-      </c>
-      <c r="K40" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="K40"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
-      <c r="M40"/>
-      <c r="N40"/>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="n">
+        <v>3</v>
+      </c>
       <c r="O40"/>
       <c r="P40" t="n">
         <v>1</v>
@@ -3553,24 +3567,24 @@
         <v>1</v>
       </c>
       <c r="X40" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Y40" t="s">
-        <v>9</v>
+        <v>124</v>
       </c>
       <c r="Z40" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="B41" t="s">
         <v>27</v>
       </c>
       <c r="C41" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D41"/>
       <c r="E41" t="s">
@@ -3587,18 +3601,18 @@
         <v>5</v>
       </c>
       <c r="J41" t="n">
-        <v>3</v>
-      </c>
-      <c r="K41" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="K41"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
       <c r="M41" t="n">
-        <v>5</v>
-      </c>
-      <c r="N41"/>
+        <v>3</v>
+      </c>
+      <c r="N41" t="n">
+        <v>5</v>
+      </c>
       <c r="O41"/>
       <c r="P41" t="n">
         <v>1</v>
@@ -3621,24 +3635,24 @@
         <v>1</v>
       </c>
       <c r="X41" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Y41" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Z41" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="B42" t="s">
         <v>27</v>
       </c>
       <c r="C42" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D42"/>
       <c r="E42" t="s">
@@ -3657,19 +3671,17 @@
       <c r="J42" t="n">
         <v>3</v>
       </c>
-      <c r="K42" t="n">
-        <v>5</v>
-      </c>
+      <c r="K42"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
       <c r="M42" t="n">
-        <v>5</v>
-      </c>
-      <c r="N42"/>
-      <c r="O42" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N42" t="n">
+        <v>5</v>
+      </c>
+      <c r="O42"/>
       <c r="P42" t="n">
         <v>1</v>
       </c>
@@ -3691,24 +3703,24 @@
         <v>1</v>
       </c>
       <c r="X42" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="Y42" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
       <c r="Z42" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="B43" t="s">
         <v>27</v>
       </c>
       <c r="C43" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D43"/>
       <c r="E43" t="s">
@@ -3724,22 +3736,18 @@
       <c r="I43" t="n">
         <v>5</v>
       </c>
-      <c r="J43" t="n">
-        <v>3</v>
-      </c>
-      <c r="K43" t="n">
-        <v>5</v>
-      </c>
+      <c r="J43"/>
+      <c r="K43"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
-      <c r="N43"/>
-      <c r="O43" t="n">
-        <v>3</v>
-      </c>
+      <c r="N43" t="n">
+        <v>5</v>
+      </c>
+      <c r="O43"/>
       <c r="P43" t="n">
         <v>1</v>
       </c>
@@ -3761,24 +3769,24 @@
         <v>1</v>
       </c>
       <c r="X43" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Y43" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="Z43" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="B44" t="s">
         <v>27</v>
       </c>
       <c r="C44" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D44"/>
       <c r="E44" t="s">
@@ -3794,19 +3802,17 @@
       <c r="I44" t="n">
         <v>5</v>
       </c>
-      <c r="J44" t="n">
-        <v>3</v>
-      </c>
-      <c r="K44" t="n">
-        <v>5</v>
-      </c>
+      <c r="J44"/>
+      <c r="K44"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
-      <c r="N44"/>
+      <c r="N44" t="n">
+        <v>3</v>
+      </c>
       <c r="O44"/>
       <c r="P44" t="n">
         <v>1</v>
@@ -3829,24 +3835,24 @@
         <v>1</v>
       </c>
       <c r="X44" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Y44" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Z44" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="B45" t="s">
         <v>27</v>
       </c>
       <c r="C45" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D45"/>
       <c r="E45" t="s">
@@ -3865,19 +3871,17 @@
       <c r="J45" t="n">
         <v>3</v>
       </c>
-      <c r="K45" t="n">
-        <v>5</v>
-      </c>
+      <c r="K45"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
       <c r="M45" t="n">
-        <v>5</v>
-      </c>
-      <c r="N45"/>
-      <c r="O45" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N45" t="n">
+        <v>5</v>
+      </c>
+      <c r="O45"/>
       <c r="P45" t="n">
         <v>1</v>
       </c>
@@ -3899,24 +3903,24 @@
         <v>1</v>
       </c>
       <c r="X45" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="Y45" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
       <c r="Z45" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="B46" t="s">
         <v>27</v>
       </c>
       <c r="C46" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D46"/>
       <c r="E46" t="s">
@@ -3933,10 +3937,10 @@
         <v>5</v>
       </c>
       <c r="J46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L46" t="n">
         <v>1</v>
@@ -3944,10 +3948,10 @@
       <c r="M46" t="n">
         <v>5</v>
       </c>
-      <c r="N46"/>
-      <c r="O46" t="n">
-        <v>3</v>
-      </c>
+      <c r="N46" t="n">
+        <v>5</v>
+      </c>
+      <c r="O46"/>
       <c r="P46" t="n">
         <v>1</v>
       </c>
@@ -3969,24 +3973,24 @@
         <v>1</v>
       </c>
       <c r="X46" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Y46" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="Z46" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="B47" t="s">
         <v>27</v>
       </c>
       <c r="C47" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D47"/>
       <c r="E47" t="s">
@@ -4003,18 +4007,20 @@
         <v>5</v>
       </c>
       <c r="J47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
       <c r="M47" t="n">
-        <v>5</v>
-      </c>
-      <c r="N47"/>
+        <v>3</v>
+      </c>
+      <c r="N47" t="n">
+        <v>5</v>
+      </c>
       <c r="O47"/>
       <c r="P47" t="n">
         <v>1</v>
@@ -4037,24 +4043,24 @@
         <v>1</v>
       </c>
       <c r="X47" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Y47" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="Z47" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="B48" t="s">
         <v>27</v>
       </c>
       <c r="C48" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="D48"/>
       <c r="E48" t="s">
@@ -4070,11 +4076,9 @@
       <c r="I48" t="n">
         <v>5</v>
       </c>
-      <c r="J48" t="n">
-        <v>3</v>
-      </c>
+      <c r="J48"/>
       <c r="K48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L48" t="n">
         <v>1</v>
@@ -4082,10 +4086,10 @@
       <c r="M48" t="n">
         <v>5</v>
       </c>
-      <c r="N48"/>
-      <c r="O48" t="n">
-        <v>1</v>
-      </c>
+      <c r="N48" t="n">
+        <v>5</v>
+      </c>
+      <c r="O48"/>
       <c r="P48" t="n">
         <v>1</v>
       </c>
@@ -4107,24 +4111,24 @@
         <v>1</v>
       </c>
       <c r="X48" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z48" t="s">
         <v>33</v>
-      </c>
-      <c r="Y48" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z48" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="B49" t="s">
         <v>27</v>
       </c>
       <c r="C49" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="D49"/>
       <c r="E49" t="s">
@@ -4140,19 +4144,17 @@
       <c r="I49" t="n">
         <v>5</v>
       </c>
-      <c r="J49" t="n">
-        <v>3</v>
-      </c>
-      <c r="K49" t="n">
-        <v>3</v>
-      </c>
+      <c r="J49"/>
+      <c r="K49"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
-      <c r="N49"/>
+      <c r="N49" t="n">
+        <v>5</v>
+      </c>
       <c r="O49"/>
       <c r="P49" t="n">
         <v>3</v>
@@ -4175,24 +4177,24 @@
         <v>1</v>
       </c>
       <c r="X49" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="Y49" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="Z49" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="B50" t="s">
         <v>27</v>
       </c>
       <c r="C50" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="D50"/>
       <c r="E50" t="s">
@@ -4208,19 +4210,17 @@
       <c r="I50" t="n">
         <v>5</v>
       </c>
-      <c r="J50" t="n">
-        <v>3</v>
-      </c>
-      <c r="K50" t="n">
-        <v>5</v>
-      </c>
+      <c r="J50"/>
+      <c r="K50"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
-      <c r="N50"/>
+      <c r="N50" t="n">
+        <v>5</v>
+      </c>
       <c r="O50"/>
       <c r="P50" t="n">
         <v>1</v>
@@ -4243,24 +4243,24 @@
         <v>1</v>
       </c>
       <c r="X50" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Y50" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="Z50" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="B51" t="s">
         <v>27</v>
       </c>
       <c r="C51" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="D51"/>
       <c r="E51" t="s">
@@ -4277,21 +4277,19 @@
         <v>5</v>
       </c>
       <c r="J51" t="n">
-        <v>3</v>
-      </c>
-      <c r="K51" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="K51"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
-      <c r="N51"/>
-      <c r="O51" t="n">
-        <v>3</v>
-      </c>
+      <c r="N51" t="n">
+        <v>5</v>
+      </c>
+      <c r="O51"/>
       <c r="P51" t="n">
         <v>1</v>
       </c>
@@ -4313,24 +4311,24 @@
         <v>1</v>
       </c>
       <c r="X51" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Y51" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="Z51" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="B52" t="s">
         <v>27</v>
       </c>
       <c r="C52" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="D52"/>
       <c r="E52" t="s">
@@ -4347,7 +4345,7 @@
         <v>5</v>
       </c>
       <c r="J52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K52" t="n">
         <v>3</v>
@@ -4358,7 +4356,9 @@
       <c r="M52" t="n">
         <v>5</v>
       </c>
-      <c r="N52"/>
+      <c r="N52" t="n">
+        <v>5</v>
+      </c>
       <c r="O52"/>
       <c r="P52" t="n">
         <v>1</v>
@@ -4381,24 +4381,24 @@
         <v>1</v>
       </c>
       <c r="X52" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Y52" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="Z52" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="B53" t="s">
         <v>27</v>
       </c>
       <c r="C53" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="D53"/>
       <c r="E53" t="s">
@@ -4415,10 +4415,10 @@
         <v>5</v>
       </c>
       <c r="J53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L53" t="n">
         <v>1</v>
@@ -4426,10 +4426,10 @@
       <c r="M53" t="n">
         <v>5</v>
       </c>
-      <c r="N53"/>
-      <c r="O53" t="n">
-        <v>3</v>
-      </c>
+      <c r="N53" t="n">
+        <v>3</v>
+      </c>
+      <c r="O53"/>
       <c r="P53" t="n">
         <v>1</v>
       </c>
@@ -4451,24 +4451,24 @@
         <v>1</v>
       </c>
       <c r="X53" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Y53" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="Z53" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="B54" t="s">
         <v>27</v>
       </c>
       <c r="C54" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="D54"/>
       <c r="E54" t="s">
@@ -4485,10 +4485,10 @@
         <v>5</v>
       </c>
       <c r="J54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L54" t="n">
         <v>1</v>
@@ -4496,7 +4496,9 @@
       <c r="M54" t="n">
         <v>5</v>
       </c>
-      <c r="N54"/>
+      <c r="N54" t="n">
+        <v>5</v>
+      </c>
       <c r="O54"/>
       <c r="P54" t="n">
         <v>1</v>
@@ -4519,24 +4521,24 @@
         <v>3</v>
       </c>
       <c r="X54" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Y54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z54" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="B55" t="s">
         <v>27</v>
       </c>
       <c r="C55" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="D55"/>
       <c r="E55" t="s">
@@ -4553,18 +4555,18 @@
         <v>5</v>
       </c>
       <c r="J55" t="n">
-        <v>3</v>
-      </c>
-      <c r="K55" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="K55"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
-      <c r="N55"/>
+      <c r="N55" t="n">
+        <v>5</v>
+      </c>
       <c r="O55"/>
       <c r="P55" t="n">
         <v>1</v>
@@ -4587,24 +4589,24 @@
         <v>1</v>
       </c>
       <c r="X55" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Y55" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="Z55" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="B56" t="s">
         <v>27</v>
       </c>
       <c r="C56" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="D56"/>
       <c r="E56" t="s">
@@ -4620,9 +4622,7 @@
       <c r="I56" t="n">
         <v>5</v>
       </c>
-      <c r="J56" t="n">
-        <v>3</v>
-      </c>
+      <c r="J56"/>
       <c r="K56" t="n">
         <v>3</v>
       </c>
@@ -4632,7 +4632,9 @@
       <c r="M56" t="n">
         <v>5</v>
       </c>
-      <c r="N56"/>
+      <c r="N56" t="n">
+        <v>5</v>
+      </c>
       <c r="O56"/>
       <c r="P56" t="n">
         <v>1</v>
@@ -4655,24 +4657,24 @@
         <v>1</v>
       </c>
       <c r="X56" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Y56" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="Z56" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="B57" t="s">
         <v>27</v>
       </c>
       <c r="C57" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="D57"/>
       <c r="E57" t="s">
@@ -4689,7 +4691,7 @@
         <v>5</v>
       </c>
       <c r="J57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K57" t="n">
         <v>3</v>
@@ -4700,7 +4702,9 @@
       <c r="M57" t="n">
         <v>5</v>
       </c>
-      <c r="N57"/>
+      <c r="N57" t="n">
+        <v>5</v>
+      </c>
       <c r="O57"/>
       <c r="P57" t="n">
         <v>1</v>
@@ -4723,24 +4727,24 @@
         <v>3</v>
       </c>
       <c r="X57" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Y57" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="Z57" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="B58" t="s">
         <v>27</v>
       </c>
       <c r="C58" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="D58"/>
       <c r="E58" t="s">
@@ -4756,22 +4760,20 @@
       <c r="I58" t="n">
         <v>5</v>
       </c>
-      <c r="J58" t="n">
-        <v>1</v>
-      </c>
+      <c r="J58"/>
       <c r="K58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
       <c r="M58" t="n">
-        <v>5</v>
-      </c>
-      <c r="N58"/>
-      <c r="O58" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N58" t="n">
+        <v>5</v>
+      </c>
+      <c r="O58"/>
       <c r="P58" t="n">
         <v>1</v>
       </c>
@@ -4793,24 +4795,24 @@
         <v>1</v>
       </c>
       <c r="X58" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="Y58" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="Z58" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="B59" t="s">
         <v>27</v>
       </c>
       <c r="C59" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="D59"/>
       <c r="E59" t="s">
@@ -4826,9 +4828,7 @@
       <c r="I59" t="n">
         <v>5</v>
       </c>
-      <c r="J59" t="n">
-        <v>1</v>
-      </c>
+      <c r="J59"/>
       <c r="K59" t="n">
         <v>3</v>
       </c>
@@ -4836,12 +4836,10 @@
         <v>1</v>
       </c>
       <c r="M59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N59"/>
-      <c r="O59" t="n">
-        <v>1</v>
-      </c>
+      <c r="O59"/>
       <c r="P59" t="n">
         <v>1</v>
       </c>
@@ -4863,24 +4861,24 @@
         <v>1</v>
       </c>
       <c r="X59" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="Y59" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="Z59" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="B60" t="s">
         <v>27</v>
       </c>
       <c r="C60" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="D60"/>
       <c r="E60" t="s">
@@ -4897,18 +4895,18 @@
         <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>3</v>
-      </c>
-      <c r="K60" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="K60"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
       <c r="M60" t="n">
-        <v>5</v>
-      </c>
-      <c r="N60"/>
+        <v>1</v>
+      </c>
+      <c r="N60" t="n">
+        <v>5</v>
+      </c>
       <c r="O60"/>
       <c r="P60" t="n">
         <v>1</v>
@@ -4931,24 +4929,24 @@
         <v>1</v>
       </c>
       <c r="X60" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="Y60" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="Z60" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="B61" t="s">
         <v>27</v>
       </c>
       <c r="C61" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="D61"/>
       <c r="E61" t="s">
@@ -4965,21 +4963,19 @@
         <v>5</v>
       </c>
       <c r="J61" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
       <c r="M61" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N61"/>
-      <c r="O61" t="n">
-        <v>1</v>
-      </c>
+      <c r="O61"/>
       <c r="P61" t="n">
         <v>1</v>
       </c>
@@ -5004,21 +5000,21 @@
         <v>63</v>
       </c>
       <c r="Y61" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="Z61" t="s">
-        <v>63</v>
+        <v>153</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="B62" t="s">
         <v>27</v>
       </c>
       <c r="C62" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="D62"/>
       <c r="E62" t="s">
@@ -5034,11 +5030,9 @@
       <c r="I62" t="n">
         <v>5</v>
       </c>
-      <c r="J62" t="n">
-        <v>3</v>
-      </c>
+      <c r="J62"/>
       <c r="K62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L62" t="n">
         <v>1</v>
@@ -5046,7 +5040,9 @@
       <c r="M62" t="n">
         <v>5</v>
       </c>
-      <c r="N62"/>
+      <c r="N62" t="n">
+        <v>3</v>
+      </c>
       <c r="O62"/>
       <c r="P62" t="n">
         <v>1</v>
@@ -5069,24 +5065,24 @@
         <v>1</v>
       </c>
       <c r="X62" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Y62" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="Z62" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="B63" t="s">
         <v>27</v>
       </c>
       <c r="C63" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="D63"/>
       <c r="E63" t="s">
@@ -5103,18 +5099,18 @@
         <v>3</v>
       </c>
       <c r="J63" t="n">
-        <v>3</v>
-      </c>
-      <c r="K63" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="K63"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
-      <c r="N63"/>
+      <c r="N63" t="n">
+        <v>5</v>
+      </c>
       <c r="O63"/>
       <c r="P63" t="n">
         <v>1</v>
@@ -5137,28 +5133,28 @@
         <v>1</v>
       </c>
       <c r="X63" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="Y63" t="s">
         <v>38</v>
       </c>
       <c r="Z63" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="B64" t="s">
         <v>27</v>
       </c>
       <c r="C64" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="D64"/>
       <c r="E64" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="F64"/>
       <c r="G64" t="n">
@@ -5171,10 +5167,10 @@
         <v>5</v>
       </c>
       <c r="J64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L64" t="n">
         <v>3</v>
@@ -5182,10 +5178,10 @@
       <c r="M64" t="n">
         <v>5</v>
       </c>
-      <c r="N64"/>
-      <c r="O64" t="n">
-        <v>3</v>
-      </c>
+      <c r="N64" t="n">
+        <v>5</v>
+      </c>
+      <c r="O64"/>
       <c r="P64" t="n">
         <v>1</v>
       </c>
@@ -5207,24 +5203,24 @@
         <v>1</v>
       </c>
       <c r="X64" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="Y64" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="Z64" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="B65" t="s">
         <v>27</v>
       </c>
       <c r="C65" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="D65"/>
       <c r="E65" t="s">
@@ -5240,11 +5236,9 @@
       <c r="I65" t="n">
         <v>5</v>
       </c>
-      <c r="J65" t="n">
-        <v>3</v>
-      </c>
+      <c r="J65"/>
       <c r="K65" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L65" t="n">
         <v>1</v>
@@ -5252,10 +5246,10 @@
       <c r="M65" t="n">
         <v>5</v>
       </c>
-      <c r="N65"/>
-      <c r="O65" t="n">
-        <v>3</v>
-      </c>
+      <c r="N65" t="n">
+        <v>1</v>
+      </c>
+      <c r="O65"/>
       <c r="P65" t="n">
         <v>1</v>
       </c>
@@ -5277,24 +5271,24 @@
         <v>1</v>
       </c>
       <c r="X65" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="Y65" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="Z65" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="B66" t="s">
         <v>27</v>
       </c>
       <c r="C66" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D66"/>
       <c r="E66" t="s">
@@ -5310,12 +5304,8 @@
       <c r="I66" t="n">
         <v>5</v>
       </c>
-      <c r="J66" t="n">
-        <v>3</v>
-      </c>
-      <c r="K66" t="n">
-        <v>5</v>
-      </c>
+      <c r="J66"/>
+      <c r="K66"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -5345,24 +5335,24 @@
         <v>1</v>
       </c>
       <c r="X66" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Y66" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="Z66" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="B67" t="s">
         <v>27</v>
       </c>
       <c r="C67" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="D67"/>
       <c r="E67" t="s">
@@ -5379,11 +5369,9 @@
         <v>5</v>
       </c>
       <c r="J67" t="n">
-        <v>3</v>
-      </c>
-      <c r="K67" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="K67"/>
       <c r="L67" t="n">
         <v>3</v>
       </c>
@@ -5391,9 +5379,7 @@
         <v>5</v>
       </c>
       <c r="N67"/>
-      <c r="O67" t="n">
-        <v>1</v>
-      </c>
+      <c r="O67"/>
       <c r="P67" t="n">
         <v>3</v>
       </c>
@@ -5415,13 +5401,13 @@
         <v>1</v>
       </c>
       <c r="X67" t="s">
-        <v>150</v>
+        <v>34</v>
       </c>
       <c r="Y67" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="Z67" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Steelhead_Habitat_Quality_RESTORATION_Okanogan.xlsx
+++ b/Output/Steelhead_Habitat_Quality_RESTORATION_Okanogan.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="178">
   <si>
     <t xml:space="preserve">ReachName</t>
   </si>
@@ -107,342 +107,384 @@
     <t xml:space="preserve">BankStability_score,ChannelStability_score,Stability_Mean,Flow-SummerBaseFlow_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
   </si>
   <si>
-    <t xml:space="preserve">BankStability_score,ChannelStability_score,Stability_Mean,CoarseSubstrate_score,Flow-SummerBaseFlow_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
+    <t xml:space="preserve">CoarseSubstrate_score,Cover-Wood_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability_score,ChannelStability_score,Stability_Mean,CoarseSubstrate_score,Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
   </si>
   <si>
     <t xml:space="preserve">Aeneas 16-2</t>
   </si>
   <si>
+    <t xml:space="preserve">Cover-Wood_score,Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Antoine 16-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antoine Creek-Lower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability_score,ChannelStability_score,Stability_Mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability_score,ChannelStability_score,Stability_Mean,Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antoine 16-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antoine 16-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flow-SummerBaseFlow_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antoine 16-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flow-SummerBaseFlow_score,Off-Channel/Side-Channels_score,PoolQuantity&amp;Quality_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antoine 16-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CoarseSubstrate_score,Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bonaparte 16-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bonaparte Creek-Lower DS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover-Wood_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability_score,ChannelStability_score,Stability_Mean,Flow-SummerBaseFlow_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability_score,ChannelStability_score,Stability_Mean,Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johnson 16-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johnson Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability_score,ChannelStability_score,Stability_Mean,Cover-Wood_score,Flow-SummerBaseFlow_score,FloodplainConnectivity_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability_score,ChannelStability_score,Stability_Mean,Cover-Wood_score,Flow-SummerBaseFlow_score,FloodplainConnectivity_score,Off-Channel/Side-Channels_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loup Loup 16-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loup Loup Creek-Lower DS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability_score,ChannelStability_score,Stability_Mean,Flow-SummerBaseFlow_score,FloodplainConnectivity_score,PoolQuantity&amp;Quality_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loup Loup 16-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loup Loup 16-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CoarseSubstrate_score,Off-Channel/Side-Channels_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CoarseSubstrate_score,Flow-SummerBaseFlow_score,Off-Channel/Side-Channels_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ninemile 16-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ninemile Creek DS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flow-SummerBaseFlow_score,FloodplainConnectivity_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover-Wood_score,Off-Channel/Side-Channels_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover-Wood_score,Flow-SummerBaseFlow_score,FloodplainConnectivity_score,Off-Channel/Side-Channels_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ninemile 16-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover-Wood_score,Flow-SummerBaseFlow_score,Off-Channel/Side-Channels_score,PoolQuantity&amp;Quality_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ninemile 16-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CoarseSubstrate_score,Cover-Wood_score,Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okanogan 16-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okanogan-Talant Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PoolQuantity&amp;Quality_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover-Wood_score,Flow-SummerBaseFlow_score,FloodplainConnectivity_score,Off-Channel/Side-Channels_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover-Wood_score,Flow-SummerBaseFlow_score,FloodplainConnectivity_score,Off-Channel/Side-Channels_score,PoolQuantity&amp;Quality_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okanogan 16-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okanogan-Swipkin Canyon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flow-SummerBaseFlow_score,FloodplainConnectivity_score,PoolQuantity&amp;Quality_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover-Wood_score,Flow-SummerBaseFlow_score,FloodplainConnectivity_score,PoolQuantity&amp;Quality_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okanogan 16-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okanogan 16-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okanogan 16-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okanogan-Alkali Lake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability_score,ChannelStability_score,Stability_Mean,PoolQuantity&amp;Quality_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover-Wood_score,Flow-SummerBaseFlow_score,FloodplainConnectivity_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability_score,ChannelStability_score,Stability_Mean,Cover-Wood_score,Flow-SummerBaseFlow_score,FloodplainConnectivity_score,PoolQuantity&amp;Quality_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okanogan 16-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okanogan-Whitestone Coulee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability_score,ChannelStability_score,Stability_Mean,Cover-Wood_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability_score,ChannelStability_score,Stability_Mean,Cover-Wood_score,Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okanogan 16-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability_score,ChannelStability_score,Stability_Mean,Cover-Wood_score,FloodplainConnectivity_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okanogan 16-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okanogan 16-32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FloodplainConnectivity_score,PoolQuantity&amp;Quality_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability_score,ChannelStability_score,Stability_Mean,Cover-Wood_score,FloodplainConnectivity_score,PoolQuantity&amp;Quality_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okanogan 16-39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okanogan-Mosquito Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover-Wood_score,FloodplainConnectivity_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover-Wood_score,FloodplainConnectivity_score,PoolQuantity&amp;Quality_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okanogan 16-40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okanogan 16-41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okanogan 16-43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okanogan-Haynes Creek South</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PoolQuantity&amp;Quality_score,Temperature-Rearing_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankStability_score,ChannelStability_score,Stability_Mean,Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-CanopyCover_score,Riparian_Mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okanogan 16-44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover-Wood_score,PoolQuantity&amp;Quality_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okanogan 16-45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover-Wood_score,FloodplainConnectivity_score,Off-Channel/Side-Channels_score,PoolQuantity&amp;Quality_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omak 16-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omak Creek-Lower US</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omak 16-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omak Creek-Middle DS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover-Wood_score,Flow-SummerBaseFlow_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omak 16-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omak 16-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CoarseSubstrate_score,Cover-Wood_score,Flow-SummerBaseFlow_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CoarseSubstrate_score,Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omak 16-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omak Creek-Upper DS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CoarseSubstrate_score,Flow-SummerBaseFlow_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omak 16-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CoarseSubstrate_score,Flow-SummerBaseFlow_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omak 16-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flow-SummerBaseFlow_score,Off-Channel/Side-Channels_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CoarseSubstrate_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omak 16-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Off-Channel/Side-Channels_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omak 16-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover-Wood_score,FloodplainConnectivity_score,Off-Channel/Side-Channels_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omak 16-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omak 16-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CoarseSubstrate_score,FloodplainConnectivity_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CoarseSubstrate_score,Flow-SummerBaseFlow_score,FloodplainConnectivity_score,PoolQuantity&amp;Quality_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omak 16-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omak 16-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omak 16-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CoarseSubstrate_score,Cover-Wood_score,FloodplainConnectivity_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CoarseSubstrate_score,Cover-Wood_score,Flow-SummerBaseFlow_score,FloodplainConnectivity_score,PoolQuantity&amp;Quality_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omak 16-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omak 16-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover-Wood_score,Flow-SummerBaseFlow_score,FloodplainConnectivity_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salmon 16-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salmon Creek-Lower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salmon 16-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flow-SummerBaseFlow_score,Temperature-Rearing_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riparian-CanopyCover_score,Riparian_Mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salmon 16-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salmon 16-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salmon 16-4</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
   </si>
   <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Antoine 16-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antoine Creek-Lower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flow-SummerBaseFlow_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability_score,ChannelStability_score,Stability_Mean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antoine 16-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antoine 16-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antoine 16-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flow-SummerBaseFlow_score,Off-Channel/Side-Channels_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antoine 16-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CoarseSubstrate_score,Flow-SummerBaseFlow_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bonaparte 16-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bonaparte Creek-Lower DS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover-Wood_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability_score,ChannelStability_score,Stability_Mean,Flow-SummerBaseFlow_score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability_score,ChannelStability_score,Stability_Mean,Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Johnson 16-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Johnson Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability_score,ChannelStability_score,Stability_Mean,Cover-Wood_score,Flow-SummerBaseFlow_score,FloodplainConnectivity_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability_score,ChannelStability_score,Stability_Mean,Cover-Wood_score,Flow-SummerBaseFlow_score,FloodplainConnectivity_score,Off-Channel/Side-Channels_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loup Loup 16-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loup Loup Creek-Lower DS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability_score,ChannelStability_score,Stability_Mean,Flow-SummerBaseFlow_score,FloodplainConnectivity_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loup Loup 16-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loup Loup 16-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CoarseSubstrate_score,Off-Channel/Side-Channels_score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CoarseSubstrate_score,Flow-SummerBaseFlow_score,Off-Channel/Side-Channels_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ninemile 16-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ninemile Creek DS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flow-SummerBaseFlow_score,FloodplainConnectivity_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover-Wood_score,Off-Channel/Side-Channels_score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover-Wood_score,Flow-SummerBaseFlow_score,FloodplainConnectivity_score,Off-Channel/Side-Channels_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ninemile 16-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover-Wood_score,Flow-SummerBaseFlow_score,Off-Channel/Side-Channels_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ninemile 16-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CoarseSubstrate_score,Cover-Wood_score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CoarseSubstrate_score,Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Okanogan 16-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Okanogan-Talant Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flow-SummerBaseFlow_score,Off-Channel/Side-Channels_score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Okanogan 16-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Okanogan-Swipkin Canyon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover-Wood_score,FloodplainConnectivity_score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover-Wood_score,Flow-SummerBaseFlow_score,FloodplainConnectivity_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Okanogan 16-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Okanogan 16-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Okanogan 16-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Okanogan-Alkali Lake</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability_score,ChannelStability_score,Stability_Mean,PoolQuantity&amp;Quality_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover-Wood_score,Flow-SummerBaseFlow_score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability_score,ChannelStability_score,Stability_Mean,Cover-Wood_score,Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Okanogan 16-29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Okanogan-Whitestone Coulee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability_score,ChannelStability_score,Stability_Mean,Flow-SummerBaseFlow_score,PoolQuantity&amp;Quality_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Okanogan 16-30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability_score,ChannelStability_score,Stability_Mean,Cover-Wood_score,FloodplainConnectivity_score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Okanogan 16-31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Okanogan 16-32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability_score,ChannelStability_score,Stability_Mean,Cover-Wood_score,FloodplainConnectivity_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Okanogan 16-39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Okanogan-Mosquito Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FloodplainConnectivity_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Okanogan 16-40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Okanogan 16-41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Okanogan 16-43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Okanogan-Haynes Creek South</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability_score,ChannelStability_score,Stability_Mean,Flow-SummerBaseFlow_score,Riparian-CanopyCover_score,Riparian_Mean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Okanogan 16-44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PoolQuantity&amp;Quality_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover-Wood_score,PoolQuantity&amp;Quality_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Okanogan 16-45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover-Wood_score,FloodplainConnectivity_score,Off-Channel/Side-Channels_score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover-Wood_score,FloodplainConnectivity_score,Off-Channel/Side-Channels_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Omak 16-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Omak Creek-Lower US</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Omak 16-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Omak Creek-Middle DS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Omak 16-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Omak 16-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CoarseSubstrate_score,Flow-SummerBaseFlow_score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Omak 16-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Omak Creek-Upper DS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Omak 16-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Omak 16-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CoarseSubstrate_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Omak 16-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Off-Channel/Side-Channels_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Omak 16-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FloodplainConnectivity_score,Off-Channel/Side-Channels_score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flow-SummerBaseFlow_score,FloodplainConnectivity_score,Off-Channel/Side-Channels_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Omak 16-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Omak 16-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CoarseSubstrate_score,FloodplainConnectivity_score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CoarseSubstrate_score,Flow-SummerBaseFlow_score,FloodplainConnectivity_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Omak 16-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Omak 16-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Omak 16-7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Omak 16-8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Omak 16-9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salmon 16-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salmon Creek-Lower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salmon 16-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flow-SummerBaseFlow_score,Temperature-Rearing_score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Riparian-CanopyCover_score,Riparian_Mean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salmon 16-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salmon 16-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salmon 16-4</t>
-  </si>
-  <si>
     <t xml:space="preserve">Salmon 16-5</t>
   </si>
   <si>
@@ -473,9 +515,6 @@
     <t xml:space="preserve">Similkameen 16-4</t>
   </si>
   <si>
-    <t xml:space="preserve">CoarseSubstrate_score,Cover-Wood_score,Flow-SummerBaseFlow_score,FloodplainConnectivity_score,Riparian-CanopyCover_score,Riparian_Mean,Temperature-Rearing_score</t>
-  </si>
-  <si>
     <t xml:space="preserve">Similkameen 16-5</t>
   </si>
   <si>
@@ -494,7 +533,7 @@
     <t xml:space="preserve">Swimptkin 16-1</t>
   </si>
   <si>
-    <t xml:space="preserve">Flow-SummerBaseFlow_score,Off-Channel/Side-Channels_score,Riparian-CanopyCover_score,Riparian_Mean</t>
+    <t xml:space="preserve">Flow-SummerBaseFlow_score,Off-Channel/Side-Channels_score,PoolQuantity&amp;Quality_score,Riparian-CanopyCover_score,Riparian_Mean</t>
   </si>
   <si>
     <t xml:space="preserve">Cover-Wood_score,Temperature-Rearing_score</t>
@@ -945,7 +984,9 @@
       <c r="J2" t="n">
         <v>3</v>
       </c>
-      <c r="K2"/>
+      <c r="K2" t="n">
+        <v>3</v>
+      </c>
       <c r="L2" t="n">
         <v>1</v>
       </c>
@@ -955,7 +996,9 @@
       <c r="N2" t="n">
         <v>5</v>
       </c>
-      <c r="O2"/>
+      <c r="O2" t="n">
+        <v>5</v>
+      </c>
       <c r="P2" t="n">
         <v>1</v>
       </c>
@@ -980,15 +1023,15 @@
         <v>30</v>
       </c>
       <c r="Y2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="Z2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
         <v>27</v>
@@ -1021,7 +1064,9 @@
         <v>5</v>
       </c>
       <c r="N3"/>
-      <c r="O3"/>
+      <c r="O3" t="n">
+        <v>1</v>
+      </c>
       <c r="P3" t="n">
         <v>1</v>
       </c>
@@ -1043,24 +1088,24 @@
         <v>1</v>
       </c>
       <c r="X3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Y3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z3" t="s">
         <v>34</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4"/>
       <c r="E4" t="s">
@@ -1089,7 +1134,9 @@
       <c r="N4" t="n">
         <v>5</v>
       </c>
-      <c r="O4"/>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
       <c r="P4" t="n">
         <v>1</v>
       </c>
@@ -1111,24 +1158,24 @@
         <v>1</v>
       </c>
       <c r="X4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z4" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
         <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D5"/>
       <c r="E5" t="s">
@@ -1157,7 +1204,9 @@
         <v>5</v>
       </c>
       <c r="N5"/>
-      <c r="O5"/>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
       <c r="P5" t="n">
         <v>1</v>
       </c>
@@ -1179,24 +1228,24 @@
         <v>1</v>
       </c>
       <c r="X5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Y5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z5" t="s">
         <v>34</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D6"/>
       <c r="E6" t="s">
@@ -1245,24 +1294,24 @@
         <v>1</v>
       </c>
       <c r="X6" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="Y6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Z6" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
         <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D7"/>
       <c r="E7" t="s">
@@ -1289,7 +1338,9 @@
       <c r="N7" t="n">
         <v>1</v>
       </c>
-      <c r="O7"/>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
       <c r="P7" t="n">
         <v>1</v>
       </c>
@@ -1311,24 +1362,24 @@
         <v>1</v>
       </c>
       <c r="X7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="Y7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Z7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
         <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D8"/>
       <c r="E8" t="s">
@@ -1357,7 +1408,9 @@
       <c r="N8" t="n">
         <v>5</v>
       </c>
-      <c r="O8"/>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
       <c r="P8" t="n">
         <v>1</v>
       </c>
@@ -1379,24 +1432,24 @@
         <v>1</v>
       </c>
       <c r="X8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y8" t="s">
         <v>9</v>
       </c>
       <c r="Z8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D9"/>
       <c r="E9" t="s">
@@ -1425,7 +1478,9 @@
       <c r="N9" t="n">
         <v>5</v>
       </c>
-      <c r="O9"/>
+      <c r="O9" t="n">
+        <v>5</v>
+      </c>
       <c r="P9" t="n">
         <v>1</v>
       </c>
@@ -1447,24 +1502,24 @@
         <v>1</v>
       </c>
       <c r="X9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Y9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="Z9" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
         <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D10"/>
       <c r="E10" t="s">
@@ -1493,7 +1548,9 @@
       <c r="N10" t="n">
         <v>3</v>
       </c>
-      <c r="O10"/>
+      <c r="O10" t="n">
+        <v>5</v>
+      </c>
       <c r="P10" t="n">
         <v>1</v>
       </c>
@@ -1515,24 +1572,24 @@
         <v>1</v>
       </c>
       <c r="X10" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="Y10" t="s">
         <v>13</v>
       </c>
       <c r="Z10" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s">
         <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D11"/>
       <c r="E11" t="s">
@@ -1556,12 +1613,14 @@
         <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N11" t="n">
         <v>5</v>
       </c>
-      <c r="O11"/>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
       <c r="P11" t="n">
         <v>1</v>
       </c>
@@ -1583,24 +1642,24 @@
         <v>1</v>
       </c>
       <c r="X11" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="Y11" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="Z11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B12" t="s">
         <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D12"/>
       <c r="E12" t="s">
@@ -1629,7 +1688,9 @@
       <c r="N12" t="n">
         <v>5</v>
       </c>
-      <c r="O12"/>
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
       <c r="P12" t="n">
         <v>1</v>
       </c>
@@ -1651,24 +1712,24 @@
         <v>1</v>
       </c>
       <c r="X12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y12" t="s">
         <v>9</v>
       </c>
       <c r="Z12" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
         <v>58</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" t="s">
-        <v>55</v>
       </c>
       <c r="D13"/>
       <c r="E13" t="s">
@@ -1697,7 +1758,9 @@
       <c r="N13" t="n">
         <v>3</v>
       </c>
-      <c r="O13"/>
+      <c r="O13" t="n">
+        <v>5</v>
+      </c>
       <c r="P13" t="n">
         <v>1</v>
       </c>
@@ -1719,24 +1782,24 @@
         <v>1</v>
       </c>
       <c r="X13" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="Y13" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="Z13" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B14" t="s">
         <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D14"/>
       <c r="E14" t="s">
@@ -1767,7 +1830,9 @@
       <c r="N14" t="n">
         <v>3</v>
       </c>
-      <c r="O14"/>
+      <c r="O14" t="n">
+        <v>5</v>
+      </c>
       <c r="P14" t="n">
         <v>1</v>
       </c>
@@ -1789,24 +1854,24 @@
         <v>1</v>
       </c>
       <c r="X14" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="Y14" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="Z14" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B15" t="s">
         <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D15"/>
       <c r="E15" t="s">
@@ -1835,7 +1900,9 @@
       <c r="N15" t="n">
         <v>3</v>
       </c>
-      <c r="O15"/>
+      <c r="O15" t="n">
+        <v>1</v>
+      </c>
       <c r="P15" t="n">
         <v>1</v>
       </c>
@@ -1857,24 +1924,24 @@
         <v>1</v>
       </c>
       <c r="X15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Y15" t="s">
         <v>13</v>
       </c>
       <c r="Z15" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B16" t="s">
         <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D16"/>
       <c r="E16" t="s">
@@ -1905,7 +1972,9 @@
       <c r="N16" t="n">
         <v>5</v>
       </c>
-      <c r="O16"/>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
       <c r="P16" t="n">
         <v>1</v>
       </c>
@@ -1927,24 +1996,24 @@
         <v>1</v>
       </c>
       <c r="X16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y16" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="Z16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B17" t="s">
         <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D17"/>
       <c r="E17" t="s">
@@ -1961,17 +2030,21 @@
         <v>5</v>
       </c>
       <c r="J17"/>
-      <c r="K17"/>
+      <c r="K17" t="n">
+        <v>3</v>
+      </c>
       <c r="L17" t="n">
         <v>3</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N17" t="n">
         <v>3</v>
       </c>
-      <c r="O17"/>
+      <c r="O17" t="n">
+        <v>1</v>
+      </c>
       <c r="P17" t="n">
         <v>1</v>
       </c>
@@ -1993,24 +2066,24 @@
         <v>1</v>
       </c>
       <c r="X17" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y17" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z17" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B18" t="s">
         <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D18"/>
       <c r="E18" t="s">
@@ -2036,12 +2109,14 @@
         <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N18" t="n">
         <v>5</v>
       </c>
-      <c r="O18"/>
+      <c r="O18" t="n">
+        <v>1</v>
+      </c>
       <c r="P18" t="n">
         <v>1</v>
       </c>
@@ -2063,24 +2138,24 @@
         <v>1</v>
       </c>
       <c r="X18" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="Y18" t="s">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="Z18" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" t="s">
         <v>79</v>
-      </c>
-      <c r="B19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" t="s">
-        <v>76</v>
       </c>
       <c r="D19"/>
       <c r="E19" t="s">
@@ -2099,7 +2174,9 @@
       <c r="J19" t="n">
         <v>5</v>
       </c>
-      <c r="K19"/>
+      <c r="K19" t="n">
+        <v>5</v>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -2109,7 +2186,9 @@
       <c r="N19" t="n">
         <v>5</v>
       </c>
-      <c r="O19"/>
+      <c r="O19" t="n">
+        <v>1</v>
+      </c>
       <c r="P19" t="n">
         <v>1</v>
       </c>
@@ -2131,24 +2210,24 @@
         <v>1</v>
       </c>
       <c r="X19" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="Y19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Z19" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B20" t="s">
         <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D20"/>
       <c r="E20" t="s">
@@ -2174,10 +2253,12 @@
         <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N20"/>
-      <c r="O20"/>
+      <c r="O20" t="n">
+        <v>1</v>
+      </c>
       <c r="P20" t="n">
         <v>1</v>
       </c>
@@ -2199,24 +2280,24 @@
         <v>1</v>
       </c>
       <c r="X20" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="Y20" t="s">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="Z20" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B21" t="s">
         <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D21"/>
       <c r="E21" t="s">
@@ -2242,7 +2323,7 @@
         <v>3</v>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N21" t="n">
         <v>5</v>
@@ -2271,24 +2352,24 @@
         <v>1</v>
       </c>
       <c r="X21" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Y21" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="Z21" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B22" t="s">
         <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D22"/>
       <c r="E22" t="s">
@@ -2307,7 +2388,9 @@
       <c r="J22" t="n">
         <v>5</v>
       </c>
-      <c r="K22"/>
+      <c r="K22" t="n">
+        <v>3</v>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -2341,24 +2424,24 @@
         <v>1</v>
       </c>
       <c r="X22" t="s">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="Y22" t="s">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="Z22" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
         <v>90</v>
-      </c>
-      <c r="B23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" t="s">
-        <v>87</v>
       </c>
       <c r="D23"/>
       <c r="E23" t="s">
@@ -2387,7 +2470,9 @@
       <c r="N23" t="n">
         <v>5</v>
       </c>
-      <c r="O23"/>
+      <c r="O23" t="n">
+        <v>1</v>
+      </c>
       <c r="P23" t="n">
         <v>1</v>
       </c>
@@ -2409,24 +2494,24 @@
         <v>1</v>
       </c>
       <c r="X23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y23" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Z23" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B24" t="s">
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D24"/>
       <c r="E24" t="s">
@@ -2443,7 +2528,9 @@
         <v>5</v>
       </c>
       <c r="J24"/>
-      <c r="K24"/>
+      <c r="K24" t="n">
+        <v>3</v>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -2453,7 +2540,9 @@
       <c r="N24" t="n">
         <v>5</v>
       </c>
-      <c r="O24"/>
+      <c r="O24" t="n">
+        <v>1</v>
+      </c>
       <c r="P24" t="n">
         <v>1</v>
       </c>
@@ -2475,24 +2564,24 @@
         <v>1</v>
       </c>
       <c r="X24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y24" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z24" t="s">
         <v>34</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B25" t="s">
         <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D25"/>
       <c r="E25" t="s">
@@ -2518,12 +2607,14 @@
         <v>5</v>
       </c>
       <c r="M25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N25" t="n">
         <v>5</v>
       </c>
-      <c r="O25"/>
+      <c r="O25" t="n">
+        <v>1</v>
+      </c>
       <c r="P25" t="n">
         <v>1</v>
       </c>
@@ -2545,24 +2636,24 @@
         <v>1</v>
       </c>
       <c r="X25" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="Y25" t="s">
         <v>91</v>
       </c>
       <c r="Z25" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B26" t="s">
         <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D26"/>
       <c r="E26" t="s">
@@ -2579,7 +2670,9 @@
         <v>5</v>
       </c>
       <c r="J26"/>
-      <c r="K26"/>
+      <c r="K26" t="n">
+        <v>3</v>
+      </c>
       <c r="L26" t="n">
         <v>5</v>
       </c>
@@ -2589,7 +2682,9 @@
       <c r="N26" t="n">
         <v>5</v>
       </c>
-      <c r="O26"/>
+      <c r="O26" t="n">
+        <v>1</v>
+      </c>
       <c r="P26" t="n">
         <v>1</v>
       </c>
@@ -2611,24 +2706,24 @@
         <v>1</v>
       </c>
       <c r="X26" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y26" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="Z26" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D27"/>
       <c r="E27" t="s">
@@ -2645,7 +2740,9 @@
         <v>5</v>
       </c>
       <c r="J27"/>
-      <c r="K27"/>
+      <c r="K27" t="n">
+        <v>3</v>
+      </c>
       <c r="L27" t="n">
         <v>5</v>
       </c>
@@ -2655,7 +2752,9 @@
       <c r="N27" t="n">
         <v>5</v>
       </c>
-      <c r="O27"/>
+      <c r="O27" t="n">
+        <v>1</v>
+      </c>
       <c r="P27" t="n">
         <v>1</v>
       </c>
@@ -2680,21 +2779,21 @@
         <v>97</v>
       </c>
       <c r="Y27" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="Z27" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B28" t="s">
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D28"/>
       <c r="E28" t="s">
@@ -2713,7 +2812,9 @@
       <c r="J28" t="n">
         <v>5</v>
       </c>
-      <c r="K28"/>
+      <c r="K28" t="n">
+        <v>3</v>
+      </c>
       <c r="L28" t="n">
         <v>5</v>
       </c>
@@ -2723,7 +2824,9 @@
       <c r="N28" t="n">
         <v>5</v>
       </c>
-      <c r="O28"/>
+      <c r="O28" t="n">
+        <v>1</v>
+      </c>
       <c r="P28" t="n">
         <v>1</v>
       </c>
@@ -2748,21 +2851,21 @@
         <v>97</v>
       </c>
       <c r="Y28" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="Z28" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B29" t="s">
         <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D29"/>
       <c r="E29" t="s">
@@ -2781,7 +2884,9 @@
       <c r="J29" t="n">
         <v>5</v>
       </c>
-      <c r="K29"/>
+      <c r="K29" t="n">
+        <v>3</v>
+      </c>
       <c r="L29" t="n">
         <v>3</v>
       </c>
@@ -2791,7 +2896,9 @@
       <c r="N29" t="n">
         <v>5</v>
       </c>
-      <c r="O29"/>
+      <c r="O29" t="n">
+        <v>1</v>
+      </c>
       <c r="P29" t="n">
         <v>3</v>
       </c>
@@ -2813,24 +2920,24 @@
         <v>1</v>
       </c>
       <c r="X29" t="s">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="Y29" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="Z29" t="s">
-        <v>30</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B30" t="s">
         <v>27</v>
       </c>
       <c r="C30" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D30"/>
       <c r="E30" t="s">
@@ -2885,24 +2992,24 @@
         <v>1</v>
       </c>
       <c r="X30" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="Y30" t="s">
         <v>10</v>
       </c>
       <c r="Z30" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>111</v>
+      </c>
+      <c r="B31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" t="s">
         <v>106</v>
-      </c>
-      <c r="B31" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" t="s">
-        <v>101</v>
       </c>
       <c r="D31"/>
       <c r="E31" t="s">
@@ -2928,12 +3035,14 @@
         <v>5</v>
       </c>
       <c r="M31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N31" t="n">
         <v>3</v>
       </c>
-      <c r="O31"/>
+      <c r="O31" t="n">
+        <v>1</v>
+      </c>
       <c r="P31" t="n">
         <v>1</v>
       </c>
@@ -2955,24 +3064,24 @@
         <v>1</v>
       </c>
       <c r="X31" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="Y31" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="Z31" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B32" t="s">
         <v>27</v>
       </c>
       <c r="C32" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D32"/>
       <c r="E32" t="s">
@@ -3003,7 +3112,9 @@
       <c r="N32" t="n">
         <v>5</v>
       </c>
-      <c r="O32"/>
+      <c r="O32" t="n">
+        <v>1</v>
+      </c>
       <c r="P32" t="n">
         <v>1</v>
       </c>
@@ -3025,24 +3136,24 @@
         <v>1</v>
       </c>
       <c r="X32" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="Y32" t="s">
         <v>10</v>
       </c>
       <c r="Z32" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B33" t="s">
         <v>27</v>
       </c>
       <c r="C33" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D33"/>
       <c r="E33" t="s">
@@ -3061,7 +3172,9 @@
       <c r="J33" t="n">
         <v>5</v>
       </c>
-      <c r="K33"/>
+      <c r="K33" t="n">
+        <v>3</v>
+      </c>
       <c r="L33" t="n">
         <v>3</v>
       </c>
@@ -3071,7 +3184,9 @@
       <c r="N33" t="n">
         <v>5</v>
       </c>
-      <c r="O33"/>
+      <c r="O33" t="n">
+        <v>1</v>
+      </c>
       <c r="P33" t="n">
         <v>1</v>
       </c>
@@ -3093,24 +3208,24 @@
         <v>1</v>
       </c>
       <c r="X33" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y33" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="Z33" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B34" t="s">
         <v>27</v>
       </c>
       <c r="C34" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D34"/>
       <c r="E34" t="s">
@@ -3129,7 +3244,9 @@
       <c r="J34" t="n">
         <v>5</v>
       </c>
-      <c r="K34"/>
+      <c r="K34" t="n">
+        <v>5</v>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -3139,7 +3256,9 @@
       <c r="N34" t="n">
         <v>5</v>
       </c>
-      <c r="O34"/>
+      <c r="O34" t="n">
+        <v>5</v>
+      </c>
       <c r="P34" t="n">
         <v>1</v>
       </c>
@@ -3161,24 +3280,24 @@
         <v>1</v>
       </c>
       <c r="X34" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="Y34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Z34" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B35" t="s">
         <v>27</v>
       </c>
       <c r="C35" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D35"/>
       <c r="E35" t="s">
@@ -3197,7 +3316,9 @@
       <c r="J35" t="n">
         <v>3</v>
       </c>
-      <c r="K35"/>
+      <c r="K35" t="n">
+        <v>3</v>
+      </c>
       <c r="L35" t="n">
         <v>3</v>
       </c>
@@ -3207,7 +3328,9 @@
       <c r="N35" t="n">
         <v>5</v>
       </c>
-      <c r="O35"/>
+      <c r="O35" t="n">
+        <v>5</v>
+      </c>
       <c r="P35" t="n">
         <v>1</v>
       </c>
@@ -3229,24 +3352,24 @@
         <v>1</v>
       </c>
       <c r="X35" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="Y35" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="Z35" t="s">
-        <v>44</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="B36" t="s">
         <v>27</v>
       </c>
       <c r="C36" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="D36"/>
       <c r="E36" t="s">
@@ -3275,7 +3398,9 @@
       <c r="N36" t="n">
         <v>5</v>
       </c>
-      <c r="O36"/>
+      <c r="O36" t="n">
+        <v>1</v>
+      </c>
       <c r="P36" t="n">
         <v>1</v>
       </c>
@@ -3297,24 +3422,24 @@
         <v>1</v>
       </c>
       <c r="X36" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y36" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="Z36" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="B37" t="s">
         <v>27</v>
       </c>
       <c r="C37" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="D37"/>
       <c r="E37" t="s">
@@ -3333,7 +3458,9 @@
       <c r="J37" t="n">
         <v>3</v>
       </c>
-      <c r="K37"/>
+      <c r="K37" t="n">
+        <v>5</v>
+      </c>
       <c r="L37" t="n">
         <v>3</v>
       </c>
@@ -3341,7 +3468,9 @@
         <v>5</v>
       </c>
       <c r="N37"/>
-      <c r="O37"/>
+      <c r="O37" t="n">
+        <v>5</v>
+      </c>
       <c r="P37" t="n">
         <v>3</v>
       </c>
@@ -3363,24 +3492,24 @@
         <v>1</v>
       </c>
       <c r="X37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Y37" t="s">
-        <v>44</v>
+        <v>127</v>
       </c>
       <c r="Z37" t="s">
-        <v>44</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="B38" t="s">
         <v>27</v>
       </c>
       <c r="C38" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="D38"/>
       <c r="E38" t="s">
@@ -3409,7 +3538,9 @@
       <c r="N38" t="n">
         <v>1</v>
       </c>
-      <c r="O38"/>
+      <c r="O38" t="n">
+        <v>5</v>
+      </c>
       <c r="P38" t="n">
         <v>3</v>
       </c>
@@ -3431,24 +3562,24 @@
         <v>1</v>
       </c>
       <c r="X38" t="s">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="Y38" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="Z38" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B39" t="s">
         <v>27</v>
       </c>
       <c r="C39" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="D39"/>
       <c r="E39" t="s">
@@ -3467,7 +3598,9 @@
       <c r="J39" t="n">
         <v>5</v>
       </c>
-      <c r="K39"/>
+      <c r="K39" t="n">
+        <v>5</v>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -3477,7 +3610,9 @@
       <c r="N39" t="n">
         <v>3</v>
       </c>
-      <c r="O39"/>
+      <c r="O39" t="n">
+        <v>1</v>
+      </c>
       <c r="P39" t="n">
         <v>3</v>
       </c>
@@ -3499,24 +3634,24 @@
         <v>1</v>
       </c>
       <c r="X39" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="Y39" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="Z39" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="B40" t="s">
         <v>27</v>
       </c>
       <c r="C40" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D40"/>
       <c r="E40" t="s">
@@ -3535,7 +3670,9 @@
       <c r="J40" t="n">
         <v>5</v>
       </c>
-      <c r="K40"/>
+      <c r="K40" t="n">
+        <v>3</v>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -3545,7 +3682,9 @@
       <c r="N40" t="n">
         <v>3</v>
       </c>
-      <c r="O40"/>
+      <c r="O40" t="n">
+        <v>5</v>
+      </c>
       <c r="P40" t="n">
         <v>1</v>
       </c>
@@ -3567,24 +3706,24 @@
         <v>1</v>
       </c>
       <c r="X40" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="Y40" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="Z40" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="B41" t="s">
         <v>27</v>
       </c>
       <c r="C41" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D41"/>
       <c r="E41" t="s">
@@ -3603,7 +3742,9 @@
       <c r="J41" t="n">
         <v>5</v>
       </c>
-      <c r="K41"/>
+      <c r="K41" t="n">
+        <v>3</v>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -3613,7 +3754,9 @@
       <c r="N41" t="n">
         <v>5</v>
       </c>
-      <c r="O41"/>
+      <c r="O41" t="n">
+        <v>1</v>
+      </c>
       <c r="P41" t="n">
         <v>1</v>
       </c>
@@ -3635,24 +3778,24 @@
         <v>1</v>
       </c>
       <c r="X41" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y41" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="Z41" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="B42" t="s">
         <v>27</v>
       </c>
       <c r="C42" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D42"/>
       <c r="E42" t="s">
@@ -3681,7 +3824,9 @@
       <c r="N42" t="n">
         <v>5</v>
       </c>
-      <c r="O42"/>
+      <c r="O42" t="n">
+        <v>1</v>
+      </c>
       <c r="P42" t="n">
         <v>1</v>
       </c>
@@ -3703,24 +3848,24 @@
         <v>1</v>
       </c>
       <c r="X42" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y42" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="Z42" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="B43" t="s">
         <v>27</v>
       </c>
       <c r="C43" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D43"/>
       <c r="E43" t="s">
@@ -3747,7 +3892,9 @@
       <c r="N43" t="n">
         <v>5</v>
       </c>
-      <c r="O43"/>
+      <c r="O43" t="n">
+        <v>1</v>
+      </c>
       <c r="P43" t="n">
         <v>1</v>
       </c>
@@ -3769,24 +3916,24 @@
         <v>1</v>
       </c>
       <c r="X43" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Z43" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="B44" t="s">
         <v>27</v>
       </c>
       <c r="C44" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D44"/>
       <c r="E44" t="s">
@@ -3803,7 +3950,9 @@
         <v>5</v>
       </c>
       <c r="J44"/>
-      <c r="K44"/>
+      <c r="K44" t="n">
+        <v>3</v>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -3813,7 +3962,9 @@
       <c r="N44" t="n">
         <v>3</v>
       </c>
-      <c r="O44"/>
+      <c r="O44" t="n">
+        <v>1</v>
+      </c>
       <c r="P44" t="n">
         <v>1</v>
       </c>
@@ -3835,24 +3986,24 @@
         <v>1</v>
       </c>
       <c r="X44" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y44" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="Z44" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="B45" t="s">
         <v>27</v>
       </c>
       <c r="C45" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D45"/>
       <c r="E45" t="s">
@@ -3871,7 +4022,9 @@
       <c r="J45" t="n">
         <v>3</v>
       </c>
-      <c r="K45"/>
+      <c r="K45" t="n">
+        <v>3</v>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -3881,7 +4034,9 @@
       <c r="N45" t="n">
         <v>5</v>
       </c>
-      <c r="O45"/>
+      <c r="O45" t="n">
+        <v>1</v>
+      </c>
       <c r="P45" t="n">
         <v>1</v>
       </c>
@@ -3903,24 +4058,24 @@
         <v>1</v>
       </c>
       <c r="X45" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y45" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="Z45" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="B46" t="s">
         <v>27</v>
       </c>
       <c r="C46" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D46"/>
       <c r="E46" t="s">
@@ -3951,7 +4106,9 @@
       <c r="N46" t="n">
         <v>5</v>
       </c>
-      <c r="O46"/>
+      <c r="O46" t="n">
+        <v>1</v>
+      </c>
       <c r="P46" t="n">
         <v>1</v>
       </c>
@@ -3973,24 +4130,24 @@
         <v>1</v>
       </c>
       <c r="X46" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y46" t="s">
         <v>10</v>
       </c>
       <c r="Z46" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="B47" t="s">
         <v>27</v>
       </c>
       <c r="C47" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D47"/>
       <c r="E47" t="s">
@@ -4021,7 +4178,9 @@
       <c r="N47" t="n">
         <v>5</v>
       </c>
-      <c r="O47"/>
+      <c r="O47" t="n">
+        <v>5</v>
+      </c>
       <c r="P47" t="n">
         <v>1</v>
       </c>
@@ -4043,24 +4202,24 @@
         <v>1</v>
       </c>
       <c r="X47" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="Y47" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="Z47" t="s">
-        <v>78</v>
+        <v>147</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="B48" t="s">
         <v>27</v>
       </c>
       <c r="C48" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="D48"/>
       <c r="E48" t="s">
@@ -4089,7 +4248,9 @@
       <c r="N48" t="n">
         <v>5</v>
       </c>
-      <c r="O48"/>
+      <c r="O48" t="n">
+        <v>1</v>
+      </c>
       <c r="P48" t="n">
         <v>1</v>
       </c>
@@ -4111,24 +4272,24 @@
         <v>1</v>
       </c>
       <c r="X48" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y48" t="s">
         <v>10</v>
       </c>
       <c r="Z48" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="B49" t="s">
         <v>27</v>
       </c>
       <c r="C49" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="D49"/>
       <c r="E49" t="s">
@@ -4145,7 +4306,9 @@
         <v>5</v>
       </c>
       <c r="J49"/>
-      <c r="K49"/>
+      <c r="K49" t="n">
+        <v>5</v>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -4155,7 +4318,9 @@
       <c r="N49" t="n">
         <v>5</v>
       </c>
-      <c r="O49"/>
+      <c r="O49" t="n">
+        <v>5</v>
+      </c>
       <c r="P49" t="n">
         <v>3</v>
       </c>
@@ -4177,24 +4342,24 @@
         <v>1</v>
       </c>
       <c r="X49" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="Y49" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="Z49" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="B50" t="s">
         <v>27</v>
       </c>
       <c r="C50" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="D50"/>
       <c r="E50" t="s">
@@ -4221,7 +4386,9 @@
       <c r="N50" t="n">
         <v>5</v>
       </c>
-      <c r="O50"/>
+      <c r="O50" t="n">
+        <v>1</v>
+      </c>
       <c r="P50" t="n">
         <v>1</v>
       </c>
@@ -4243,24 +4410,24 @@
         <v>1</v>
       </c>
       <c r="X50" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Z50" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="B51" t="s">
         <v>27</v>
       </c>
       <c r="C51" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="D51"/>
       <c r="E51" t="s">
@@ -4279,7 +4446,9 @@
       <c r="J51" t="n">
         <v>5</v>
       </c>
-      <c r="K51"/>
+      <c r="K51" t="n">
+        <v>3</v>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -4289,7 +4458,9 @@
       <c r="N51" t="n">
         <v>5</v>
       </c>
-      <c r="O51"/>
+      <c r="O51" t="n">
+        <v>1</v>
+      </c>
       <c r="P51" t="n">
         <v>1</v>
       </c>
@@ -4311,24 +4482,24 @@
         <v>1</v>
       </c>
       <c r="X51" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y51" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z51" t="s">
         <v>34</v>
-      </c>
-      <c r="Z51" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="B52" t="s">
         <v>27</v>
       </c>
       <c r="C52" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="D52"/>
       <c r="E52" t="s">
@@ -4359,7 +4530,9 @@
       <c r="N52" t="n">
         <v>5</v>
       </c>
-      <c r="O52"/>
+      <c r="O52" t="n">
+        <v>5</v>
+      </c>
       <c r="P52" t="n">
         <v>1</v>
       </c>
@@ -4381,24 +4554,24 @@
         <v>1</v>
       </c>
       <c r="X52" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="Y52" t="s">
         <v>10</v>
       </c>
       <c r="Z52" t="s">
-        <v>33</v>
+        <v>156</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="B53" t="s">
         <v>27</v>
       </c>
       <c r="C53" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="D53"/>
       <c r="E53" t="s">
@@ -4429,7 +4602,9 @@
       <c r="N53" t="n">
         <v>3</v>
       </c>
-      <c r="O53"/>
+      <c r="O53" t="n">
+        <v>1</v>
+      </c>
       <c r="P53" t="n">
         <v>1</v>
       </c>
@@ -4451,24 +4626,24 @@
         <v>1</v>
       </c>
       <c r="X53" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y53" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="Z53" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="B54" t="s">
         <v>27</v>
       </c>
       <c r="C54" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="D54"/>
       <c r="E54" t="s">
@@ -4499,7 +4674,9 @@
       <c r="N54" t="n">
         <v>5</v>
       </c>
-      <c r="O54"/>
+      <c r="O54" t="n">
+        <v>1</v>
+      </c>
       <c r="P54" t="n">
         <v>1</v>
       </c>
@@ -4521,24 +4698,24 @@
         <v>3</v>
       </c>
       <c r="X54" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y54" t="s">
         <v>10</v>
       </c>
       <c r="Z54" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="B55" t="s">
         <v>27</v>
       </c>
       <c r="C55" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="D55"/>
       <c r="E55" t="s">
@@ -4557,7 +4734,9 @@
       <c r="J55" t="n">
         <v>5</v>
       </c>
-      <c r="K55"/>
+      <c r="K55" t="n">
+        <v>3</v>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -4567,7 +4746,9 @@
       <c r="N55" t="n">
         <v>5</v>
       </c>
-      <c r="O55"/>
+      <c r="O55" t="n">
+        <v>1</v>
+      </c>
       <c r="P55" t="n">
         <v>1</v>
       </c>
@@ -4589,24 +4770,24 @@
         <v>1</v>
       </c>
       <c r="X55" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y55" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z55" t="s">
         <v>34</v>
-      </c>
-      <c r="Z55" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="B56" t="s">
         <v>27</v>
       </c>
       <c r="C56" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="D56"/>
       <c r="E56" t="s">
@@ -4635,7 +4816,9 @@
       <c r="N56" t="n">
         <v>5</v>
       </c>
-      <c r="O56"/>
+      <c r="O56" t="n">
+        <v>5</v>
+      </c>
       <c r="P56" t="n">
         <v>1</v>
       </c>
@@ -4657,24 +4840,24 @@
         <v>1</v>
       </c>
       <c r="X56" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="Y56" t="s">
         <v>10</v>
       </c>
       <c r="Z56" t="s">
-        <v>33</v>
+        <v>156</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="B57" t="s">
         <v>27</v>
       </c>
       <c r="C57" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="D57"/>
       <c r="E57" t="s">
@@ -4705,7 +4888,9 @@
       <c r="N57" t="n">
         <v>5</v>
       </c>
-      <c r="O57"/>
+      <c r="O57" t="n">
+        <v>5</v>
+      </c>
       <c r="P57" t="n">
         <v>1</v>
       </c>
@@ -4727,24 +4912,24 @@
         <v>3</v>
       </c>
       <c r="X57" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="Y57" t="s">
         <v>10</v>
       </c>
       <c r="Z57" t="s">
-        <v>33</v>
+        <v>156</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="B58" t="s">
         <v>27</v>
       </c>
       <c r="C58" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="D58"/>
       <c r="E58" t="s">
@@ -4768,12 +4953,14 @@
         <v>1</v>
       </c>
       <c r="M58" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N58" t="n">
         <v>5</v>
       </c>
-      <c r="O58"/>
+      <c r="O58" t="n">
+        <v>1</v>
+      </c>
       <c r="P58" t="n">
         <v>1</v>
       </c>
@@ -4795,24 +4982,24 @@
         <v>1</v>
       </c>
       <c r="X58" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="Y58" t="s">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="Z58" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="B59" t="s">
         <v>27</v>
       </c>
       <c r="C59" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="D59"/>
       <c r="E59" t="s">
@@ -4836,10 +5023,12 @@
         <v>1</v>
       </c>
       <c r="M59" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N59"/>
-      <c r="O59"/>
+      <c r="O59" t="n">
+        <v>1</v>
+      </c>
       <c r="P59" t="n">
         <v>1</v>
       </c>
@@ -4861,24 +5050,24 @@
         <v>1</v>
       </c>
       <c r="X59" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="Y59" t="s">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="Z59" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="B60" t="s">
         <v>27</v>
       </c>
       <c r="C60" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="D60"/>
       <c r="E60" t="s">
@@ -4897,7 +5086,9 @@
       <c r="J60" t="n">
         <v>5</v>
       </c>
-      <c r="K60"/>
+      <c r="K60" t="n">
+        <v>3</v>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -4907,7 +5098,9 @@
       <c r="N60" t="n">
         <v>5</v>
       </c>
-      <c r="O60"/>
+      <c r="O60" t="n">
+        <v>1</v>
+      </c>
       <c r="P60" t="n">
         <v>1</v>
       </c>
@@ -4929,24 +5122,24 @@
         <v>1</v>
       </c>
       <c r="X60" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="Y60" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="Z60" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="B61" t="s">
         <v>27</v>
       </c>
       <c r="C61" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="D61"/>
       <c r="E61" t="s">
@@ -4975,7 +5168,9 @@
         <v>1</v>
       </c>
       <c r="N61"/>
-      <c r="O61"/>
+      <c r="O61" t="n">
+        <v>1</v>
+      </c>
       <c r="P61" t="n">
         <v>1</v>
       </c>
@@ -4997,24 +5192,24 @@
         <v>1</v>
       </c>
       <c r="X61" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="Y61" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="Z61" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="B62" t="s">
         <v>27</v>
       </c>
       <c r="C62" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="D62"/>
       <c r="E62" t="s">
@@ -5038,12 +5233,14 @@
         <v>1</v>
       </c>
       <c r="M62" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N62" t="n">
         <v>3</v>
       </c>
-      <c r="O62"/>
+      <c r="O62" t="n">
+        <v>1</v>
+      </c>
       <c r="P62" t="n">
         <v>1</v>
       </c>
@@ -5065,24 +5262,24 @@
         <v>1</v>
       </c>
       <c r="X62" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="Y62" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="Z62" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="B63" t="s">
         <v>27</v>
       </c>
       <c r="C63" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D63"/>
       <c r="E63" t="s">
@@ -5101,7 +5298,9 @@
       <c r="J63" t="n">
         <v>5</v>
       </c>
-      <c r="K63"/>
+      <c r="K63" t="n">
+        <v>3</v>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -5111,7 +5310,9 @@
       <c r="N63" t="n">
         <v>5</v>
       </c>
-      <c r="O63"/>
+      <c r="O63" t="n">
+        <v>1</v>
+      </c>
       <c r="P63" t="n">
         <v>1</v>
       </c>
@@ -5133,28 +5334,28 @@
         <v>1</v>
       </c>
       <c r="X63" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y63" t="s">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="Z63" t="s">
-        <v>30</v>
+        <v>92</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="B64" t="s">
         <v>27</v>
       </c>
       <c r="C64" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D64"/>
       <c r="E64" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="F64"/>
       <c r="G64" t="n">
@@ -5181,7 +5382,9 @@
       <c r="N64" t="n">
         <v>5</v>
       </c>
-      <c r="O64"/>
+      <c r="O64" t="n">
+        <v>5</v>
+      </c>
       <c r="P64" t="n">
         <v>1</v>
       </c>
@@ -5203,24 +5406,24 @@
         <v>1</v>
       </c>
       <c r="X64" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="Y64" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="Z64" t="s">
-        <v>33</v>
+        <v>156</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="B65" t="s">
         <v>27</v>
       </c>
       <c r="C65" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D65"/>
       <c r="E65" t="s">
@@ -5249,7 +5452,9 @@
       <c r="N65" t="n">
         <v>1</v>
       </c>
-      <c r="O65"/>
+      <c r="O65" t="n">
+        <v>1</v>
+      </c>
       <c r="P65" t="n">
         <v>1</v>
       </c>
@@ -5271,24 +5476,24 @@
         <v>1</v>
       </c>
       <c r="X65" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="Y65" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="Z65" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="B66" t="s">
         <v>27</v>
       </c>
       <c r="C66" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="D66"/>
       <c r="E66" t="s">
@@ -5335,24 +5540,24 @@
         <v>1</v>
       </c>
       <c r="X66" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="Y66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Z66" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="B67" t="s">
         <v>27</v>
       </c>
       <c r="C67" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="D67"/>
       <c r="E67" t="s">
@@ -5379,7 +5584,9 @@
         <v>5</v>
       </c>
       <c r="N67"/>
-      <c r="O67"/>
+      <c r="O67" t="n">
+        <v>1</v>
+      </c>
       <c r="P67" t="n">
         <v>3</v>
       </c>
@@ -5401,13 +5608,13 @@
         <v>1</v>
       </c>
       <c r="X67" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="Y67" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="Z67" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
